--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C97A1381-B64B-4A20-9B6B-00CD6F4A8460}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA63EBDB-4D8C-458D-A3B3-00B7C82CFA58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" activeTab="24" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </sheets>
   <definedNames>
     <definedName name="Conectar_con_nuevo_origen_de_datos" localSheetId="16" hidden="1">Area_produccion!$A$1:$L$2</definedName>
-    <definedName name="elultimoinca_brix" localSheetId="0" hidden="1">brix!$A$1:$B$2</definedName>
+    <definedName name="elultimoinca_brix" localSheetId="0" hidden="1">brix!$A$1:$B$3</definedName>
     <definedName name="elultimoinca_catalogo" localSheetId="6" hidden="1">Catalogo!$A$1:$B$2</definedName>
     <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$2</definedName>
     <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$2</definedName>
@@ -492,7 +492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,7 +529,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -561,7 +583,12 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A16F9391-069A-4546-B0ED-6C7569E5A256}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -967,10 +994,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F28CA9C5-6A1E-4E65-9709-55619A48387F}" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B2" tableType="queryTable" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{12514B70-BF7E-4C94-99F4-78CD7490AC4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F28CA9C5-6A1E-4E65-9709-55619A48387F}" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:B3" xr:uid="{12514B70-BF7E-4C94-99F4-78CD7490AC4E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7B69E917-BF09-4BB9-8CC8-04978A87B055}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="1" xr3:uid="{7B69E917-BF09-4BB9-8CC8-04978A87B055}" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
+      <totalsRowFormula>A3+1</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{99907F07-0D37-48FC-AD3A-0A1B1DBA0597}" uniqueName="3" name="cantidad" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1011,7 +1040,7 @@
   <autoFilter ref="A1:I2" xr:uid="{163B5987-23D6-433D-9004-CB53D6138C53}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A01CE0AF-A893-4309-AD7F-F8F19D5E85B9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{9AA303DC-005C-449C-AB19-D0CE79F0A78D}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6165051C-C68A-4745-B0BF-B0D4C50B05FF}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{1E403947-EDA5-4FE3-94C2-955C0EE04C3A}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
@@ -1030,11 +1059,11 @@
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{373A533A-FD64-480F-A332-02AF08D76FD2}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{99B16367-E680-412E-A80F-4C384B8D2BCC}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{BEEA1BC9-E945-424F-BD0D-BE5BE4CA2EA2}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{7A713E5E-2375-4AE3-8080-99510A7BE4C9}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{B1D94914-530B-4C27-9A75-E0FAEE32AC41}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{AE9D87E1-0B17-4BDD-B4C0-1D5C714671AB}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{6128A6D8-EB39-46E9-A576-5D81B59D3766}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{1F2C81F0-3800-4F89-A843-6902E46BE513}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
@@ -1058,7 +1087,7 @@
   <autoFilter ref="A1:H2" xr:uid="{E84FFF61-A902-4C28-9F49-7934E9A57C27}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{414A26FF-127E-434E-9E1B-E55E10567043}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{60C2622C-B7DB-4166-953A-9D58122119F9}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{74D2D821-928A-4DE5-839B-A5B0E347067D}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{B9264C65-1260-4D29-8559-AFF8FDA4F5C3}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
@@ -1075,7 +1104,7 @@
   <autoFilter ref="A1:I2" xr:uid="{CAFC53F0-2038-4506-9EBD-72A2C18A9B37}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{26648848-D323-4D9B-995D-777B434019FA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{978F8920-A422-43C7-992A-0325B7A25686}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{BF0CDC29-8C87-4D47-A1E8-AF707B632EB4}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{07EB23D2-9ED0-403C-BE5A-5295923EFDC9}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
@@ -1107,7 +1136,7 @@
   <autoFilter ref="A1:L2" xr:uid="{24A91281-81F7-4713-A1D7-D574E41EFC24}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{78440455-1A00-4D60-AFCE-9A4BBD9FBCFA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{8CC523AF-4A44-40A0-96B8-7AB2E5A5EE33}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7955B26A-D40E-43CA-8EF9-9854814D2EE5}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{03ADC484-13D0-4FC2-BA1E-25C40DFD3B3F}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
@@ -1115,7 +1144,7 @@
     <tableColumn id="7" xr3:uid="{AF0F2C78-0251-40B5-A190-A0E7035AAB0A}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9FA12032-632E-4FE9-BF0C-ACC42F74F5A2}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{350EA9B6-9C8F-47B0-AD7F-4EF6FB2BCAC3}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{2A423F1E-7FCF-451B-90AD-12EF5BD59244}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{8200728B-849B-4295-AA34-E19937B719D2}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
@@ -1131,7 +1160,7 @@
     <tableColumn id="2" xr3:uid="{F863CC63-963C-4373-8728-A23AE0CC4CB2}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{EE31E1F4-900D-473A-8294-7FECD043FB73}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{D021FDC1-5CA2-4109-A76D-F6B93B9F0386}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{747D6122-8FCE-42E6-A55C-057282C7B346}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{075B6372-2F32-4350-8230-3187F152D154}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{BEC4BD14-4858-41C1-897C-A0F024462D73}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
@@ -1176,7 +1205,7 @@
   <autoFilter ref="A1:I2" xr:uid="{953B6B21-3D3B-40A1-BCDE-278A82C2BF0E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BFD362CE-C8F5-4400-90DD-ECE2E748ABD9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{48DF0876-1D0D-44D0-B58D-A5B993DA2601}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7EA8C48F-42F5-437A-949A-278CA84671EF}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{5CC2B61E-2D28-49F6-9C27-8ED8C5458C72}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
@@ -1214,7 +1243,7 @@
   <autoFilter ref="A1:J2" xr:uid="{7BB28EFF-CA72-4586-8857-8A51CDE15B56}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A89EB31-7489-48C6-AB1C-862F842B6F0E}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{E32BA4EA-F1B5-4E5C-B2A1-8839795440D5}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7DBCDFEE-7DE7-438F-B86B-1F362018E490}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{FA741562-C18C-49D7-9B23-4FC501FA6900}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
@@ -1656,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E5911-B1DF-4E84-A4CF-99E814BA98DD}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,6 +1704,34 @@
       </c>
       <c r="B1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A6" si="0">A4+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22527632-6578-4707-AFE8-DDE059B25905}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA63EBDB-4D8C-458D-A3B3-00B7C82CFA58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B311AF8-AEDA-4681-BF1D-87CF2C95BBF7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" activeTab="2" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <definedName name="elultimoinca_materia_prima" localSheetId="9" hidden="1">Matria_Prima!$A$1:$D$2</definedName>
     <definedName name="elultimoinca_pasteurizacion" localSheetId="23" hidden="1">Pasteorizacion!$A$1:$C$2</definedName>
     <definedName name="elultimoinca_pedido" localSheetId="13" hidden="1">Pedido!$A$1:$H$2</definedName>
-    <definedName name="elultimoinca_procesos" localSheetId="2" hidden="1">Proceso!$A$1:$C$2</definedName>
+    <definedName name="elultimoinca_procesos" localSheetId="2" hidden="1">Proceso!$A$1:$C$6</definedName>
     <definedName name="elultimoinca_produccion_total" localSheetId="22" hidden="1">Producion_total!$A$1:$D$2</definedName>
     <definedName name="elultimoinca_proveedor" localSheetId="10" hidden="1">Proveedor!$A$1:$G$2</definedName>
     <definedName name="elultimoinca_salida_hoja_inventario" localSheetId="19" hidden="1">Salida_hoja_inventario!$A$1:$I$2</definedName>
@@ -531,26 +531,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -580,13 +561,32 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A16F9391-069A-4546-B0ED-6C7569E5A256}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1040,7 +1040,7 @@
   <autoFilter ref="A1:I2" xr:uid="{163B5987-23D6-433D-9004-CB53D6138C53}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A01CE0AF-A893-4309-AD7F-F8F19D5E85B9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{9AA303DC-005C-449C-AB19-D0CE79F0A78D}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6165051C-C68A-4745-B0BF-B0D4C50B05FF}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{1E403947-EDA5-4FE3-94C2-955C0EE04C3A}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
@@ -1059,11 +1059,11 @@
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{373A533A-FD64-480F-A332-02AF08D76FD2}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{99B16367-E680-412E-A80F-4C384B8D2BCC}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{BEEA1BC9-E945-424F-BD0D-BE5BE4CA2EA2}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{7A713E5E-2375-4AE3-8080-99510A7BE4C9}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{B1D94914-530B-4C27-9A75-E0FAEE32AC41}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{AE9D87E1-0B17-4BDD-B4C0-1D5C714671AB}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{6128A6D8-EB39-46E9-A576-5D81B59D3766}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{1F2C81F0-3800-4F89-A843-6902E46BE513}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
@@ -1087,7 +1087,7 @@
   <autoFilter ref="A1:H2" xr:uid="{E84FFF61-A902-4C28-9F49-7934E9A57C27}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{414A26FF-127E-434E-9E1B-E55E10567043}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{60C2622C-B7DB-4166-953A-9D58122119F9}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{74D2D821-928A-4DE5-839B-A5B0E347067D}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{B9264C65-1260-4D29-8559-AFF8FDA4F5C3}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
@@ -1104,7 +1104,7 @@
   <autoFilter ref="A1:I2" xr:uid="{CAFC53F0-2038-4506-9EBD-72A2C18A9B37}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{26648848-D323-4D9B-995D-777B434019FA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{978F8920-A422-43C7-992A-0325B7A25686}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{BF0CDC29-8C87-4D47-A1E8-AF707B632EB4}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{07EB23D2-9ED0-403C-BE5A-5295923EFDC9}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
@@ -1136,7 +1136,7 @@
   <autoFilter ref="A1:L2" xr:uid="{24A91281-81F7-4713-A1D7-D574E41EFC24}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{78440455-1A00-4D60-AFCE-9A4BBD9FBCFA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{8CC523AF-4A44-40A0-96B8-7AB2E5A5EE33}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7955B26A-D40E-43CA-8EF9-9854814D2EE5}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{03ADC484-13D0-4FC2-BA1E-25C40DFD3B3F}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
@@ -1144,7 +1144,7 @@
     <tableColumn id="7" xr3:uid="{AF0F2C78-0251-40B5-A190-A0E7035AAB0A}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9FA12032-632E-4FE9-BF0C-ACC42F74F5A2}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{350EA9B6-9C8F-47B0-AD7F-4EF6FB2BCAC3}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{2A423F1E-7FCF-451B-90AD-12EF5BD59244}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{8200728B-849B-4295-AA34-E19937B719D2}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
@@ -1160,7 +1160,7 @@
     <tableColumn id="2" xr3:uid="{F863CC63-963C-4373-8728-A23AE0CC4CB2}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{EE31E1F4-900D-473A-8294-7FECD043FB73}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{D021FDC1-5CA2-4109-A76D-F6B93B9F0386}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{747D6122-8FCE-42E6-A55C-057282C7B346}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{075B6372-2F32-4350-8230-3187F152D154}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{BEC4BD14-4858-41C1-897C-A0F024462D73}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
@@ -1205,7 +1205,7 @@
   <autoFilter ref="A1:I2" xr:uid="{953B6B21-3D3B-40A1-BCDE-278A82C2BF0E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BFD362CE-C8F5-4400-90DD-ECE2E748ABD9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{48DF0876-1D0D-44D0-B58D-A5B993DA2601}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7EA8C48F-42F5-437A-949A-278CA84671EF}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{5CC2B61E-2D28-49F6-9C27-8ED8C5458C72}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
@@ -1243,7 +1243,7 @@
   <autoFilter ref="A1:J2" xr:uid="{7BB28EFF-CA72-4586-8857-8A51CDE15B56}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A89EB31-7489-48C6-AB1C-862F842B6F0E}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{E32BA4EA-F1B5-4E5C-B2A1-8839795440D5}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7DBCDFEE-7DE7-438F-B86B-1F362018E490}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{FA741562-C18C-49D7-9B23-4FC501FA6900}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
@@ -1295,8 +1295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61D27C2A-1894-4BE5-95AD-900E75BBBF7B}" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{1783C59E-6EC3-442C-ADD8-C34687CEDC6F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61D27C2A-1894-4BE5-95AD-900E75BBBF7B}" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{1783C59E-6EC3-442C-ADD8-C34687CEDC6F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFB51DE5-24AE-420E-8972-C497D9F0AB06}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{69291B57-15CB-471D-85DF-9A953685F680}" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
@@ -1687,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E5911-B1DF-4E84-A4CF-99E814BA98DD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2713,9 +2713,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F94634-884C-4236-830B-706D7FCF10C2}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2733,6 +2735,31 @@
       </c>
       <c r="C1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA63EBDB-4D8C-458D-A3B3-00B7C82CFA58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{090342E0-EC72-4F76-863E-6E6BC7E18839}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" activeTab="1" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="Conectar_con_nuevo_origen_de_datos" localSheetId="16" hidden="1">Area_produccion!$A$1:$L$2</definedName>
     <definedName name="elultimoinca_brix" localSheetId="0" hidden="1">brix!$A$1:$B$3</definedName>
     <definedName name="elultimoinca_catalogo" localSheetId="6" hidden="1">Catalogo!$A$1:$B$2</definedName>
-    <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$2</definedName>
+    <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$7</definedName>
     <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_compra_mat_pri" localSheetId="11" hidden="1">Compra_Mat_pi!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$2</definedName>
@@ -531,6 +531,36 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -552,41 +582,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A16F9391-069A-4546-B0ED-6C7569E5A256}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1040,7 +1040,7 @@
   <autoFilter ref="A1:I2" xr:uid="{163B5987-23D6-433D-9004-CB53D6138C53}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A01CE0AF-A893-4309-AD7F-F8F19D5E85B9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{9AA303DC-005C-449C-AB19-D0CE79F0A78D}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6165051C-C68A-4745-B0BF-B0D4C50B05FF}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{1E403947-EDA5-4FE3-94C2-955C0EE04C3A}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
@@ -1059,11 +1059,11 @@
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{373A533A-FD64-480F-A332-02AF08D76FD2}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{99B16367-E680-412E-A80F-4C384B8D2BCC}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{BEEA1BC9-E945-424F-BD0D-BE5BE4CA2EA2}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{7A713E5E-2375-4AE3-8080-99510A7BE4C9}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{B1D94914-530B-4C27-9A75-E0FAEE32AC41}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{AE9D87E1-0B17-4BDD-B4C0-1D5C714671AB}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{6128A6D8-EB39-46E9-A576-5D81B59D3766}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{1F2C81F0-3800-4F89-A843-6902E46BE513}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
@@ -1087,7 +1087,7 @@
   <autoFilter ref="A1:H2" xr:uid="{E84FFF61-A902-4C28-9F49-7934E9A57C27}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{414A26FF-127E-434E-9E1B-E55E10567043}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{60C2622C-B7DB-4166-953A-9D58122119F9}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{74D2D821-928A-4DE5-839B-A5B0E347067D}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{B9264C65-1260-4D29-8559-AFF8FDA4F5C3}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
@@ -1104,7 +1104,7 @@
   <autoFilter ref="A1:I2" xr:uid="{CAFC53F0-2038-4506-9EBD-72A2C18A9B37}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{26648848-D323-4D9B-995D-777B434019FA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{978F8920-A422-43C7-992A-0325B7A25686}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{BF0CDC29-8C87-4D47-A1E8-AF707B632EB4}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{07EB23D2-9ED0-403C-BE5A-5295923EFDC9}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
@@ -1136,7 +1136,7 @@
   <autoFilter ref="A1:L2" xr:uid="{24A91281-81F7-4713-A1D7-D574E41EFC24}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{78440455-1A00-4D60-AFCE-9A4BBD9FBCFA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{8CC523AF-4A44-40A0-96B8-7AB2E5A5EE33}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7955B26A-D40E-43CA-8EF9-9854814D2EE5}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{03ADC484-13D0-4FC2-BA1E-25C40DFD3B3F}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
@@ -1144,7 +1144,7 @@
     <tableColumn id="7" xr3:uid="{AF0F2C78-0251-40B5-A190-A0E7035AAB0A}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9FA12032-632E-4FE9-BF0C-ACC42F74F5A2}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{350EA9B6-9C8F-47B0-AD7F-4EF6FB2BCAC3}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{2A423F1E-7FCF-451B-90AD-12EF5BD59244}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{8200728B-849B-4295-AA34-E19937B719D2}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
@@ -1160,7 +1160,7 @@
     <tableColumn id="2" xr3:uid="{F863CC63-963C-4373-8728-A23AE0CC4CB2}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{EE31E1F4-900D-473A-8294-7FECD043FB73}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{D021FDC1-5CA2-4109-A76D-F6B93B9F0386}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{747D6122-8FCE-42E6-A55C-057282C7B346}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{075B6372-2F32-4350-8230-3187F152D154}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{BEC4BD14-4858-41C1-897C-A0F024462D73}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
@@ -1189,8 +1189,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B238A56-8F7D-470D-BF77-C89F553683A6}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{E9EBCCA3-578F-45F2-982C-A30B359AED9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B238A56-8F7D-470D-BF77-C89F553683A6}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C7" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{E9EBCCA3-578F-45F2-982C-A30B359AED9D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DF10B194-2008-4E46-9A6F-F15DDD7C6459}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{F75F3CC9-5592-4650-8F94-453BB910A514}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
@@ -1205,7 +1205,7 @@
   <autoFilter ref="A1:I2" xr:uid="{953B6B21-3D3B-40A1-BCDE-278A82C2BF0E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BFD362CE-C8F5-4400-90DD-ECE2E748ABD9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{48DF0876-1D0D-44D0-B58D-A5B993DA2601}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7EA8C48F-42F5-437A-949A-278CA84671EF}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{5CC2B61E-2D28-49F6-9C27-8ED8C5458C72}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
@@ -1243,7 +1243,7 @@
   <autoFilter ref="A1:J2" xr:uid="{7BB28EFF-CA72-4586-8857-8A51CDE15B56}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A89EB31-7489-48C6-AB1C-862F842B6F0E}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{E32BA4EA-F1B5-4E5C-B2A1-8839795440D5}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7DBCDFEE-7DE7-438F-B86B-1F362018E490}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{FA741562-C18C-49D7-9B23-4FC501FA6900}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
@@ -1687,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E5911-B1DF-4E84-A4CF-99E814BA98DD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2333,9 +2333,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E384D13E-80C0-496A-93A5-9345ED232081}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2353,6 +2355,36 @@
       </c>
       <c r="C1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B311AF8-AEDA-4681-BF1D-87CF2C95BBF7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2810C949-2B42-41B6-B611-4DEDB9FD7589}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" activeTab="2" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -1687,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E5911-B1DF-4E84-A4CF-99E814BA98DD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2715,7 +2715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F94634-884C-4236-830B-706D7FCF10C2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA63EBDB-4D8C-458D-A3B3-00B7C82CFA58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -80,80 +79,80 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{752A6688-5FF6-4851-8D2C-3B8403E3B328}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`area_produccion`"/>
   </connection>
-  <connection id="2" xr16:uid="{EDAEF931-103A-47C2-9F8C-D8A0DF689756}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`brix`"/>
   </connection>
-  <connection id="3" xr16:uid="{C94EEBEC-2024-48CA-BAF5-710B1AC944D6}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`catalogo`"/>
   </connection>
-  <connection id="4" xr16:uid="{C3E6485D-8D62-4303-964A-802C12C5E893}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`clase_vino`"/>
   </connection>
-  <connection id="5" xr16:uid="{31F47E65-632F-47F2-9DC3-ABA7CB9DBFCC}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`cliente`"/>
   </connection>
-  <connection id="6" xr16:uid="{A3233DB1-166D-4672-8176-159CBFD2935E}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_mat_pri`"/>
   </connection>
-  <connection id="7" xr16:uid="{2D90F34B-8C86-41F9-BDCD-5153B53C3BEF}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_venta`"/>
   </connection>
-  <connection id="8" xr16:uid="{2066E658-3448-41C7-90A7-2128D043A104}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`empresa`"/>
   </connection>
-  <connection id="9" xr16:uid="{E7120D04-3B62-4DA9-8F6D-0D04F7F19AE7}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_produccion_vino`"/>
   </connection>
-  <connection id="10" xr16:uid="{48F95EAF-640C-4D26-987E-A769448800CD}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_producto_terminado`"/>
   </connection>
-  <connection id="11" xr16:uid="{9686D7DA-8087-4FB1-BCDF-595CEA3B5EA4}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_ventas`"/>
   </connection>
-  <connection id="12" xr16:uid="{89F7D410-8882-4442-A040-9C2B679FAD52}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`inventario_empresa`"/>
   </connection>
-  <connection id="13" xr16:uid="{56EA3675-038A-4F77-9BD9-BF9D1651F962}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`item_inventario`"/>
   </connection>
-  <connection id="14" xr16:uid="{6CF7BAC1-672F-490B-8C23-F5D4AE44CF3A}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="14" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`lote`"/>
   </connection>
-  <connection id="15" xr16:uid="{5F37E760-B8ED-4EDC-9672-80AF6AF42D37}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="15" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`materia_prima`"/>
   </connection>
-  <connection id="16" xr16:uid="{8D33E29E-39F6-4028-8A44-FC5B7B00D5BD}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="16" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pasteurizacion`"/>
   </connection>
-  <connection id="17" xr16:uid="{E0646CF9-6BCE-4B39-9198-A53AD5EE4A46}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="17" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pedido`"/>
   </connection>
-  <connection id="18" xr16:uid="{4A5A3FEE-04D7-4844-B219-7CCEC0F6BEF9}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="18" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`procesos`"/>
   </connection>
-  <connection id="19" xr16:uid="{F3CD7D75-EF8D-4396-BACC-E0B646B48551}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="19" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`produccion_total`"/>
   </connection>
-  <connection id="20" xr16:uid="{9F5B7ED1-3A46-4002-ABA7-C2FCEF299412}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="20" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`proveedor`"/>
   </connection>
-  <connection id="21" xr16:uid="{3EBDCC62-0050-4951-A497-6DA08B7A8195}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="21" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`salida_hoja_inventario`"/>
   </connection>
-  <connection id="22" xr16:uid="{F242660B-9B87-4837-8CF6-0312A692EED9}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="22" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`socio`"/>
   </connection>
-  <connection id="23" xr16:uid="{A0D609E1-F7E2-41CE-B131-E41E169C5D33}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="23" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`trabajador`"/>
   </connection>
-  <connection id="24" xr16:uid="{AD4D8EAA-DCA9-4331-92E9-8B10FAA360B6}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="24" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`unidad_medida`"/>
   </connection>
-  <connection id="25" xr16:uid="{DC8772EB-0171-47A8-BD40-8BF97ED80180}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="25" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`users`"/>
   </connection>
 </connections>
@@ -492,7 +491,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,6 +530,36 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -552,41 +581,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A16F9391-069A-4546-B0ED-6C7569E5A256}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -601,7 +600,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca brix" connectionId="2" xr16:uid="{A0118F89-995A-422A-9C80-FE2DCAE30F60}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca brix" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -612,7 +611,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca materia_prima" connectionId="15" xr16:uid="{5EE44EAA-0A9F-481A-8183-BEC24D4C592F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca materia_prima" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -625,7 +624,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca proveedor" connectionId="20" xr16:uid="{EC597AFE-D59C-4213-90BF-327A123DABF6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca proveedor" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -641,7 +640,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_mat_pri" connectionId="6" xr16:uid="{91A4235D-BD52-4B9C-B389-C8D03FF35A81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_mat_pri" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -659,7 +658,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_producto_terminado" connectionId="10" xr16:uid="{A6EC351B-D4D9-4531-8C5E-185E8B03E1F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_producto_terminado" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -688,7 +687,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pedido" connectionId="17" xr16:uid="{EAB830A4-02EF-409C-B379-3BF8FED5C729}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pedido" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -705,7 +704,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_venta" connectionId="7" xr16:uid="{219D23AD-3D9A-4E12-8B2F-DEE807E52353}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_venta" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -723,7 +722,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca inventario_empresa" connectionId="12" xr16:uid="{6E41D4CF-EB56-499E-A530-E8CCA20065AC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca inventario_empresa" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -737,7 +736,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="+Conectar con nuevo origen de datos" connectionId="1" xr16:uid="{01353B60-72D4-4DFB-B08C-2F5796F455C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="+Conectar con nuevo origen de datos" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
     <queryTableFields count="12">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -758,7 +757,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_produccion_vino" connectionId="9" xr16:uid="{87BAE2FC-FA1B-4378-811D-C1BB534A10A0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_produccion_vino" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -778,7 +777,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca socio" connectionId="22" xr16:uid="{D1A8C269-2BE6-4B71-A7E8-B9A71BFB6024}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca socio" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -794,7 +793,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca clase_vino" connectionId="4" xr16:uid="{DA3F4E1D-ED42-4DDB-B210-046891C91453}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca clase_vino" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -806,7 +805,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca salida_hoja_inventario" connectionId="21" xr16:uid="{CDCA31B7-C646-4550-8A5F-A206C5FA6C2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca salida_hoja_inventario" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -824,7 +823,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca users" connectionId="25" xr16:uid="{072CB9F8-F448-4BDD-BEFD-AAA49322AC35}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca users" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -844,7 +843,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_ventas" connectionId="11" xr16:uid="{26197BD8-F52F-418B-A59E-A26D4007B73C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_ventas" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -863,7 +862,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca produccion_total" connectionId="19" xr16:uid="{D9556382-FF92-4791-A474-A28F8E16A6FC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca produccion_total" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -876,7 +875,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pasteurizacion" connectionId="16" xr16:uid="{6A2F3190-9822-4A5B-85FA-762AAD02D29F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pasteurizacion" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -888,7 +887,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca lote_1" connectionId="14" xr16:uid="{F0B4F2E9-43AB-4E44-A303-FB00D968A6E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca lote_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -900,7 +899,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca procesos" connectionId="18" xr16:uid="{D24B18BC-14A3-4A91-B0A7-88802C7D2E08}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca procesos" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -912,7 +911,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca trabajador" connectionId="23" xr16:uid="{3CA78CFA-B3E4-4801-894C-BABF88081F8B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca trabajador" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -928,7 +927,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca cliente" connectionId="5" xr16:uid="{7EC9D229-127C-4F0B-8060-EB6442A015DD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca cliente" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -946,7 +945,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca item_inventario" connectionId="13" xr16:uid="{4D474F6E-91E4-47ED-9224-8004B6F0DFC1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca item_inventario" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -958,7 +957,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca catalogo" connectionId="3" xr16:uid="{C4234BB9-3C57-4053-B52A-AF1D3A62BABD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca catalogo" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -969,7 +968,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca unidad_medida" connectionId="24" xr16:uid="{5BFC43F8-7808-4B98-AE44-DDD526BBCF4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca unidad_medida" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -981,7 +980,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca empresa" connectionId="8" xr16:uid="{030BE680-F155-4222-BE46-A5C561953D37}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca empresa" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -994,395 +993,395 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F28CA9C5-6A1E-4E65-9709-55619A48387F}" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:B3" xr:uid="{12514B70-BF7E-4C94-99F4-78CD7490AC4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7B69E917-BF09-4BB9-8CC8-04978A87B055}" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
+    <tableColumn id="1" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>A3+1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{99907F07-0D37-48FC-AD3A-0A1B1DBA0597}" uniqueName="3" name="cantidad" queryTableFieldId="3"/>
+    <tableColumn id="3" uniqueName="3" name="cantidad" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CA52093E-078A-40DF-A53B-0EA22019AA54}" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{AC729349-38F8-4661-B405-3750335B903C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3965C728-6726-43A8-A0DE-7C42C50D1BEF}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{8DC612E8-C85D-4715-822B-9A9D1D523FA3}" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{5E89EFB6-E16B-4BC1-A3CE-B7943B484E9B}" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{77BBF85D-CDE9-4075-9DE5-6DD5E857A33D}" uniqueName="4" name="contidad" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="contidad" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DF6AEBDF-1D35-4D2A-A04A-AC1F83DFC9DE}" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{8D1AEF3C-C763-43A7-A226-279DD15F57B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EB9F8CAD-AA44-414A-953A-26E5020A245A}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F274CFAE-A5E3-41DD-B61F-EB849CF894A0}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{5D24DD45-8330-4700-869C-332A49E2DBBD}" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{4490FCD9-2CE0-4E6A-B21C-79BFCC84EBFB}" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{38BE766A-949C-4E60-86B6-68E290E75146}" uniqueName="5" name="telefono_pro" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{EDDFF721-D240-4C43-9D10-A65747885635}" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{023678EA-985E-4C8D-BFD3-532665F46289}" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="telefono_pro" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{20985B7F-193E-44DA-B2C1-87967DA93825}" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{163B5987-23D6-433D-9004-CB53D6138C53}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A01CE0AF-A893-4309-AD7F-F8F19D5E85B9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9AA303DC-005C-449C-AB19-D0CE79F0A78D}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{6165051C-C68A-4745-B0BF-B0D4C50B05FF}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{1E403947-EDA5-4FE3-94C2-955C0EE04C3A}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{B819823E-04CD-4CF6-ADBC-7E8F75E60492}" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{E4B32147-CA8B-42A3-9DA1-14E0EA712F8D}" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{1219FB40-55A5-4D91-A002-F2F08EA4EA9E}" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{B72AFB46-893D-4F1C-BA15-D7B6DE09DBBF}" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1C310DB0-E369-4889-8281-0E52C959298A}" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T2" xr:uid="{B0F4517F-150C-4F74-99F9-BEAA0C7FF748}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T2"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{373A533A-FD64-480F-A332-02AF08D76FD2}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{99B16367-E680-412E-A80F-4C384B8D2BCC}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{BEEA1BC9-E945-424F-BD0D-BE5BE4CA2EA2}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{7A713E5E-2375-4AE3-8080-99510A7BE4C9}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{B1D94914-530B-4C27-9A75-E0FAEE32AC41}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{AE9D87E1-0B17-4BDD-B4C0-1D5C714671AB}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{6128A6D8-EB39-46E9-A576-5D81B59D3766}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{1F2C81F0-3800-4F89-A843-6902E46BE513}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{E5C78784-E9E3-4818-A522-208AB512C804}" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{4FF7C9CF-0E28-42FF-8F8D-530B80D83907}" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{3475FCF7-D688-4CA0-A375-DDE8FB44EAF0}" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{4665600A-D88A-4DDA-95EC-E4A44A433C02}" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{57E847F7-18AB-4F68-A56D-05CA948E6D3E}" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{3947470A-F4E4-4B98-883A-DCCD4CAF8A4D}" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{88EEBF92-4724-468D-B24D-E36D30EF120D}" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{B5F657E6-16FA-426D-B5DB-EEBB25DED41F}" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{51D3E29A-A626-4077-95C2-EE2A224D32F9}" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{37F3A7F5-A0A5-4461-AC69-6C9769CA080A}" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
+    <tableColumn id="13" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
+    <tableColumn id="14" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
+    <tableColumn id="15" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
+    <tableColumn id="16" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
+    <tableColumn id="17" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
+    <tableColumn id="18" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
+    <tableColumn id="19" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
+    <tableColumn id="20" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D3BAD5A7-47A3-4304-945C-80B44BDA2D18}" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{E84FFF61-A902-4C28-9F49-7934E9A57C27}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{414A26FF-127E-434E-9E1B-E55E10567043}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{60C2622C-B7DB-4166-953A-9D58122119F9}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{74D2D821-928A-4DE5-839B-A5B0E347067D}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{B9264C65-1260-4D29-8559-AFF8FDA4F5C3}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{0316F177-EB2A-4AE3-BF15-BA6C2F22F1D4}" uniqueName="6" name="estado" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{3D7DF146-13E7-4522-9D43-F9EE84151AF5}" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{B39F533E-C1A3-4026-A5D4-A3B80BE0DD7C}" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="estado" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{FE54AB26-907B-4314-9E3D-BB1E6831E8D1}" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{CAFC53F0-2038-4506-9EBD-72A2C18A9B37}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{26648848-D323-4D9B-995D-777B434019FA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{978F8920-A422-43C7-992A-0325B7A25686}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{BF0CDC29-8C87-4D47-A1E8-AF707B632EB4}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{07EB23D2-9ED0-403C-BE5A-5295923EFDC9}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{841D2C1C-DABD-4FFF-9F2C-14BA151A77C7}" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{896C66A2-9EB0-40C5-BB29-472CDBBB6551}" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{13917389-3465-4228-9090-B7A4218B2160}" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{BA6C04F1-9108-4031-8279-CDA68AF7523C}" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A99A7D34-FED7-4D16-B64D-1B1A48C4E25C}" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{9FBEFBD9-9852-483B-B99E-20CCD2264DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{190A117E-765C-46B2-8662-18C4B2E0E703}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{77ACCA40-1586-489B-8B60-C29943572582}" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{1ADB9A10-AB30-42AB-954E-757034644BB9}" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{66191601-9AE6-41B0-9454-4CC1B9CFDA0D}" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{06B15879-9CE2-41D2-A021-1E5A71B9B8BB}" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{005F1630-0E44-41D0-9C07-C3A64503ACDC}" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{24A91281-81F7-4713-A1D7-D574E41EFC24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{78440455-1A00-4D60-AFCE-9A4BBD9FBCFA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{8CC523AF-4A44-40A0-96B8-7AB2E5A5EE33}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7955B26A-D40E-43CA-8EF9-9854814D2EE5}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{03ADC484-13D0-4FC2-BA1E-25C40DFD3B3F}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{9D7CEB51-FE74-4385-A6B0-8A617A1A7645}" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{AF0F2C78-0251-40B5-A190-A0E7035AAB0A}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{9FA12032-632E-4FE9-BF0C-ACC42F74F5A2}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{350EA9B6-9C8F-47B0-AD7F-4EF6FB2BCAC3}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{2A423F1E-7FCF-451B-90AD-12EF5BD59244}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{8200728B-849B-4295-AA34-E19937B719D2}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="11" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{49EF87E3-8DB1-4C43-8085-07ADEFC6E74C}" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{43723469-E099-4BBA-A00E-8E136DABB463}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DE2E54E4-93C1-41C9-909E-1CC413DD34FF}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F863CC63-963C-4373-8728-A23AE0CC4CB2}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{EE31E1F4-900D-473A-8294-7FECD043FB73}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{D021FDC1-5CA2-4109-A76D-F6B93B9F0386}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{747D6122-8FCE-42E6-A55C-057282C7B346}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{075B6372-2F32-4350-8230-3187F152D154}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{BEC4BD14-4858-41C1-897C-A0F024462D73}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{80147462-AF47-480E-9D48-D7E5D86FC172}" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{AADD0C47-A87F-48B3-9AA3-42C888C9C17D}" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{C854303A-8A4A-4EF0-A120-274681B9A110}" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{ECAF79C7-B727-49A6-88AE-97C243F264F2}" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{63330D19-9E4F-43BC-910B-ABD76AA261E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4B7A2B73-9D9D-48EA-AE2B-5118CD520CE6}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{67FB4AA2-794D-4BC8-8BA2-121E9872FB0B}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{F1DE88A4-032F-45DD-9AF2-0A76C09C9F64}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{2EA67A9B-588A-4A03-9A3B-0A4CA7A484E8}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{2B89D4D2-43D5-4E28-BC74-0A06EA000E3F}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{FFD4E14D-3BAE-49F9-ACBE-D4474B8F7436}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{58B69D4C-C124-49E5-BF27-C2764EFE7BA7}" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B238A56-8F7D-470D-BF77-C89F553683A6}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{E9EBCCA3-578F-45F2-982C-A30B359AED9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DF10B194-2008-4E46-9A6F-F15DDD7C6459}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F75F3CC9-5592-4650-8F94-453BB910A514}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{A0E2EE90-17E3-4C59-A490-EE27A65F5D93}" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BF9FF3D4-3FBB-4D6F-8006-1403C0D6C77F}" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{953B6B21-3D3B-40A1-BCDE-278A82C2BF0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BFD362CE-C8F5-4400-90DD-ECE2E748ABD9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{48DF0876-1D0D-44D0-B58D-A5B993DA2601}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7EA8C48F-42F5-437A-949A-278CA84671EF}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{5CC2B61E-2D28-49F6-9C27-8ED8C5458C72}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{0B1268CE-0EBD-4DCC-9440-686B0FF9CC28}" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{0CB0C9CD-5544-4B4B-A11F-760F9B946948}" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{CA7F331B-23C4-4D31-A6C2-9E0AF910C738}" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{6DEF964C-0003-4284-8BAA-300BBC4B6105}" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{6017D29D-00B7-4481-8D7F-A005334E0F8C}" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{7AC4C1FE-9964-4692-AD5F-BB3C6EDD4217}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{41F8E35D-F0B1-418C-B204-B95422B88156}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{3F9C25DC-7D8F-4FC1-B83C-075F5C7FB6B5}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{1C28F39B-F8A9-4422-B5A8-51EB086321E8}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{9FD112AA-4E25-4707-8518-6E8F0D031AF7}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{404B9D40-6888-4AE8-B3AD-224D508587B2}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{88F154A7-E086-4047-8BB3-70B6ED6015E5}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{07F47ECA-BDF4-46B8-A4C7-618DA8F879E8}" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{27147ECC-4594-414C-A2A1-09EB864565B1}" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{CF111AF1-69CB-468C-B372-E3DA04178837}" uniqueName="9" name="password" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{5F1046F3-7AA6-43DB-8A1D-D647B04E7EBA}" uniqueName="10" name="rol" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{D604E842-3A16-45E0-842F-1063D2ECD6AD}" uniqueName="11" name="estado" queryTableFieldId="11"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="rol" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="estado" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{39E98344-4DF0-407D-8AD0-23E4D764E1B4}" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J2" xr:uid="{7BB28EFF-CA72-4586-8857-8A51CDE15B56}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5A89EB31-7489-48C6-AB1C-862F842B6F0E}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E32BA4EA-F1B5-4E5C-B2A1-8839795440D5}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7DBCDFEE-7DE7-438F-B86B-1F362018E490}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FA741562-C18C-49D7-9B23-4FC501FA6900}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{F79C0C42-0D48-4B1F-BBCF-62BF6D6CCDCB}" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{B0EBD88A-51B6-4089-BA44-46CA7BBD5980}" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{6C605569-0B65-439E-8501-BD06B491AD2B}" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{962ED143-7512-4615-A523-2254BDEEE15B}" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{AB0F5416-255B-4891-8952-9E9EBCD270CF}" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{BD4EF39E-7E37-49D3-97F0-5E2C5C8C4E2B}" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{B309D109-BEA1-4FB4-B5E7-5086922A36CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D8AC8C9D-1C57-449E-A0E5-D5C3F67DB60F}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{A519540D-4013-4CC5-989B-9825F4127E37}" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{11C77418-0E56-45AA-BE0B-C10B07EB1FD6}" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{322E0FE4-C2AA-4ED2-8897-B611F8F9264C}" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{CAA8F6B2-B992-4FE9-B806-6D47B777AB61}" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{1D3A77BD-0D96-49D0-BD78-156282BD7343}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{70F36371-787C-45DC-AB55-42E4FFE9A7FC}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{D1D5D400-0C95-4500-A00C-34BA154DFFDD}" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{25EB99A4-E69A-4C4D-A2A5-9832E268064A}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{8464392C-EA0E-469E-9C11-F8B1BF59BCB5}" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{813A43A4-5E42-4A31-825F-7522908B9FBA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{58F9BD32-7CFD-44AC-8EDE-ABF5BFB7E48A}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1C7F1EF6-0AD5-4F20-9B5D-B129B81CB32D}" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{127E2224-15D4-4CCB-BE5B-E67B6CCE0218}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61D27C2A-1894-4BE5-95AD-900E75BBBF7B}" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{1783C59E-6EC3-442C-ADD8-C34687CEDC6F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFB51DE5-24AE-420E-8972-C497D9F0AB06}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{69291B57-15CB-471D-85DF-9A953685F680}" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{E8AC4E24-FD4B-4C6F-88C6-4F251D1D95EE}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E6AD8B1B-33B3-4FF9-A4E5-F9333051B6ED}" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{0CF5AFB0-F03D-4C56-AFF9-A917F4D4355F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F631C02-A0A1-4EA6-A58E-49EE0FEE4E6E}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{E5ED0E06-24D8-4011-8675-5974111B2559}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{755A3098-53EC-4127-8659-04A6D72C6CD3}" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{FAF9456D-BA99-4102-9E2A-AD6A3BC490FC}" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{5F639BCE-0754-4FB1-84CB-09CE777A4E21}" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{DD041AF8-D205-4D04-BE48-54C161F05F27}" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{BCD6E546-1A53-416E-A8BB-AE29CCDAF915}" uniqueName="7" name="Email_tra" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email_tra" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A1219F40-7319-4F46-BF08-D426807B343F}" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{80C71F7E-B49D-4895-8840-E016D286691B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C7EEC55-7EAC-4921-AEEB-B8D2764D45E1}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1602AEA8-3762-4535-947F-2EFF4DADE803}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{A5E36043-8EF1-476C-9431-69D2C24A8083}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C15BCD15-BCB6-4D05-BC3C-3DDAA811891E}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{790368FD-A427-43AE-AD25-6CD41EE07EFB}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{5A64F56D-1653-4DFC-B16B-F660308D8FEE}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{CCD4AE14-E969-4A9C-8D0A-3BFAE3DBE60D}" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{ACDCA81B-03DD-4170-A104-658806CA6FB9}" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{39509A16-2A03-4930-BA34-2ECD6C362F22}" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3CC065DF-A398-4B18-AE34-AF21FD54ED90}" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{11102546-E6C6-4F64-AC1E-5BDEF7C9740D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{27617CA6-389C-43FB-A48B-A0E73F397869}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{8B4D2F72-AA68-40F1-96C9-37D772084DF5}" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{5F297A88-DAAC-4330-B0D5-6836CCABFF76}" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9818CE11-3ABA-49D4-8DEA-0C145916B327}" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{F249C786-0920-4000-AC71-83A53EE058F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{99238910-3F9F-42DC-BD87-4735CD409D18}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{6F193524-A5AC-4360-AE57-B4E204CA3DC6}" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CE16F1AC-6774-425E-A481-2433EF3A5A29}" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{78E0A7B5-8F4A-431C-B640-2A20D8AD22C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F4CAD6E9-1D8C-46D0-97BF-63C05BA0DBC7}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{06FFFCFF-EADA-4017-AEF0-929EC6F1215E}" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{FDA3B20D-8C0A-4EF6-AC69-79BAB6DB191F}" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4B229239-4D1F-4E24-9981-176CE71FAB2A}" name="Tabla_elultimoinca_empresa" displayName="Tabla_elultimoinca_empresa" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{40EA332B-37F3-40F4-898E-C7C68E560D62}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla_elultimoinca_empresa" displayName="Tabla_elultimoinca_empresa" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8EE2CAA7-9C5E-4E1D-A101-F69B2AD518E8}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{8EB31404-323F-48F1-B2E7-4B3562B1B6E6}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{134184F9-4447-4537-9D0D-E6E470DDEA40}" uniqueName="3" name="direccion" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{022150B6-F813-443D-8BAC-65EBDDA58E2D}" uniqueName="4" name="email" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="direccion" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="email" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1684,21 +1683,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E5911-B1DF-4E84-A4CF-99E814BA98DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1706,29 +1705,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ref="A5:A6" si="0">A4+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1743,22 +1742,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB36FAEC-116C-4430-BB4F-DC17CAC8CFDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1781,25 +1780,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442FFF17-25A7-4996-A070-DF66A0206C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1831,25 +1830,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC5EC1E-941C-41B0-A9B6-A21912D02328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -1890,35 +1889,35 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC927078-3261-4021-B365-CD4D4CE1BDB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -1993,24 +1992,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B49B8A-1107-4389-AD91-19E75D1532BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2036,7 +2035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2048,25 +2047,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF76027-D376-4C54-8308-89F77CDD4738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2107,20 +2106,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192F7273-F6CD-4866-9784-442222F96A35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2146,28 +2145,28 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF2AF2A-B47F-487E-9F53-4292971FEE6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -2218,27 +2217,27 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6489E671-4F09-406B-8286-5B6E00058BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
     </row>
   </sheetData>
@@ -2285,22 +2284,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C09D84D-B975-4FC5-9837-F06D6E90A6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2332,19 +2331,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E384D13E-80C0-496A-93A5-9345ED232081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2364,24 +2363,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72684892-5EFA-41EB-937B-EEFEA8ED4F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2422,26 +2421,26 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B03CCCA-CC0D-466F-A68F-C0E499C7E337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2485,26 +2484,26 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F443A6-ADF5-45E8-B8DD-9B8BF9771FD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2548,20 +2547,20 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95AC3B4-F797-4175-A8FB-CC04C02361EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2584,19 +2583,19 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE45A1C0-C09B-47D3-AA5F-67F59EF6A5B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2616,24 +2615,24 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22527632-6578-4707-AFE8-DDE059B25905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2644,12 +2643,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>Tabla_elultimoinca_lote_1[id]+1</f>
         <v>2</v>
@@ -2664,67 +2663,67 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50393608-4BED-4DAA-804E-82F84A0F45DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2333897B-4222-4882-BDF3-C47068781D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F5B918-300D-4BA3-81B1-DEB4AEFB6DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993505D5-AACE-4BD8-AD64-8ADABB883FD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F94634-884C-4236-830B-706D7FCF10C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2744,25 +2743,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ABEEAD-358E-4DCA-B833-270B68177C16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2794,24 +2793,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8C7D5-BE28-42B8-8596-C526CA720CB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2849,19 +2848,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C6155D-9BF8-4B98-93E7-2F5971C904AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2881,18 +2880,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52B241D-948E-43A4-B046-24131A8FCA40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2909,19 +2908,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C811B7B1-8276-4A02-9ED3-E31CF2B58884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2941,19 +2940,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B214A96-77C2-41CA-A87D-DA267BF7C2B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="797" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -65,11 +65,11 @@
     <definedName name="elultimoinca_proveedor" localSheetId="10" hidden="1">Proveedor!$A$1:$G$2</definedName>
     <definedName name="elultimoinca_salida_hoja_inventario" localSheetId="19" hidden="1">Salida_hoja_inventario!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_socio" localSheetId="18" hidden="1">Socio!$A$1:$G$2</definedName>
-    <definedName name="elultimoinca_trabajador" localSheetId="3" hidden="1">Trabajador!$A$1:$G$2</definedName>
+    <definedName name="elultimoinca_trabajador" localSheetId="3" hidden="1">Trabajador!$A$1:$G$4</definedName>
     <definedName name="elultimoinca_unidad_medida" localSheetId="7" hidden="1">Unidad_medida!$A$1:$C$2</definedName>
     <definedName name="elultimoinca_users" localSheetId="20" hidden="1">Usuario!$A$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1306,8 +1306,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
@@ -1686,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2744,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2782,6 +2782,21 @@
       </c>
       <c r="G1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2810C949-2B42-41B6-B611-4DEDB9FD7589}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C8A1AD48-0DC7-46E3-B066-A4B4E1FC6E8C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" activeTab="1" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="Conectar_con_nuevo_origen_de_datos" localSheetId="16" hidden="1">Area_produccion!$A$1:$L$2</definedName>
     <definedName name="elultimoinca_brix" localSheetId="0" hidden="1">brix!$A$1:$B$3</definedName>
     <definedName name="elultimoinca_catalogo" localSheetId="6" hidden="1">Catalogo!$A$1:$B$2</definedName>
-    <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$2</definedName>
+    <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$4</definedName>
     <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_compra_mat_pri" localSheetId="11" hidden="1">Compra_Mat_pi!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$2</definedName>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -487,6 +487,15 @@
   </si>
   <si>
     <t>valor</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Seco</t>
+  </si>
+  <si>
+    <t>Dulce</t>
   </si>
 </sst>
 </file>
@@ -522,14 +531,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -585,8 +600,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A16F9391-069A-4546-B0ED-6C7569E5A256}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1000,7 +1015,7 @@
     <tableColumn id="1" xr3:uid="{7B69E917-BF09-4BB9-8CC8-04978A87B055}" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>A3+1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{99907F07-0D37-48FC-AD3A-0A1B1DBA0597}" uniqueName="3" name="cantidad" queryTableFieldId="3"/>
+    <tableColumn id="3" xr3:uid="{99907F07-0D37-48FC-AD3A-0A1B1DBA0597}" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1040,7 +1055,7 @@
   <autoFilter ref="A1:I2" xr:uid="{163B5987-23D6-433D-9004-CB53D6138C53}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A01CE0AF-A893-4309-AD7F-F8F19D5E85B9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{9AA303DC-005C-449C-AB19-D0CE79F0A78D}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6165051C-C68A-4745-B0BF-B0D4C50B05FF}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{1E403947-EDA5-4FE3-94C2-955C0EE04C3A}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
@@ -1059,11 +1074,11 @@
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{373A533A-FD64-480F-A332-02AF08D76FD2}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{99B16367-E680-412E-A80F-4C384B8D2BCC}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{BEEA1BC9-E945-424F-BD0D-BE5BE4CA2EA2}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{7A713E5E-2375-4AE3-8080-99510A7BE4C9}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{B1D94914-530B-4C27-9A75-E0FAEE32AC41}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{AE9D87E1-0B17-4BDD-B4C0-1D5C714671AB}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{6128A6D8-EB39-46E9-A576-5D81B59D3766}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{1F2C81F0-3800-4F89-A843-6902E46BE513}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
@@ -1087,7 +1102,7 @@
   <autoFilter ref="A1:H2" xr:uid="{E84FFF61-A902-4C28-9F49-7934E9A57C27}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{414A26FF-127E-434E-9E1B-E55E10567043}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{60C2622C-B7DB-4166-953A-9D58122119F9}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{74D2D821-928A-4DE5-839B-A5B0E347067D}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{B9264C65-1260-4D29-8559-AFF8FDA4F5C3}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
@@ -1104,7 +1119,7 @@
   <autoFilter ref="A1:I2" xr:uid="{CAFC53F0-2038-4506-9EBD-72A2C18A9B37}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{26648848-D323-4D9B-995D-777B434019FA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{978F8920-A422-43C7-992A-0325B7A25686}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{BF0CDC29-8C87-4D47-A1E8-AF707B632EB4}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{07EB23D2-9ED0-403C-BE5A-5295923EFDC9}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
@@ -1136,7 +1151,7 @@
   <autoFilter ref="A1:L2" xr:uid="{24A91281-81F7-4713-A1D7-D574E41EFC24}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{78440455-1A00-4D60-AFCE-9A4BBD9FBCFA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{8CC523AF-4A44-40A0-96B8-7AB2E5A5EE33}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7955B26A-D40E-43CA-8EF9-9854814D2EE5}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{03ADC484-13D0-4FC2-BA1E-25C40DFD3B3F}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
@@ -1144,7 +1159,7 @@
     <tableColumn id="7" xr3:uid="{AF0F2C78-0251-40B5-A190-A0E7035AAB0A}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9FA12032-632E-4FE9-BF0C-ACC42F74F5A2}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{350EA9B6-9C8F-47B0-AD7F-4EF6FB2BCAC3}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{2A423F1E-7FCF-451B-90AD-12EF5BD59244}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{8200728B-849B-4295-AA34-E19937B719D2}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
@@ -1160,7 +1175,7 @@
     <tableColumn id="2" xr3:uid="{F863CC63-963C-4373-8728-A23AE0CC4CB2}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{EE31E1F4-900D-473A-8294-7FECD043FB73}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{D021FDC1-5CA2-4109-A76D-F6B93B9F0386}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{747D6122-8FCE-42E6-A55C-057282C7B346}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{075B6372-2F32-4350-8230-3187F152D154}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{BEC4BD14-4858-41C1-897C-A0F024462D73}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
@@ -1189,8 +1204,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B238A56-8F7D-470D-BF77-C89F553683A6}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{E9EBCCA3-578F-45F2-982C-A30B359AED9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B238A56-8F7D-470D-BF77-C89F553683A6}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{E9EBCCA3-578F-45F2-982C-A30B359AED9D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DF10B194-2008-4E46-9A6F-F15DDD7C6459}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{F75F3CC9-5592-4650-8F94-453BB910A514}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
@@ -1205,7 +1220,7 @@
   <autoFilter ref="A1:I2" xr:uid="{953B6B21-3D3B-40A1-BCDE-278A82C2BF0E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BFD362CE-C8F5-4400-90DD-ECE2E748ABD9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{48DF0876-1D0D-44D0-B58D-A5B993DA2601}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7EA8C48F-42F5-437A-949A-278CA84671EF}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{5CC2B61E-2D28-49F6-9C27-8ED8C5458C72}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
@@ -1243,7 +1258,7 @@
   <autoFilter ref="A1:J2" xr:uid="{7BB28EFF-CA72-4586-8857-8A51CDE15B56}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A89EB31-7489-48C6-AB1C-862F842B6F0E}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{E32BA4EA-F1B5-4E5C-B2A1-8839795440D5}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7DBCDFEE-7DE7-438F-B86B-1F362018E490}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{FA741562-C18C-49D7-9B23-4FC501FA6900}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
@@ -1685,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E5911-B1DF-4E84-A4CF-99E814BA98DD}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,10 +1725,16 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,17 +1742,34 @@
         <f>A3+1</f>
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A6" si="0">A4+1</f>
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2333,9 +2371,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E384D13E-80C0-496A-93A5-9345ED232081}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2353,6 +2393,22 @@
       </c>
       <c r="C1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C8A1AD48-0DC7-46E3-B066-A4B4E1FC6E8C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" activeTab="1" xr2:uid="{896C14D4-56C7-4CF7-A1B4-A9D359D2BF6C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="797" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -61,16 +60,16 @@
     <definedName name="elultimoinca_materia_prima" localSheetId="9" hidden="1">Matria_Prima!$A$1:$D$2</definedName>
     <definedName name="elultimoinca_pasteurizacion" localSheetId="23" hidden="1">Pasteorizacion!$A$1:$C$2</definedName>
     <definedName name="elultimoinca_pedido" localSheetId="13" hidden="1">Pedido!$A$1:$H$2</definedName>
-    <definedName name="elultimoinca_procesos" localSheetId="2" hidden="1">Proceso!$A$1:$C$6</definedName>
+    <definedName name="elultimoinca_procesos" localSheetId="2" hidden="1">Proceso!$A$1:$C$3</definedName>
     <definedName name="elultimoinca_produccion_total" localSheetId="22" hidden="1">Producion_total!$A$1:$D$2</definedName>
     <definedName name="elultimoinca_proveedor" localSheetId="10" hidden="1">Proveedor!$A$1:$G$2</definedName>
     <definedName name="elultimoinca_salida_hoja_inventario" localSheetId="19" hidden="1">Salida_hoja_inventario!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_socio" localSheetId="18" hidden="1">Socio!$A$1:$G$2</definedName>
-    <definedName name="elultimoinca_trabajador" localSheetId="3" hidden="1">Trabajador!$A$1:$G$2</definedName>
+    <definedName name="elultimoinca_trabajador" localSheetId="3" hidden="1">Trabajador!$A$1:$G$9</definedName>
     <definedName name="elultimoinca_unidad_medida" localSheetId="7" hidden="1">Unidad_medida!$A$1:$C$2</definedName>
     <definedName name="elultimoinca_users" localSheetId="20" hidden="1">Usuario!$A$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,87 +79,87 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{752A6688-5FF6-4851-8D2C-3B8403E3B328}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`area_produccion`"/>
   </connection>
-  <connection id="2" xr16:uid="{EDAEF931-103A-47C2-9F8C-D8A0DF689756}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`brix`"/>
   </connection>
-  <connection id="3" xr16:uid="{C94EEBEC-2024-48CA-BAF5-710B1AC944D6}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`catalogo`"/>
   </connection>
-  <connection id="4" xr16:uid="{C3E6485D-8D62-4303-964A-802C12C5E893}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`clase_vino`"/>
   </connection>
-  <connection id="5" xr16:uid="{31F47E65-632F-47F2-9DC3-ABA7CB9DBFCC}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`cliente`"/>
   </connection>
-  <connection id="6" xr16:uid="{A3233DB1-166D-4672-8176-159CBFD2935E}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_mat_pri`"/>
   </connection>
-  <connection id="7" xr16:uid="{2D90F34B-8C86-41F9-BDCD-5153B53C3BEF}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_venta`"/>
   </connection>
-  <connection id="8" xr16:uid="{2066E658-3448-41C7-90A7-2128D043A104}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`empresa`"/>
   </connection>
-  <connection id="9" xr16:uid="{E7120D04-3B62-4DA9-8F6D-0D04F7F19AE7}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_produccion_vino`"/>
   </connection>
-  <connection id="10" xr16:uid="{48F95EAF-640C-4D26-987E-A769448800CD}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_producto_terminado`"/>
   </connection>
-  <connection id="11" xr16:uid="{9686D7DA-8087-4FB1-BCDF-595CEA3B5EA4}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_ventas`"/>
   </connection>
-  <connection id="12" xr16:uid="{89F7D410-8882-4442-A040-9C2B679FAD52}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`inventario_empresa`"/>
   </connection>
-  <connection id="13" xr16:uid="{56EA3675-038A-4F77-9BD9-BF9D1651F962}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`item_inventario`"/>
   </connection>
-  <connection id="14" xr16:uid="{6CF7BAC1-672F-490B-8C23-F5D4AE44CF3A}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="14" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`lote`"/>
   </connection>
-  <connection id="15" xr16:uid="{5F37E760-B8ED-4EDC-9672-80AF6AF42D37}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="15" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`materia_prima`"/>
   </connection>
-  <connection id="16" xr16:uid="{8D33E29E-39F6-4028-8A44-FC5B7B00D5BD}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="16" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pasteurizacion`"/>
   </connection>
-  <connection id="17" xr16:uid="{E0646CF9-6BCE-4B39-9198-A53AD5EE4A46}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="17" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pedido`"/>
   </connection>
-  <connection id="18" xr16:uid="{4A5A3FEE-04D7-4844-B219-7CCEC0F6BEF9}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="18" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`procesos`"/>
   </connection>
-  <connection id="19" xr16:uid="{F3CD7D75-EF8D-4396-BACC-E0B646B48551}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="19" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`produccion_total`"/>
   </connection>
-  <connection id="20" xr16:uid="{9F5B7ED1-3A46-4002-ABA7-C2FCEF299412}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="20" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`proveedor`"/>
   </connection>
-  <connection id="21" xr16:uid="{3EBDCC62-0050-4951-A497-6DA08B7A8195}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="21" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`salida_hoja_inventario`"/>
   </connection>
-  <connection id="22" xr16:uid="{F242660B-9B87-4837-8CF6-0312A692EED9}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="22" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`socio`"/>
   </connection>
-  <connection id="23" xr16:uid="{A0D609E1-F7E2-41CE-B131-E41E169C5D33}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="23" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`trabajador`"/>
   </connection>
-  <connection id="24" xr16:uid="{AD4D8EAA-DCA9-4331-92E9-8B10FAA360B6}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="24" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`unidad_medida`"/>
   </connection>
-  <connection id="25" xr16:uid="{DC8772EB-0171-47A8-BD40-8BF97ED80180}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="25" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`users`"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -497,15 +496,68 @@
   <si>
     <t>Dulce</t>
   </si>
+  <si>
+    <t>Flavio Rene</t>
+  </si>
+  <si>
+    <t>Sigcha Ante</t>
+  </si>
+  <si>
+    <t>Comunidad Quinticusig</t>
+  </si>
+  <si>
+    <t>aso.quinticusig@hotmail.com</t>
+  </si>
+  <si>
+    <t>Luz Maria</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Holguer</t>
+  </si>
+  <si>
+    <t>Margot Lu</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Timbila</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
+    <t>Primero</t>
+  </si>
+  <si>
+    <t>Segundo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -528,52 +580,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -599,7 +654,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A16F9391-069A-4546-B0ED-6C7569E5A256}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
     </tableStyle>
@@ -616,7 +671,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca brix" connectionId="2" xr16:uid="{A0118F89-995A-422A-9C80-FE2DCAE30F60}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca brix" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -627,7 +682,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca materia_prima" connectionId="15" xr16:uid="{5EE44EAA-0A9F-481A-8183-BEC24D4C592F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca materia_prima" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -640,7 +695,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca proveedor" connectionId="20" xr16:uid="{EC597AFE-D59C-4213-90BF-327A123DABF6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca proveedor" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -656,7 +711,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_mat_pri" connectionId="6" xr16:uid="{91A4235D-BD52-4B9C-B389-C8D03FF35A81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_mat_pri" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -674,7 +729,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_producto_terminado" connectionId="10" xr16:uid="{A6EC351B-D4D9-4531-8C5E-185E8B03E1F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_producto_terminado" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -703,7 +758,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pedido" connectionId="17" xr16:uid="{EAB830A4-02EF-409C-B379-3BF8FED5C729}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pedido" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -720,7 +775,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_venta" connectionId="7" xr16:uid="{219D23AD-3D9A-4E12-8B2F-DEE807E52353}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_venta" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -738,7 +793,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca inventario_empresa" connectionId="12" xr16:uid="{6E41D4CF-EB56-499E-A530-E8CCA20065AC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca inventario_empresa" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -752,7 +807,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="+Conectar con nuevo origen de datos" connectionId="1" xr16:uid="{01353B60-72D4-4DFB-B08C-2F5796F455C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="+Conectar con nuevo origen de datos" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
     <queryTableFields count="12">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -773,7 +828,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_produccion_vino" connectionId="9" xr16:uid="{87BAE2FC-FA1B-4378-811D-C1BB534A10A0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_produccion_vino" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -793,7 +848,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca socio" connectionId="22" xr16:uid="{D1A8C269-2BE6-4B71-A7E8-B9A71BFB6024}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca socio" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -809,7 +864,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca clase_vino" connectionId="4" xr16:uid="{DA3F4E1D-ED42-4DDB-B210-046891C91453}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca clase_vino" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -821,7 +876,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca salida_hoja_inventario" connectionId="21" xr16:uid="{CDCA31B7-C646-4550-8A5F-A206C5FA6C2B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca salida_hoja_inventario" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -839,7 +894,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca users" connectionId="25" xr16:uid="{072CB9F8-F448-4BDD-BEFD-AAA49322AC35}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca users" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -859,7 +914,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_ventas" connectionId="11" xr16:uid="{26197BD8-F52F-418B-A59E-A26D4007B73C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_ventas" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -878,7 +933,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca produccion_total" connectionId="19" xr16:uid="{D9556382-FF92-4791-A474-A28F8E16A6FC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca produccion_total" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -891,7 +946,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pasteurizacion" connectionId="16" xr16:uid="{6A2F3190-9822-4A5B-85FA-762AAD02D29F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pasteurizacion" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -903,7 +958,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca lote_1" connectionId="14" xr16:uid="{F0B4F2E9-43AB-4E44-A303-FB00D968A6E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca lote_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -915,7 +970,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca procesos" connectionId="18" xr16:uid="{D24B18BC-14A3-4A91-B0A7-88802C7D2E08}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca procesos" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -927,7 +982,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca trabajador" connectionId="23" xr16:uid="{3CA78CFA-B3E4-4801-894C-BABF88081F8B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca trabajador" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -943,7 +998,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca cliente" connectionId="5" xr16:uid="{7EC9D229-127C-4F0B-8060-EB6442A015DD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca cliente" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -961,7 +1016,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca item_inventario" connectionId="13" xr16:uid="{4D474F6E-91E4-47ED-9224-8004B6F0DFC1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca item_inventario" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -973,7 +1028,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca catalogo" connectionId="3" xr16:uid="{C4234BB9-3C57-4053-B52A-AF1D3A62BABD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca catalogo" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -984,7 +1039,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca unidad_medida" connectionId="24" xr16:uid="{5BFC43F8-7808-4B98-AE44-DDD526BBCF4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca unidad_medida" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -996,7 +1051,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca empresa" connectionId="8" xr16:uid="{030BE680-F155-4222-BE46-A5C561953D37}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca empresa" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1009,395 +1064,395 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F28CA9C5-6A1E-4E65-9709-55619A48387F}" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:B3" xr:uid="{12514B70-BF7E-4C94-99F4-78CD7490AC4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7B69E917-BF09-4BB9-8CC8-04978A87B055}" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
+    <tableColumn id="1" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>A3+1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{99907F07-0D37-48FC-AD3A-0A1B1DBA0597}" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CA52093E-078A-40DF-A53B-0EA22019AA54}" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{AC729349-38F8-4661-B405-3750335B903C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3965C728-6726-43A8-A0DE-7C42C50D1BEF}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{8DC612E8-C85D-4715-822B-9A9D1D523FA3}" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{5E89EFB6-E16B-4BC1-A3CE-B7943B484E9B}" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{77BBF85D-CDE9-4075-9DE5-6DD5E857A33D}" uniqueName="4" name="contidad" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="contidad" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DF6AEBDF-1D35-4D2A-A04A-AC1F83DFC9DE}" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{8D1AEF3C-C763-43A7-A226-279DD15F57B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EB9F8CAD-AA44-414A-953A-26E5020A245A}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F274CFAE-A5E3-41DD-B61F-EB849CF894A0}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{5D24DD45-8330-4700-869C-332A49E2DBBD}" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{4490FCD9-2CE0-4E6A-B21C-79BFCC84EBFB}" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{38BE766A-949C-4E60-86B6-68E290E75146}" uniqueName="5" name="telefono_pro" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{EDDFF721-D240-4C43-9D10-A65747885635}" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{023678EA-985E-4C8D-BFD3-532665F46289}" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="telefono_pro" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{20985B7F-193E-44DA-B2C1-87967DA93825}" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{163B5987-23D6-433D-9004-CB53D6138C53}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A01CE0AF-A893-4309-AD7F-F8F19D5E85B9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FDC10058-59D8-44D5-927C-7C0B30158D13}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9AA303DC-005C-449C-AB19-D0CE79F0A78D}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{6165051C-C68A-4745-B0BF-B0D4C50B05FF}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{1E403947-EDA5-4FE3-94C2-955C0EE04C3A}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{B819823E-04CD-4CF6-ADBC-7E8F75E60492}" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{E4B32147-CA8B-42A3-9DA1-14E0EA712F8D}" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{1219FB40-55A5-4D91-A002-F2F08EA4EA9E}" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{B72AFB46-893D-4F1C-BA15-D7B6DE09DBBF}" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1C310DB0-E369-4889-8281-0E52C959298A}" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T2" xr:uid="{B0F4517F-150C-4F74-99F9-BEAA0C7FF748}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T2"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{373A533A-FD64-480F-A332-02AF08D76FD2}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{99B16367-E680-412E-A80F-4C384B8D2BCC}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{25F5FD7D-17AA-4685-A88A-BEA1392DC135}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BEEA1BC9-E945-424F-BD0D-BE5BE4CA2EA2}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{7A713E5E-2375-4AE3-8080-99510A7BE4C9}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{B1D94914-530B-4C27-9A75-E0FAEE32AC41}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D1381ACB-0729-4F46-8440-CEEB0434F8EC}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{AE9D87E1-0B17-4BDD-B4C0-1D5C714671AB}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{6128A6D8-EB39-46E9-A576-5D81B59D3766}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{1F2C81F0-3800-4F89-A843-6902E46BE513}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{E5C78784-E9E3-4818-A522-208AB512C804}" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{4FF7C9CF-0E28-42FF-8F8D-530B80D83907}" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{3475FCF7-D688-4CA0-A375-DDE8FB44EAF0}" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{4665600A-D88A-4DDA-95EC-E4A44A433C02}" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{57E847F7-18AB-4F68-A56D-05CA948E6D3E}" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{3947470A-F4E4-4B98-883A-DCCD4CAF8A4D}" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{88EEBF92-4724-468D-B24D-E36D30EF120D}" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{B5F657E6-16FA-426D-B5DB-EEBB25DED41F}" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{51D3E29A-A626-4077-95C2-EE2A224D32F9}" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{37F3A7F5-A0A5-4461-AC69-6C9769CA080A}" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
+    <tableColumn id="13" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
+    <tableColumn id="14" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
+    <tableColumn id="15" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
+    <tableColumn id="16" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
+    <tableColumn id="17" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
+    <tableColumn id="18" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
+    <tableColumn id="19" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
+    <tableColumn id="20" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D3BAD5A7-47A3-4304-945C-80B44BDA2D18}" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{E84FFF61-A902-4C28-9F49-7934E9A57C27}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{414A26FF-127E-434E-9E1B-E55E10567043}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{11F22C3D-55BE-406C-AB28-155113520809}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{60C2622C-B7DB-4166-953A-9D58122119F9}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{74D2D821-928A-4DE5-839B-A5B0E347067D}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{B9264C65-1260-4D29-8559-AFF8FDA4F5C3}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{0316F177-EB2A-4AE3-BF15-BA6C2F22F1D4}" uniqueName="6" name="estado" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{3D7DF146-13E7-4522-9D43-F9EE84151AF5}" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{B39F533E-C1A3-4026-A5D4-A3B80BE0DD7C}" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="estado" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{FE54AB26-907B-4314-9E3D-BB1E6831E8D1}" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{CAFC53F0-2038-4506-9EBD-72A2C18A9B37}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{26648848-D323-4D9B-995D-777B434019FA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FC4FBA08-13F6-4C96-B317-1C000476747D}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{978F8920-A422-43C7-992A-0325B7A25686}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{BF0CDC29-8C87-4D47-A1E8-AF707B632EB4}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{07EB23D2-9ED0-403C-BE5A-5295923EFDC9}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{841D2C1C-DABD-4FFF-9F2C-14BA151A77C7}" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{896C66A2-9EB0-40C5-BB29-472CDBBB6551}" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{13917389-3465-4228-9090-B7A4218B2160}" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{BA6C04F1-9108-4031-8279-CDA68AF7523C}" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A99A7D34-FED7-4D16-B64D-1B1A48C4E25C}" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{9FBEFBD9-9852-483B-B99E-20CCD2264DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{190A117E-765C-46B2-8662-18C4B2E0E703}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{77ACCA40-1586-489B-8B60-C29943572582}" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{1ADB9A10-AB30-42AB-954E-757034644BB9}" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{66191601-9AE6-41B0-9454-4CC1B9CFDA0D}" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{06B15879-9CE2-41D2-A021-1E5A71B9B8BB}" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{005F1630-0E44-41D0-9C07-C3A64503ACDC}" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{24A91281-81F7-4713-A1D7-D574E41EFC24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{78440455-1A00-4D60-AFCE-9A4BBD9FBCFA}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1C85DAE1-622F-4B71-BDCF-499F4F2CC8F5}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8CC523AF-4A44-40A0-96B8-7AB2E5A5EE33}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7955B26A-D40E-43CA-8EF9-9854814D2EE5}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{03ADC484-13D0-4FC2-BA1E-25C40DFD3B3F}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{9D7CEB51-FE74-4385-A6B0-8A617A1A7645}" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{AF0F2C78-0251-40B5-A190-A0E7035AAB0A}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{9FA12032-632E-4FE9-BF0C-ACC42F74F5A2}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{350EA9B6-9C8F-47B0-AD7F-4EF6FB2BCAC3}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{E24547CA-6707-4386-B3CE-E449268B3D35}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{2A423F1E-7FCF-451B-90AD-12EF5BD59244}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{8200728B-849B-4295-AA34-E19937B719D2}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="11" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{49EF87E3-8DB1-4C43-8085-07ADEFC6E74C}" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{43723469-E099-4BBA-A00E-8E136DABB463}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DE2E54E4-93C1-41C9-909E-1CC413DD34FF}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F863CC63-963C-4373-8728-A23AE0CC4CB2}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{EE31E1F4-900D-473A-8294-7FECD043FB73}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{D021FDC1-5CA2-4109-A76D-F6B93B9F0386}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FEC3A404-9FFB-4C3D-B945-85831F479199}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{747D6122-8FCE-42E6-A55C-057282C7B346}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{075B6372-2F32-4350-8230-3187F152D154}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{BEC4BD14-4858-41C1-897C-A0F024462D73}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{80147462-AF47-480E-9D48-D7E5D86FC172}" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{AADD0C47-A87F-48B3-9AA3-42C888C9C17D}" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{C854303A-8A4A-4EF0-A120-274681B9A110}" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{ECAF79C7-B727-49A6-88AE-97C243F264F2}" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{63330D19-9E4F-43BC-910B-ABD76AA261E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4B7A2B73-9D9D-48EA-AE2B-5118CD520CE6}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{67FB4AA2-794D-4BC8-8BA2-121E9872FB0B}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{F1DE88A4-032F-45DD-9AF2-0A76C09C9F64}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{2EA67A9B-588A-4A03-9A3B-0A4CA7A484E8}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{2B89D4D2-43D5-4E28-BC74-0A06EA000E3F}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{FFD4E14D-3BAE-49F9-ACBE-D4474B8F7436}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{58B69D4C-C124-49E5-BF27-C2764EFE7BA7}" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B238A56-8F7D-470D-BF77-C89F553683A6}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{E9EBCCA3-578F-45F2-982C-A30B359AED9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DF10B194-2008-4E46-9A6F-F15DDD7C6459}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F75F3CC9-5592-4650-8F94-453BB910A514}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{A0E2EE90-17E3-4C59-A490-EE27A65F5D93}" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BF9FF3D4-3FBB-4D6F-8006-1403C0D6C77F}" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{953B6B21-3D3B-40A1-BCDE-278A82C2BF0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BFD362CE-C8F5-4400-90DD-ECE2E748ABD9}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{01B31597-55D4-4E18-A366-A5B0A79165FB}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{48DF0876-1D0D-44D0-B58D-A5B993DA2601}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7EA8C48F-42F5-437A-949A-278CA84671EF}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{5CC2B61E-2D28-49F6-9C27-8ED8C5458C72}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{0B1268CE-0EBD-4DCC-9440-686B0FF9CC28}" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{0CB0C9CD-5544-4B4B-A11F-760F9B946948}" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{CA7F331B-23C4-4D31-A6C2-9E0AF910C738}" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{6DEF964C-0003-4284-8BAA-300BBC4B6105}" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{6017D29D-00B7-4481-8D7F-A005334E0F8C}" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{7AC4C1FE-9964-4692-AD5F-BB3C6EDD4217}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{41F8E35D-F0B1-418C-B204-B95422B88156}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{3F9C25DC-7D8F-4FC1-B83C-075F5C7FB6B5}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{1C28F39B-F8A9-4422-B5A8-51EB086321E8}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{9FD112AA-4E25-4707-8518-6E8F0D031AF7}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{404B9D40-6888-4AE8-B3AD-224D508587B2}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{88F154A7-E086-4047-8BB3-70B6ED6015E5}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{07F47ECA-BDF4-46B8-A4C7-618DA8F879E8}" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{27147ECC-4594-414C-A2A1-09EB864565B1}" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{CF111AF1-69CB-468C-B372-E3DA04178837}" uniqueName="9" name="password" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{5F1046F3-7AA6-43DB-8A1D-D647B04E7EBA}" uniqueName="10" name="rol" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{D604E842-3A16-45E0-842F-1063D2ECD6AD}" uniqueName="11" name="estado" queryTableFieldId="11"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="rol" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="estado" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{39E98344-4DF0-407D-8AD0-23E4D764E1B4}" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J2" xr:uid="{7BB28EFF-CA72-4586-8857-8A51CDE15B56}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5A89EB31-7489-48C6-AB1C-862F842B6F0E}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{EACAD59C-A0AE-4879-A8F8-CE793C1F1533}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E32BA4EA-F1B5-4E5C-B2A1-8839795440D5}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7DBCDFEE-7DE7-438F-B86B-1F362018E490}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FA741562-C18C-49D7-9B23-4FC501FA6900}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{F79C0C42-0D48-4B1F-BBCF-62BF6D6CCDCB}" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{B0EBD88A-51B6-4089-BA44-46CA7BBD5980}" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{6C605569-0B65-439E-8501-BD06B491AD2B}" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{962ED143-7512-4615-A523-2254BDEEE15B}" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{AB0F5416-255B-4891-8952-9E9EBCD270CF}" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{BD4EF39E-7E37-49D3-97F0-5E2C5C8C4E2B}" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{B309D109-BEA1-4FB4-B5E7-5086922A36CA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D8AC8C9D-1C57-449E-A0E5-D5C3F67DB60F}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{A519540D-4013-4CC5-989B-9825F4127E37}" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{11C77418-0E56-45AA-BE0B-C10B07EB1FD6}" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{322E0FE4-C2AA-4ED2-8897-B611F8F9264C}" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{CAA8F6B2-B992-4FE9-B806-6D47B777AB61}" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{1D3A77BD-0D96-49D0-BD78-156282BD7343}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{70F36371-787C-45DC-AB55-42E4FFE9A7FC}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{D1D5D400-0C95-4500-A00C-34BA154DFFDD}" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{25EB99A4-E69A-4C4D-A2A5-9832E268064A}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{8464392C-EA0E-469E-9C11-F8B1BF59BCB5}" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{813A43A4-5E42-4A31-825F-7522908B9FBA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{58F9BD32-7CFD-44AC-8EDE-ABF5BFB7E48A}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1C7F1EF6-0AD5-4F20-9B5D-B129B81CB32D}" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{127E2224-15D4-4CCB-BE5B-E67B6CCE0218}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61D27C2A-1894-4BE5-95AD-900E75BBBF7B}" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{1783C59E-6EC3-442C-ADD8-C34687CEDC6F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AFB51DE5-24AE-420E-8972-C497D9F0AB06}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{69291B57-15CB-471D-85DF-9A953685F680}" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{E8AC4E24-FD4B-4C6F-88C6-4F251D1D95EE}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E6AD8B1B-33B3-4FF9-A4E5-F9333051B6ED}" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{0CF5AFB0-F03D-4C56-AFF9-A917F4D4355F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F631C02-A0A1-4EA6-A58E-49EE0FEE4E6E}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{E5ED0E06-24D8-4011-8675-5974111B2559}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{755A3098-53EC-4127-8659-04A6D72C6CD3}" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{FAF9456D-BA99-4102-9E2A-AD6A3BC490FC}" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{5F639BCE-0754-4FB1-84CB-09CE777A4E21}" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{DD041AF8-D205-4D04-BE48-54C161F05F27}" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{BCD6E546-1A53-416E-A8BB-AE29CCDAF915}" uniqueName="7" name="Email_tra" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email_tra" queryTableFieldId="7" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A1219F40-7319-4F46-BF08-D426807B343F}" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{80C71F7E-B49D-4895-8840-E016D286691B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C7EEC55-7EAC-4921-AEEB-B8D2764D45E1}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1602AEA8-3762-4535-947F-2EFF4DADE803}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{A5E36043-8EF1-476C-9431-69D2C24A8083}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C15BCD15-BCB6-4D05-BC3C-3DDAA811891E}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{790368FD-A427-43AE-AD25-6CD41EE07EFB}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{5A64F56D-1653-4DFC-B16B-F660308D8FEE}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{CCD4AE14-E969-4A9C-8D0A-3BFAE3DBE60D}" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{ACDCA81B-03DD-4170-A104-658806CA6FB9}" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{39509A16-2A03-4930-BA34-2ECD6C362F22}" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3CC065DF-A398-4B18-AE34-AF21FD54ED90}" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{11102546-E6C6-4F64-AC1E-5BDEF7C9740D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{27617CA6-389C-43FB-A48B-A0E73F397869}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{8B4D2F72-AA68-40F1-96C9-37D772084DF5}" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{5F297A88-DAAC-4330-B0D5-6836CCABFF76}" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9818CE11-3ABA-49D4-8DEA-0C145916B327}" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{F249C786-0920-4000-AC71-83A53EE058F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{99238910-3F9F-42DC-BD87-4735CD409D18}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{6F193524-A5AC-4360-AE57-B4E204CA3DC6}" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CE16F1AC-6774-425E-A481-2433EF3A5A29}" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{78E0A7B5-8F4A-431C-B640-2A20D8AD22C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F4CAD6E9-1D8C-46D0-97BF-63C05BA0DBC7}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{06FFFCFF-EADA-4017-AEF0-929EC6F1215E}" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{FDA3B20D-8C0A-4EF6-AC69-79BAB6DB191F}" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4B229239-4D1F-4E24-9981-176CE71FAB2A}" name="Tabla_elultimoinca_empresa" displayName="Tabla_elultimoinca_empresa" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{40EA332B-37F3-40F4-898E-C7C68E560D62}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla_elultimoinca_empresa" displayName="Tabla_elultimoinca_empresa" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8EE2CAA7-9C5E-4E1D-A101-F69B2AD518E8}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{8EB31404-323F-48F1-B2E7-4B3562B1B6E6}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{134184F9-4447-4537-9D0D-E6E470DDEA40}" uniqueName="3" name="direccion" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{022150B6-F813-443D-8BAC-65EBDDA58E2D}" uniqueName="4" name="email" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="direccion" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="email" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1699,21 +1754,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E5911-B1DF-4E84-A4CF-99E814BA98DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1729,7 +1784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1737,7 +1792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
@@ -1746,7 +1801,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ref="A5:A6" si="0">A4+1</f>
         <v>4</v>
@@ -1755,7 +1810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1764,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1781,22 +1836,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB36FAEC-116C-4430-BB4F-DC17CAC8CFDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1819,25 +1874,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442FFF17-25A7-4996-A070-DF66A0206C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1869,25 +1924,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC5EC1E-941C-41B0-A9B6-A21912D02328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -1928,35 +1983,35 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC927078-3261-4021-B365-CD4D4CE1BDB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -2031,24 +2086,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B49B8A-1107-4389-AD91-19E75D1532BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2086,25 +2141,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF76027-D376-4C54-8308-89F77CDD4738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2188,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2145,20 +2200,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192F7273-F6CD-4866-9784-442222F96A35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2184,28 +2239,28 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF2AF2A-B47F-487E-9F53-4292971FEE6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -2256,27 +2311,27 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6489E671-4F09-406B-8286-5B6E00058BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2366,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
     </row>
   </sheetData>
@@ -2323,22 +2378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C09D84D-B975-4FC5-9837-F06D6E90A6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2370,21 +2425,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E384D13E-80C0-496A-93A5-9345ED232081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2403,7 +2458,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2420,24 +2475,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72684892-5EFA-41EB-937B-EEFEA8ED4F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2466,7 +2521,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2478,26 +2533,26 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B03CCCA-CC0D-466F-A68F-C0E499C7E337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2541,26 +2596,26 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F443A6-ADF5-45E8-B8DD-9B8BF9771FD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +2647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2604,20 +2659,20 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95AC3B4-F797-4175-A8FB-CC04C02361EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2640,19 +2695,19 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE45A1C0-C09B-47D3-AA5F-67F59EF6A5B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2672,24 +2727,24 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22527632-6578-4707-AFE8-DDE059B25905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2700,12 +2755,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>Tabla_elultimoinca_lote_1[id]+1</f>
         <v>2</v>
@@ -2720,69 +2775,69 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50393608-4BED-4DAA-804E-82F84A0F45DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2333897B-4222-4882-BDF3-C47068781D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F5B918-300D-4BA3-81B1-DEB4AEFB6DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993505D5-AACE-4BD8-AD64-8ADABB883FD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F94634-884C-4236-830B-706D7FCF10C2}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2793,29 +2848,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2827,25 +2873,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ABEEAD-358E-4DCA-B833-270B68177C16}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2866,6 +2912,198 @@
       </c>
       <c r="G1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>503972279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2">
+        <v>991868307</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2876,51 +3114,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8C7D5-BE28-42B8-8596-C526CA720CB4}">
-  <dimension ref="A1:I1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2931,28 +3146,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C6155D-9BF8-4B98-93E7-2F5971C904AA}">
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2963,24 +3174,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52B241D-948E-43A4-B046-24131A8FCA40}">
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2991,52 +3206,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C811B7B1-8276-4A02-9ED3-E31CF2B58884}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B214A96-77C2-41CA-A87D-DA267BF7C2B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DA1D6477-EB88-40B3-8693-58A8C1B37E94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="797" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -47,7 +48,7 @@
     <definedName name="elultimoinca_brix" localSheetId="0" hidden="1">brix!$A$1:$B$3</definedName>
     <definedName name="elultimoinca_catalogo" localSheetId="6" hidden="1">Catalogo!$A$1:$B$2</definedName>
     <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$4</definedName>
-    <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$2</definedName>
+    <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$10</definedName>
     <definedName name="elultimoinca_compra_mat_pri" localSheetId="11" hidden="1">Compra_Mat_pi!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_empresa" localSheetId="8" hidden="1">Empresa!$A$1:$D$2</definedName>
@@ -55,21 +56,21 @@
     <definedName name="elultimoinca_hoja_producto_terminado" localSheetId="12" hidden="1">Hoja_producto_terminado!$A$1:$T$2</definedName>
     <definedName name="elultimoinca_hoja_ventas" localSheetId="21" hidden="1">Hoja_venta!$A$1:$J$2</definedName>
     <definedName name="elultimoinca_inventario_empresa" localSheetId="15" hidden="1">Inventario_empresa!$A$1:$E$2</definedName>
-    <definedName name="elultimoinca_item_inventario" localSheetId="5" hidden="1">Item_inventario!$A$1:$C$2</definedName>
+    <definedName name="elultimoinca_item_inventario" localSheetId="5" hidden="1">Item_inventario!$A$1:$C$6</definedName>
     <definedName name="elultimoinca_lote_1" localSheetId="24" hidden="1">Lote!$A$1:$C$2</definedName>
     <definedName name="elultimoinca_materia_prima" localSheetId="9" hidden="1">Matria_Prima!$A$1:$D$2</definedName>
     <definedName name="elultimoinca_pasteurizacion" localSheetId="23" hidden="1">Pasteorizacion!$A$1:$C$2</definedName>
     <definedName name="elultimoinca_pedido" localSheetId="13" hidden="1">Pedido!$A$1:$H$2</definedName>
     <definedName name="elultimoinca_procesos" localSheetId="2" hidden="1">Proceso!$A$1:$C$3</definedName>
     <definedName name="elultimoinca_produccion_total" localSheetId="22" hidden="1">Producion_total!$A$1:$D$2</definedName>
-    <definedName name="elultimoinca_proveedor" localSheetId="10" hidden="1">Proveedor!$A$1:$G$2</definedName>
+    <definedName name="elultimoinca_proveedor" localSheetId="10" hidden="1">Proveedor!$A$1:$G$8</definedName>
     <definedName name="elultimoinca_salida_hoja_inventario" localSheetId="19" hidden="1">Salida_hoja_inventario!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_socio" localSheetId="18" hidden="1">Socio!$A$1:$G$2</definedName>
     <definedName name="elultimoinca_trabajador" localSheetId="3" hidden="1">Trabajador!$A$1:$G$9</definedName>
-    <definedName name="elultimoinca_unidad_medida" localSheetId="7" hidden="1">Unidad_medida!$A$1:$C$2</definedName>
+    <definedName name="elultimoinca_unidad_medida" localSheetId="7" hidden="1">Unidad_medida!$A$1:$C$5</definedName>
     <definedName name="elultimoinca_users" localSheetId="20" hidden="1">Usuario!$A$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,87 +80,87 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`area_produccion`"/>
   </connection>
-  <connection id="2" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`brix`"/>
   </connection>
-  <connection id="3" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`catalogo`"/>
   </connection>
-  <connection id="4" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`clase_vino`"/>
   </connection>
-  <connection id="5" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`cliente`"/>
   </connection>
-  <connection id="6" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_mat_pri`"/>
   </connection>
-  <connection id="7" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_venta`"/>
   </connection>
-  <connection id="8" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`empresa`"/>
   </connection>
-  <connection id="9" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_produccion_vino`"/>
   </connection>
-  <connection id="10" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF09000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_producto_terminado`"/>
   </connection>
-  <connection id="11" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" xr16:uid="{00000000-0015-0000-FFFF-FFFF0A000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_ventas`"/>
   </connection>
-  <connection id="12" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF0B000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`inventario_empresa`"/>
   </connection>
-  <connection id="13" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" xr16:uid="{00000000-0015-0000-FFFF-FFFF0C000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`item_inventario`"/>
   </connection>
-  <connection id="14" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="14" xr16:uid="{00000000-0015-0000-FFFF-FFFF0D000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`lote`"/>
   </connection>
-  <connection id="15" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="15" xr16:uid="{00000000-0015-0000-FFFF-FFFF0E000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`materia_prima`"/>
   </connection>
-  <connection id="16" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="16" xr16:uid="{00000000-0015-0000-FFFF-FFFF0F000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pasteurizacion`"/>
   </connection>
-  <connection id="17" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="17" xr16:uid="{00000000-0015-0000-FFFF-FFFF10000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pedido`"/>
   </connection>
-  <connection id="18" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="18" xr16:uid="{00000000-0015-0000-FFFF-FFFF11000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`procesos`"/>
   </connection>
-  <connection id="19" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="19" xr16:uid="{00000000-0015-0000-FFFF-FFFF12000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`produccion_total`"/>
   </connection>
-  <connection id="20" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="20" xr16:uid="{00000000-0015-0000-FFFF-FFFF13000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`proveedor`"/>
   </connection>
-  <connection id="21" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="21" xr16:uid="{00000000-0015-0000-FFFF-FFFF14000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`salida_hoja_inventario`"/>
   </connection>
-  <connection id="22" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="22" xr16:uid="{00000000-0015-0000-FFFF-FFFF15000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`socio`"/>
   </connection>
-  <connection id="23" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="23" xr16:uid="{00000000-0015-0000-FFFF-FFFF16000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`trabajador`"/>
   </connection>
-  <connection id="24" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="24" xr16:uid="{00000000-0015-0000-FFFF-FFFF17000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`unidad_medida`"/>
   </connection>
-  <connection id="25" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="25" xr16:uid="{00000000-0015-0000-FFFF-FFFF18000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`users`"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -541,12 +542,303 @@
   <si>
     <t>Segundo</t>
   </si>
+  <si>
+    <t>05041122681</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>hildadiaz85@gmail.com</t>
+  </si>
+  <si>
+    <t>0991868307</t>
+  </si>
+  <si>
+    <t>kilos</t>
+  </si>
+  <si>
+    <t>Se muestra que la unidad de medida puede utilizarse en el entorno de la venta a realizarse.</t>
+  </si>
+  <si>
+    <t>POLICIA</t>
+  </si>
+  <si>
+    <t>VILLAMARIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCALDE </t>
+  </si>
+  <si>
+    <t>ARAJUNO</t>
+  </si>
+  <si>
+    <t>DE ANTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFRAIN </t>
+  </si>
+  <si>
+    <t>CALAOUCHO</t>
+  </si>
+  <si>
+    <t>AlMACHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HILDA </t>
+  </si>
+  <si>
+    <t>DIAS</t>
+  </si>
+  <si>
+    <t>MIRIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCALDE  </t>
+  </si>
+  <si>
+    <t>SIGCHOS</t>
+  </si>
+  <si>
+    <t>PASTUÑA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUZMILA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTHA </t>
+  </si>
+  <si>
+    <t>AYALA</t>
+  </si>
+  <si>
+    <t>0503870735</t>
+  </si>
+  <si>
+    <t>0507035942</t>
+  </si>
+  <si>
+    <t>0507894521</t>
+  </si>
+  <si>
+    <t>0508070745</t>
+  </si>
+  <si>
+    <t>0507896342</t>
+  </si>
+  <si>
+    <t>0503870759</t>
+  </si>
+  <si>
+    <t>0507841562</t>
+  </si>
+  <si>
+    <t>0504896721</t>
+  </si>
+  <si>
+    <t>0502478963</t>
+  </si>
+  <si>
+    <t>0897645867</t>
+  </si>
+  <si>
+    <t>0985774563</t>
+  </si>
+  <si>
+    <t>0986547125</t>
+  </si>
+  <si>
+    <t>0984576212</t>
+  </si>
+  <si>
+    <t>0986571256</t>
+  </si>
+  <si>
+    <t>0986574523</t>
+  </si>
+  <si>
+    <t>0963547852</t>
+  </si>
+  <si>
+    <t>0932547965</t>
+  </si>
+  <si>
+    <t>0968745214</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Quinticusi</t>
+  </si>
+  <si>
+    <t>Machala</t>
+  </si>
+  <si>
+    <t>Latacunga</t>
+  </si>
+  <si>
+    <t>Salcedo</t>
+  </si>
+  <si>
+    <t>Ambato</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Machachi</t>
+  </si>
+  <si>
+    <t>Laso</t>
+  </si>
+  <si>
+    <t>AlcaldeArajuno@gmail.com</t>
+  </si>
+  <si>
+    <t>EfrainCalaoucho@gmail.com</t>
+  </si>
+  <si>
+    <t>AlcaldedeAnte@hotmail.com</t>
+  </si>
+  <si>
+    <t>policiaAlamche@gmailcom</t>
+  </si>
+  <si>
+    <t>HildaDias@hotmail.com</t>
+  </si>
+  <si>
+    <t>MirianVillamarin@hotmail.com</t>
+  </si>
+  <si>
+    <t>luzmilapastuña@gmail.com</t>
+  </si>
+  <si>
+    <t>AlcaldeSigchos@hotmail.com</t>
+  </si>
+  <si>
+    <t>MarthaAyala@hotmail.com</t>
+  </si>
+  <si>
+    <t>Al12</t>
+  </si>
+  <si>
+    <t>Ef32</t>
+  </si>
+  <si>
+    <t>po42</t>
+  </si>
+  <si>
+    <t>Hi52</t>
+  </si>
+  <si>
+    <t>Mi62</t>
+  </si>
+  <si>
+    <t>Al72</t>
+  </si>
+  <si>
+    <t>lu82</t>
+  </si>
+  <si>
+    <t>Ma92</t>
+  </si>
+  <si>
+    <t>An24</t>
+  </si>
+  <si>
+    <t>Corcho</t>
+  </si>
+  <si>
+    <t>Botellas</t>
+  </si>
+  <si>
+    <t>Tacho</t>
+  </si>
+  <si>
+    <t>Cajas</t>
+  </si>
+  <si>
+    <t>Las botellas son de uso exclusivo</t>
+  </si>
+  <si>
+    <t>Los corchos esta en buena calidad</t>
+  </si>
+  <si>
+    <t>Los tachos son indispensables</t>
+  </si>
+  <si>
+    <t>Las cajas se venderan por docenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOURDES </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BTOAQUIZ</t>
+  </si>
+  <si>
+    <t>PALLACOS</t>
+  </si>
+  <si>
+    <t>YUNCISIG</t>
+  </si>
+  <si>
+    <t>05038799452</t>
+  </si>
+  <si>
+    <t>05089745621</t>
+  </si>
+  <si>
+    <t>05038792412</t>
+  </si>
+  <si>
+    <t>LORENA</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>032-45867</t>
+  </si>
+  <si>
+    <t>032-48563</t>
+  </si>
+  <si>
+    <t>032-89745</t>
+  </si>
+  <si>
+    <t>032-78564</t>
+  </si>
+  <si>
+    <t>lourdesBto48@hotmail.com</t>
+  </si>
+  <si>
+    <t>lorenaPalla89@gmail.com</t>
+  </si>
+  <si>
+    <t>MariaYugcising78@hotmail.com</t>
+  </si>
+  <si>
+    <t>gramos</t>
+  </si>
+  <si>
+    <t>litros</t>
+  </si>
+  <si>
+    <t>Se muestra los litros del agua obtenido</t>
+  </si>
+  <si>
+    <t>se muestra los gramos que se utilizo con la levadura</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,20 +854,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF323232"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -584,19 +935,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -654,9 +1051,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -671,7 +1068,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca brix" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca brix" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -682,7 +1079,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca materia_prima" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca materia_prima" connectionId="15" xr16:uid="{00000000-0016-0000-0900-000009000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -695,7 +1092,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca proveedor" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca proveedor" connectionId="20" xr16:uid="{00000000-0016-0000-0A00-00000A000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -711,7 +1108,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_mat_pri" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_mat_pri" connectionId="6" xr16:uid="{00000000-0016-0000-0B00-00000B000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -729,7 +1126,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_producto_terminado" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_producto_terminado" connectionId="10" xr16:uid="{00000000-0016-0000-0C00-00000C000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -758,7 +1155,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pedido" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pedido" connectionId="17" xr16:uid="{00000000-0016-0000-0D00-00000D000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -775,7 +1172,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_venta" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_venta" connectionId="7" xr16:uid="{00000000-0016-0000-0E00-00000E000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -793,7 +1190,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca inventario_empresa" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca inventario_empresa" connectionId="12" xr16:uid="{00000000-0016-0000-0F00-00000F000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -807,7 +1204,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="+Conectar con nuevo origen de datos" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="+Conectar con nuevo origen de datos" connectionId="1" xr16:uid="{00000000-0016-0000-1000-000010000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
     <queryTableFields count="12">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -828,7 +1225,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_produccion_vino" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_produccion_vino" connectionId="9" xr16:uid="{00000000-0016-0000-1100-000011000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -848,7 +1245,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca socio" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca socio" connectionId="22" xr16:uid="{00000000-0016-0000-1200-000012000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -864,7 +1261,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca clase_vino" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca clase_vino" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -876,7 +1273,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca salida_hoja_inventario" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca salida_hoja_inventario" connectionId="21" xr16:uid="{00000000-0016-0000-1300-000013000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -894,7 +1291,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca users" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca users" connectionId="25" xr16:uid="{00000000-0016-0000-1400-000014000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -914,7 +1311,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_ventas" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_ventas" connectionId="11" xr16:uid="{00000000-0016-0000-1500-000015000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -933,7 +1330,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca produccion_total" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca produccion_total" connectionId="19" xr16:uid="{00000000-0016-0000-1600-000016000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -946,7 +1343,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pasteurizacion" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pasteurizacion" connectionId="16" xr16:uid="{00000000-0016-0000-1700-000017000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -958,7 +1355,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca lote_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca lote_1" connectionId="14" xr16:uid="{00000000-0016-0000-1800-000018000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -970,7 +1367,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca procesos" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca procesos" connectionId="18" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -982,7 +1379,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca trabajador" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca trabajador" connectionId="23" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -998,7 +1395,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca cliente" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca cliente" connectionId="5" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1016,7 +1413,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca item_inventario" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca item_inventario" connectionId="13" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1028,7 +1425,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca catalogo" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca catalogo" connectionId="3" xr16:uid="{00000000-0016-0000-0600-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1039,7 +1436,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca unidad_medida" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca unidad_medida" connectionId="24" xr16:uid="{00000000-0016-0000-0700-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1051,7 +1448,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca empresa" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca empresa" connectionId="8" xr16:uid="{00000000-0016-0000-0800-000008000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1064,395 +1461,395 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>A3+1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="contidad" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" uniqueName="4" name="contidad" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="telefono_pro" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
-    <tableColumn id="14" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
-    <tableColumn id="15" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
-    <tableColumn id="16" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
-    <tableColumn id="17" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
-    <tableColumn id="18" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
-    <tableColumn id="19" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
-    <tableColumn id="20" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0C00-000011000000}" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0C00-000013000000}" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0C00-000014000000}" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="estado" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" uniqueName="6" name="estado" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0E00-000009000000}" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1100-00000A000000}" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1100-00000B000000}" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="rol" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="estado" queryTableFieldId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" uniqueName="10" name="rol" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1400-00000B000000}" uniqueName="11" name="estado" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Email_tra" queryTableFieldId="7" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" uniqueName="7" name="Email_tra" queryTableFieldId="7" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" uniqueName="9" name="password" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla_elultimoinca_empresa" displayName="Tabla_elultimoinca_empresa" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla_elultimoinca_empresa" displayName="Tabla_elultimoinca_empresa" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="direccion" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="email" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" uniqueName="3" name="direccion" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" uniqueName="4" name="email" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1754,21 +2151,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1784,7 +2181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1792,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
@@ -1801,7 +2198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A6" si="0">A4+1</f>
         <v>4</v>
@@ -1810,7 +2207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1819,7 +2216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1836,22 +2233,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1874,25 +2271,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1914,6 +2311,176 @@
       <c r="G1" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{5368A2A5-3D61-4569-A3EB-7219B471C95E}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{6F6AF945-C6EB-4324-9567-EDFBA6A47122}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{4AA0BD44-731B-408C-80DD-81B01E3DC353}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{740AE232-EC2F-46D5-94A3-0EFD252446E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1923,56 +2490,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,100 +2593,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2085,51 +2648,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2140,56 +2707,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2199,36 +2746,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2238,69 +2818,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="J2" s="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2310,64 +2885,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2377,43 +2932,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2424,47 +2982,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2474,55 +3040,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2532,60 +3103,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2595,60 +3166,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2658,32 +3202,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2694,20 +3234,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2716,6 +3261,17 @@
       </c>
       <c r="C1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>Tabla_elultimoinca_lote_1[id]+1</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2726,44 +3282,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>Tabla_elultimoinca_lote_1[id]+1</f>
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2774,94 +3380,590 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>503972279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="9">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="9">
+        <v>9674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="9">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="9">
+        <v>8745</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5917A18E-9C0C-48B8-9548-776C5B29D413}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{B8300018-6A8F-4B99-9522-CC00FA7AFC8A}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{75C864F9-2E17-4222-B63B-D129E776C669}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{2554BC5D-0217-4B15-A8F0-64D15F26FD0C}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{41A8E423-7A9A-4CA5-B67C-E363C981BD5F}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{138BF0FF-0DB2-450C-B4A8-2C9F0C570FC6}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{5AD68DD3-840C-4A4D-98DC-8EFB0884335F}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{B962FFD2-5AA2-4DF9-8EB8-BFF635B36BA2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2872,238 +3974,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>503972279</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2">
-        <v>991868307</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId9"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3114,28 +4002,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3146,80 +4069,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppp\htdocs\Proyecto_Vino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DA1D6477-EB88-40B3-8693-58A8C1B37E94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{800E455C-FA0A-47EE-830F-32BC45D3035B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -51,19 +51,19 @@
     <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$10</definedName>
     <definedName name="elultimoinca_compra_mat_pri" localSheetId="11" hidden="1">Compra_Mat_pi!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$2</definedName>
-    <definedName name="elultimoinca_empresa" localSheetId="8" hidden="1">Empresa!$A$1:$D$2</definedName>
+    <definedName name="elultimoinca_empresa" localSheetId="8" hidden="1">Empresa!$A$1:$D$4</definedName>
     <definedName name="elultimoinca_hoja_produccion_vino" localSheetId="17" hidden="1">Hoja_producion_vino!$A$1:$K$2</definedName>
     <definedName name="elultimoinca_hoja_producto_terminado" localSheetId="12" hidden="1">Hoja_producto_terminado!$A$1:$T$2</definedName>
     <definedName name="elultimoinca_hoja_ventas" localSheetId="21" hidden="1">Hoja_venta!$A$1:$J$2</definedName>
     <definedName name="elultimoinca_inventario_empresa" localSheetId="15" hidden="1">Inventario_empresa!$A$1:$E$2</definedName>
     <definedName name="elultimoinca_item_inventario" localSheetId="5" hidden="1">Item_inventario!$A$1:$C$6</definedName>
     <definedName name="elultimoinca_lote_1" localSheetId="24" hidden="1">Lote!$A$1:$C$2</definedName>
-    <definedName name="elultimoinca_materia_prima" localSheetId="9" hidden="1">Matria_Prima!$A$1:$D$2</definedName>
+    <definedName name="elultimoinca_materia_prima" localSheetId="9" hidden="1">Matria_Prima!$A$1:$D$15</definedName>
     <definedName name="elultimoinca_pasteurizacion" localSheetId="23" hidden="1">Pasteorizacion!$A$1:$C$2</definedName>
     <definedName name="elultimoinca_pedido" localSheetId="13" hidden="1">Pedido!$A$1:$H$2</definedName>
     <definedName name="elultimoinca_procesos" localSheetId="2" hidden="1">Proceso!$A$1:$C$3</definedName>
     <definedName name="elultimoinca_produccion_total" localSheetId="22" hidden="1">Producion_total!$A$1:$D$2</definedName>
-    <definedName name="elultimoinca_proveedor" localSheetId="10" hidden="1">Proveedor!$A$1:$G$8</definedName>
+    <definedName name="elultimoinca_proveedor" localSheetId="10" hidden="1">Proveedor!$A$1:$G$4</definedName>
     <definedName name="elultimoinca_salida_hoja_inventario" localSheetId="19" hidden="1">Salida_hoja_inventario!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_socio" localSheetId="18" hidden="1">Socio!$A$1:$G$2</definedName>
     <definedName name="elultimoinca_trabajador" localSheetId="3" hidden="1">Trabajador!$A$1:$G$9</definedName>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="249">
   <si>
     <t>id</t>
   </si>
@@ -543,15 +543,6 @@
     <t>Segundo</t>
   </si>
   <si>
-    <t>05041122681</t>
-  </si>
-  <si>
-    <t>Hilda</t>
-  </si>
-  <si>
-    <t>Diaz</t>
-  </si>
-  <si>
     <t>hildadiaz85@gmail.com</t>
   </si>
   <si>
@@ -774,54 +765,18 @@
     <t>Las cajas se venderan por docenas</t>
   </si>
   <si>
-    <t xml:space="preserve">LOURDES </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BTOAQUIZ</t>
-  </si>
-  <si>
     <t>PALLACOS</t>
   </si>
   <si>
     <t>YUNCISIG</t>
   </si>
   <si>
-    <t>05038799452</t>
-  </si>
-  <si>
-    <t>05089745621</t>
-  </si>
-  <si>
-    <t>05038792412</t>
-  </si>
-  <si>
-    <t>LORENA</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>032-45867</t>
-  </si>
-  <si>
-    <t>032-48563</t>
-  </si>
-  <si>
-    <t>032-89745</t>
-  </si>
-  <si>
-    <t>032-78564</t>
-  </si>
-  <si>
     <t>lourdesBto48@hotmail.com</t>
   </si>
   <si>
     <t>lorenaPalla89@gmail.com</t>
   </si>
   <si>
-    <t>MariaYugcising78@hotmail.com</t>
-  </si>
-  <si>
     <t>gramos</t>
   </si>
   <si>
@@ -832,6 +787,126 @@
   </si>
   <si>
     <t>se muestra los gramos que se utilizo con la levadura</t>
+  </si>
+  <si>
+    <t>S/n</t>
+  </si>
+  <si>
+    <t>HIERBABUENA</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>QUINTICUSIG</t>
+  </si>
+  <si>
+    <t>OLGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIAS</t>
+  </si>
+  <si>
+    <t>S/T</t>
+  </si>
+  <si>
+    <t>s/c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOURDES  </t>
+  </si>
+  <si>
+    <t>BTOAQUIZ</t>
+  </si>
+  <si>
+    <t>id trabajador</t>
+  </si>
+  <si>
+    <t>id proveedor</t>
+  </si>
+  <si>
+    <t>id materia prima</t>
+  </si>
+  <si>
+    <t>id unidad de medida</t>
+  </si>
+  <si>
+    <t>Mortiño</t>
+  </si>
+  <si>
+    <t>Fruta silvestre</t>
+  </si>
+  <si>
+    <t>Etiqueta 750 Frente</t>
+  </si>
+  <si>
+    <t>Etiqueta 750 Detrás</t>
+  </si>
+  <si>
+    <t>Etiqueta 250 Frente</t>
+  </si>
+  <si>
+    <t>Etiqueta 250 Detrás</t>
+  </si>
+  <si>
+    <t>Corcho 750 Frente</t>
+  </si>
+  <si>
+    <t>Corcho 250 Frente</t>
+  </si>
+  <si>
+    <t>Son corchos para botellas de 750 ml</t>
+  </si>
+  <si>
+    <t>Son corechos para botellas de 250 ml</t>
+  </si>
+  <si>
+    <t>Son las etiquetas que va en la parte trasera de la botella de 250 ml</t>
+  </si>
+  <si>
+    <t>Son las etiquetas para el frente de la botellas de 250 ml</t>
+  </si>
+  <si>
+    <t>Son las etiquetas que va en la parte trasera de la botella de 750 ml</t>
+  </si>
+  <si>
+    <t>Son las etiquetas para el frente de la botellas de 750 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capuchon </t>
+  </si>
+  <si>
+    <t>Son los capuchones para las botellas tanto de 750 como las de 250 ml</t>
+  </si>
+  <si>
+    <t>Cinta del SRT</t>
+  </si>
+  <si>
+    <t>Son cintas del SRI para las botellas tanto de 750 como las de 250 ml</t>
+  </si>
+  <si>
+    <t>Cinta el Ultimo Inca</t>
+  </si>
+  <si>
+    <t>Es la cinta con el logo de la empresa tanto para botellas de 750 como las de 250 ml</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Agua Pura</t>
+  </si>
+  <si>
+    <t>Levadura</t>
+  </si>
+  <si>
+    <t>Azucar</t>
+  </si>
+  <si>
+    <t>Levadura pura</t>
+  </si>
+  <si>
+    <t>Azucar Comun</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -958,12 +1033,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -987,42 +1099,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1474,8 +1550,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
@@ -1487,14 +1563,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G8" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
   </tableColumns>
@@ -1507,7 +1583,7 @@
   <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
@@ -1526,11 +1602,11 @@
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
@@ -1554,7 +1630,7 @@
   <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
@@ -1571,7 +1647,7 @@
   <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
@@ -1603,7 +1679,7 @@
   <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
@@ -1611,7 +1687,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
@@ -1627,7 +1703,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
@@ -1672,7 +1748,7 @@
   <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
@@ -1710,7 +1786,7 @@
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
@@ -1795,7 +1871,7 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
@@ -1843,8 +1919,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla_elultimoinca_empresa" displayName="Tabla_elultimoinca_empresa" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla_elultimoinca_empresa" displayName="Tabla_elultimoinca_empresa" ref="A1:D5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
@@ -2234,17 +2310,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2262,6 +2338,188 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2274,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,19 +2575,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2339,20 +2597,20 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>208</v>
+      <c r="B3" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2362,47 +2620,30 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
         <v>209</v>
       </c>
-      <c r="C4" t="s">
-        <v>211</v>
-      </c>
       <c r="D4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>215</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -2418,15 +2659,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{5368A2A5-3D61-4569-A3EB-7219B471C95E}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{6F6AF945-C6EB-4324-9567-EDFBA6A47122}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{4AA0BD44-731B-408C-80DD-81B01E3DC353}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{740AE232-EC2F-46D5-94A3-0EFD252446E2}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{740AE232-EC2F-46D5-94A3-0EFD252446E2}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{4AA0BD44-731B-408C-80DD-81B01E3DC353}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{5368A2A5-3D61-4569-A3EB-7219B471C95E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2435,7 +2675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2444,10 +2686,10 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2481,6 +2723,18 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2494,7 +2748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3436,7 +3692,7 @@
         <v>113</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>114</v>
@@ -3622,25 +3878,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I2">
         <v>7345</v>
@@ -3651,25 +3907,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I3" s="9">
         <v>4587</v>
@@ -3680,25 +3936,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I4" s="9">
         <v>9674</v>
@@ -3709,25 +3965,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I5" s="9">
         <v>2457</v>
@@ -3738,25 +3994,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I6" s="9">
         <v>3697</v>
@@ -3767,25 +4023,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I7" s="9">
         <v>1489</v>
@@ -3796,25 +4052,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I8" s="9">
         <v>5874</v>
@@ -3825,25 +4081,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I9" s="9">
         <v>2896</v>
@@ -3854,25 +4110,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I10" s="9">
         <v>8745</v>
@@ -3927,10 +4183,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3938,10 +4194,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
         <v>197</v>
-      </c>
-      <c r="C3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3949,10 +4205,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3960,10 +4216,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4033,10 +4289,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4044,10 +4300,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4055,10 +4311,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4071,14 +4327,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4094,6 +4353,48 @@
       </c>
       <c r="D1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{800E455C-FA0A-47EE-830F-32BC45D3035B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{94D704C7-4DCD-4510-A31C-53856A5B6A3F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="797" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="856" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Proceso" sheetId="3" r:id="rId3"/>
     <sheet name="Trabajador" sheetId="4" r:id="rId4"/>
     <sheet name="Cliente" sheetId="1" r:id="rId5"/>
-    <sheet name="Item_inventario" sheetId="6" r:id="rId6"/>
-    <sheet name="Catalogo" sheetId="7" r:id="rId7"/>
-    <sheet name="Unidad_medida" sheetId="8" r:id="rId8"/>
-    <sheet name="Empresa" sheetId="9" r:id="rId9"/>
-    <sheet name="Matria_Prima" sheetId="10" r:id="rId10"/>
-    <sheet name="Proveedor" sheetId="12" r:id="rId11"/>
-    <sheet name="Compra_Mat_pi" sheetId="13" r:id="rId12"/>
-    <sheet name="Hoja_producto_terminado" sheetId="14" r:id="rId13"/>
+    <sheet name="Hoja_producto_terminado" sheetId="14" r:id="rId6"/>
+    <sheet name="Item_inventario" sheetId="6" r:id="rId7"/>
+    <sheet name="Catalogo" sheetId="7" r:id="rId8"/>
+    <sheet name="Unidad_medida" sheetId="8" r:id="rId9"/>
+    <sheet name="Empresa" sheetId="9" r:id="rId10"/>
+    <sheet name="Matria_Prima" sheetId="10" r:id="rId11"/>
+    <sheet name="Proveedor" sheetId="12" r:id="rId12"/>
+    <sheet name="Compra_Mat_pi" sheetId="13" r:id="rId13"/>
     <sheet name="Pedido" sheetId="15" r:id="rId14"/>
     <sheet name="Compra_venta" sheetId="16" r:id="rId15"/>
     <sheet name="Inventario_empresa" sheetId="17" r:id="rId16"/>
@@ -38,36 +38,32 @@
     <sheet name="Producion_total" sheetId="24" r:id="rId23"/>
     <sheet name="Pasteorizacion" sheetId="25" r:id="rId24"/>
     <sheet name="Lote" sheetId="26" r:id="rId25"/>
-    <sheet name="Hoja27" sheetId="27" r:id="rId26"/>
-    <sheet name="Hoja28" sheetId="28" r:id="rId27"/>
-    <sheet name="Hoja29" sheetId="29" r:id="rId28"/>
-    <sheet name="Hoja30" sheetId="30" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName name="Conectar_con_nuevo_origen_de_datos" localSheetId="16" hidden="1">Area_produccion!$A$1:$L$2</definedName>
     <definedName name="elultimoinca_brix" localSheetId="0" hidden="1">brix!$A$1:$B$3</definedName>
-    <definedName name="elultimoinca_catalogo" localSheetId="6" hidden="1">Catalogo!$A$1:$B$2</definedName>
+    <definedName name="elultimoinca_catalogo" localSheetId="7" hidden="1">Catalogo!$A$1:$B$2</definedName>
     <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$4</definedName>
     <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$10</definedName>
-    <definedName name="elultimoinca_compra_mat_pri" localSheetId="11" hidden="1">Compra_Mat_pi!$A$1:$I$2</definedName>
+    <definedName name="elultimoinca_compra_mat_pri" localSheetId="12" hidden="1">Compra_Mat_pi!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$2</definedName>
-    <definedName name="elultimoinca_empresa" localSheetId="8" hidden="1">Empresa!$A$1:$D$4</definedName>
+    <definedName name="elultimoinca_empresa" localSheetId="9" hidden="1">Empresa!$A$1:$D$4</definedName>
     <definedName name="elultimoinca_hoja_produccion_vino" localSheetId="17" hidden="1">Hoja_producion_vino!$A$1:$K$2</definedName>
-    <definedName name="elultimoinca_hoja_producto_terminado" localSheetId="12" hidden="1">Hoja_producto_terminado!$A$1:$T$2</definedName>
+    <definedName name="elultimoinca_hoja_producto_terminado" localSheetId="5" hidden="1">Hoja_producto_terminado!$A$1:$T$9</definedName>
     <definedName name="elultimoinca_hoja_ventas" localSheetId="21" hidden="1">Hoja_venta!$A$1:$J$2</definedName>
     <definedName name="elultimoinca_inventario_empresa" localSheetId="15" hidden="1">Inventario_empresa!$A$1:$E$2</definedName>
-    <definedName name="elultimoinca_item_inventario" localSheetId="5" hidden="1">Item_inventario!$A$1:$C$6</definedName>
+    <definedName name="elultimoinca_item_inventario" localSheetId="6" hidden="1">Item_inventario!$A$1:$C$6</definedName>
     <definedName name="elultimoinca_lote_1" localSheetId="24" hidden="1">Lote!$A$1:$C$2</definedName>
-    <definedName name="elultimoinca_materia_prima" localSheetId="9" hidden="1">Matria_Prima!$A$1:$D$15</definedName>
-    <definedName name="elultimoinca_pasteurizacion" localSheetId="23" hidden="1">Pasteorizacion!$A$1:$C$2</definedName>
+    <definedName name="elultimoinca_materia_prima" localSheetId="10" hidden="1">Matria_Prima!$A$1:$D$15</definedName>
+    <definedName name="elultimoinca_pasteurizacion" localSheetId="23" hidden="1">Pasteorizacion!$A$1:$C$4</definedName>
     <definedName name="elultimoinca_pedido" localSheetId="13" hidden="1">Pedido!$A$1:$H$2</definedName>
     <definedName name="elultimoinca_procesos" localSheetId="2" hidden="1">Proceso!$A$1:$C$3</definedName>
     <definedName name="elultimoinca_produccion_total" localSheetId="22" hidden="1">Producion_total!$A$1:$D$2</definedName>
-    <definedName name="elultimoinca_proveedor" localSheetId="10" hidden="1">Proveedor!$A$1:$G$4</definedName>
+    <definedName name="elultimoinca_proveedor" localSheetId="11" hidden="1">Proveedor!$A$1:$G$4</definedName>
     <definedName name="elultimoinca_salida_hoja_inventario" localSheetId="19" hidden="1">Salida_hoja_inventario!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_socio" localSheetId="18" hidden="1">Socio!$A$1:$G$2</definedName>
     <definedName name="elultimoinca_trabajador" localSheetId="3" hidden="1">Trabajador!$A$1:$G$9</definedName>
-    <definedName name="elultimoinca_unidad_medida" localSheetId="7" hidden="1">Unidad_medida!$A$1:$C$5</definedName>
+    <definedName name="elultimoinca_unidad_medida" localSheetId="8" hidden="1">Unidad_medida!$A$1:$C$5</definedName>
     <definedName name="elultimoinca_users" localSheetId="20" hidden="1">Usuario!$A$1:$K$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -160,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="267">
   <si>
     <t>id</t>
   </si>
@@ -907,13 +903,67 @@
   </si>
   <si>
     <t>Azucar Comun</t>
+  </si>
+  <si>
+    <t>Vino Mortiño</t>
+  </si>
+  <si>
+    <t># CORCH 750</t>
+  </si>
+  <si>
+    <t># CORCH 751</t>
+  </si>
+  <si>
+    <t># CORCH 752</t>
+  </si>
+  <si>
+    <t># CORCH 753</t>
+  </si>
+  <si>
+    <t># CORCH 754</t>
+  </si>
+  <si>
+    <t># CORCH 755</t>
+  </si>
+  <si>
+    <t># CORCH 756</t>
+  </si>
+  <si>
+    <t># CORCH 757</t>
+  </si>
+  <si>
+    <t>Etiqueta Frente y Atrás</t>
+  </si>
+  <si>
+    <t>CANTID 750</t>
+  </si>
+  <si>
+    <t>CANTID 751</t>
+  </si>
+  <si>
+    <t>CANTID 752</t>
+  </si>
+  <si>
+    <t>CANTID 753</t>
+  </si>
+  <si>
+    <t>CANTID 754</t>
+  </si>
+  <si>
+    <t>CANTID 755</t>
+  </si>
+  <si>
+    <t>CANTID 756</t>
+  </si>
+  <si>
+    <t>CANTID 757</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +1000,13 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1010,7 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1034,6 +1091,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1065,16 +1124,16 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -1202,6 +1261,264 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pedido" connectionId="17" xr16:uid="{00000000-0016-0000-0D00-00000D000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="9">
+    <queryTableFields count="8">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="Fecha" tableColumnId="2"/>
+      <queryTableField id="3" name="unidad_medida" tableColumnId="3"/>
+      <queryTableField id="4" name="Cantidad" tableColumnId="4"/>
+      <queryTableField id="5" name="presentacion" tableColumnId="5"/>
+      <queryTableField id="6" name="estado" tableColumnId="6"/>
+      <queryTableField id="7" name="Idcliente" tableColumnId="7"/>
+      <queryTableField id="8" name="id_prod_total" tableColumnId="8"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_venta" connectionId="7" xr16:uid="{00000000-0016-0000-0E00-00000E000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="10">
+    <queryTableFields count="9">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="fecha_ven" tableColumnId="2"/>
+      <queryTableField id="3" name="id_tra" tableColumnId="3"/>
+      <queryTableField id="4" name="Idcliente" tableColumnId="4"/>
+      <queryTableField id="5" name="id_prod_total" tableColumnId="5"/>
+      <queryTableField id="6" name="estado_cuenta" tableColumnId="6"/>
+      <queryTableField id="7" name="precio_uni" tableColumnId="7"/>
+      <queryTableField id="8" name="precio_total" tableColumnId="8"/>
+      <queryTableField id="9" name="observaciones_ven" tableColumnId="9"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca inventario_empresa" connectionId="12" xr16:uid="{00000000-0016-0000-0F00-00000F000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="nombre_art_inv" tableColumnId="2"/>
+      <queryTableField id="3" name="descripcion_inv" tableColumnId="3"/>
+      <queryTableField id="4" name="color_inv" tableColumnId="4"/>
+      <queryTableField id="5" name="id_item_inventario" tableColumnId="5"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="+Conectar con nuevo origen de datos" connectionId="1" xr16:uid="{00000000-0016-0000-1000-000010000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="13">
+    <queryTableFields count="12">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="fecha_elaboracion" tableColumnId="2"/>
+      <queryTableField id="3" name="id_tanque" tableColumnId="3"/>
+      <queryTableField id="4" name="cantidad_litros" tableColumnId="4"/>
+      <queryTableField id="5" name="id_uni_medi" tableColumnId="5"/>
+      <queryTableField id="6" name="id_procesos" tableColumnId="6"/>
+      <queryTableField id="7" name="id_brix" tableColumnId="7"/>
+      <queryTableField id="8" name="id_clase_vino" tableColumnId="8"/>
+      <queryTableField id="9" name="temperatura_vino" tableColumnId="9"/>
+      <queryTableField id="10" name="fecha_control" tableColumnId="10"/>
+      <queryTableField id="11" name="id_tra" tableColumnId="11"/>
+      <queryTableField id="12" name="observaciones_area_pro" tableColumnId="12"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_produccion_vino" connectionId="9" xr16:uid="{00000000-0016-0000-1100-000011000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="12">
+    <queryTableFields count="11">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="id_tanque" tableColumnId="2"/>
+      <queryTableField id="3" name="id_procesos" tableColumnId="3"/>
+      <queryTableField id="4" name="id_tra" tableColumnId="4"/>
+      <queryTableField id="5" name="fecha_pro" tableColumnId="5"/>
+      <queryTableField id="6" name="cant_fruta_klg" tableColumnId="6"/>
+      <queryTableField id="7" name="cant_agua_lts" tableColumnId="7"/>
+      <queryTableField id="8" name="cant_azucar_klg" tableColumnId="8"/>
+      <queryTableField id="9" name="cant_levadura_grms" tableColumnId="9"/>
+      <queryTableField id="10" name="numero_procesos" tableColumnId="10"/>
+      <queryTableField id="11" name="observacion_pro" tableColumnId="11"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca socio" connectionId="22" xr16:uid="{00000000-0016-0000-1200-000012000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="8">
+    <queryTableFields count="7">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="cedula" tableColumnId="2"/>
+      <queryTableField id="3" name="Nombres" tableColumnId="3"/>
+      <queryTableField id="4" name="Apellidos" tableColumnId="4"/>
+      <queryTableField id="5" name="Telefono" tableColumnId="5"/>
+      <queryTableField id="6" name="Direccion" tableColumnId="6"/>
+      <queryTableField id="7" name="Email" tableColumnId="7"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca salida_hoja_inventario" connectionId="21" xr16:uid="{00000000-0016-0000-1300-000013000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="10">
+    <queryTableFields count="9">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="fecha_sal" tableColumnId="2"/>
+      <queryTableField id="3" name="saldo_sal" tableColumnId="3"/>
+      <queryTableField id="4" name="ingreso_sal" tableColumnId="4"/>
+      <queryTableField id="5" name="egreso_sal" tableColumnId="5"/>
+      <queryTableField id="6" name="donacion_sal" tableColumnId="6"/>
+      <queryTableField id="7" name="devolucion_sal" tableColumnId="7"/>
+      <queryTableField id="8" name="saldo_total" tableColumnId="8"/>
+      <queryTableField id="9" name="observaciones_sal" tableColumnId="9"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca clase_vino" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="nombre" tableColumnId="2"/>
+      <queryTableField id="3" name="descripcion" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca users" connectionId="25" xr16:uid="{00000000-0016-0000-1400-000014000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="12">
+    <queryTableFields count="11">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="Cedula" tableColumnId="2"/>
+      <queryTableField id="3" name="Nombres" tableColumnId="3"/>
+      <queryTableField id="4" name="Apellidos" tableColumnId="4"/>
+      <queryTableField id="5" name="Telefono" tableColumnId="5"/>
+      <queryTableField id="6" name="Direccion" tableColumnId="6"/>
+      <queryTableField id="7" name="Email" tableColumnId="7"/>
+      <queryTableField id="8" name="user" tableColumnId="8"/>
+      <queryTableField id="9" name="password" tableColumnId="9"/>
+      <queryTableField id="10" name="rol" tableColumnId="10"/>
+      <queryTableField id="11" name="estado" tableColumnId="11"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_ventas" connectionId="11" xr16:uid="{00000000-0016-0000-1500-000015000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="11">
+    <queryTableFields count="10">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="fecha" tableColumnId="2"/>
+      <queryTableField id="3" name="id_tra" tableColumnId="3"/>
+      <queryTableField id="4" name="id_cli" tableColumnId="4"/>
+      <queryTableField id="5" name="cantidad" tableColumnId="5"/>
+      <queryTableField id="6" name="precio_unitario" tableColumnId="6"/>
+      <queryTableField id="7" name="precio_total" tableColumnId="7"/>
+      <queryTableField id="8" name="estado_venta" tableColumnId="8"/>
+      <queryTableField id="9" name="valor_estado" tableColumnId="9"/>
+      <queryTableField id="10" name="observaciones" tableColumnId="10"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca produccion_total" connectionId="19" xr16:uid="{00000000-0016-0000-1600-000016000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="5">
+    <queryTableFields count="4">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="nombre_producto" tableColumnId="2"/>
+      <queryTableField id="3" name="valor_total_producto" tableColumnId="3"/>
+      <queryTableField id="4" name="valor_ultima_suma" tableColumnId="4"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pasteurizacion" connectionId="16" xr16:uid="{00000000-0016-0000-1700-000017000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="valor" tableColumnId="2"/>
+      <queryTableField id="3" name="detalle" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca lote_1" connectionId="14" xr16:uid="{00000000-0016-0000-1800-000018000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="valor" tableColumnId="2"/>
+      <queryTableField id="3" name="detalle" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca procesos" connectionId="18" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="nombre_proceso" tableColumnId="2"/>
+      <queryTableField id="3" name="detalle" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca trabajador" connectionId="23" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="8">
+    <queryTableFields count="7">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="cedula" tableColumnId="2"/>
+      <queryTableField id="3" name="Nombres_tra" tableColumnId="3"/>
+      <queryTableField id="4" name="Apellidos_tra" tableColumnId="4"/>
+      <queryTableField id="5" name="Telefono_tra" tableColumnId="5"/>
+      <queryTableField id="6" name="Direccion_tra" tableColumnId="6"/>
+      <queryTableField id="7" name="Email_tra" tableColumnId="7"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca cliente" connectionId="5" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="10">
+    <queryTableFields count="9">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+      <queryTableField id="2" name="Cedula" tableColumnId="2"/>
+      <queryTableField id="3" name="Nombres" tableColumnId="3"/>
+      <queryTableField id="4" name="Apellidos" tableColumnId="4"/>
+      <queryTableField id="5" name="Telefono" tableColumnId="5"/>
+      <queryTableField id="6" name="Direccion" tableColumnId="6"/>
+      <queryTableField id="7" name="Email" tableColumnId="7"/>
+      <queryTableField id="8" name="user" tableColumnId="8"/>
+      <queryTableField id="9" name="password" tableColumnId="9"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_producto_terminado" connectionId="10" xr16:uid="{00000000-0016-0000-0C00-00000C000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
@@ -1230,265 +1547,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pedido" connectionId="17" xr16:uid="{00000000-0016-0000-0D00-00000D000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="Fecha" tableColumnId="2"/>
-      <queryTableField id="3" name="unidad_medida" tableColumnId="3"/>
-      <queryTableField id="4" name="Cantidad" tableColumnId="4"/>
-      <queryTableField id="5" name="presentacion" tableColumnId="5"/>
-      <queryTableField id="6" name="estado" tableColumnId="6"/>
-      <queryTableField id="7" name="Idcliente" tableColumnId="7"/>
-      <queryTableField id="8" name="id_prod_total" tableColumnId="8"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_venta" connectionId="7" xr16:uid="{00000000-0016-0000-0E00-00000E000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="fecha_ven" tableColumnId="2"/>
-      <queryTableField id="3" name="id_tra" tableColumnId="3"/>
-      <queryTableField id="4" name="Idcliente" tableColumnId="4"/>
-      <queryTableField id="5" name="id_prod_total" tableColumnId="5"/>
-      <queryTableField id="6" name="estado_cuenta" tableColumnId="6"/>
-      <queryTableField id="7" name="precio_uni" tableColumnId="7"/>
-      <queryTableField id="8" name="precio_total" tableColumnId="8"/>
-      <queryTableField id="9" name="observaciones_ven" tableColumnId="9"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca inventario_empresa" connectionId="12" xr16:uid="{00000000-0016-0000-0F00-00000F000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6">
-    <queryTableFields count="5">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="nombre_art_inv" tableColumnId="2"/>
-      <queryTableField id="3" name="descripcion_inv" tableColumnId="3"/>
-      <queryTableField id="4" name="color_inv" tableColumnId="4"/>
-      <queryTableField id="5" name="id_item_inventario" tableColumnId="5"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="+Conectar con nuevo origen de datos" connectionId="1" xr16:uid="{00000000-0016-0000-1000-000010000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13">
-    <queryTableFields count="12">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="fecha_elaboracion" tableColumnId="2"/>
-      <queryTableField id="3" name="id_tanque" tableColumnId="3"/>
-      <queryTableField id="4" name="cantidad_litros" tableColumnId="4"/>
-      <queryTableField id="5" name="id_uni_medi" tableColumnId="5"/>
-      <queryTableField id="6" name="id_procesos" tableColumnId="6"/>
-      <queryTableField id="7" name="id_brix" tableColumnId="7"/>
-      <queryTableField id="8" name="id_clase_vino" tableColumnId="8"/>
-      <queryTableField id="9" name="temperatura_vino" tableColumnId="9"/>
-      <queryTableField id="10" name="fecha_control" tableColumnId="10"/>
-      <queryTableField id="11" name="id_tra" tableColumnId="11"/>
-      <queryTableField id="12" name="observaciones_area_pro" tableColumnId="12"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_produccion_vino" connectionId="9" xr16:uid="{00000000-0016-0000-1100-000011000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12">
-    <queryTableFields count="11">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="id_tanque" tableColumnId="2"/>
-      <queryTableField id="3" name="id_procesos" tableColumnId="3"/>
-      <queryTableField id="4" name="id_tra" tableColumnId="4"/>
-      <queryTableField id="5" name="fecha_pro" tableColumnId="5"/>
-      <queryTableField id="6" name="cant_fruta_klg" tableColumnId="6"/>
-      <queryTableField id="7" name="cant_agua_lts" tableColumnId="7"/>
-      <queryTableField id="8" name="cant_azucar_klg" tableColumnId="8"/>
-      <queryTableField id="9" name="cant_levadura_grms" tableColumnId="9"/>
-      <queryTableField id="10" name="numero_procesos" tableColumnId="10"/>
-      <queryTableField id="11" name="observacion_pro" tableColumnId="11"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca socio" connectionId="22" xr16:uid="{00000000-0016-0000-1200-000012000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="cedula" tableColumnId="2"/>
-      <queryTableField id="3" name="Nombres" tableColumnId="3"/>
-      <queryTableField id="4" name="Apellidos" tableColumnId="4"/>
-      <queryTableField id="5" name="Telefono" tableColumnId="5"/>
-      <queryTableField id="6" name="Direccion" tableColumnId="6"/>
-      <queryTableField id="7" name="Email" tableColumnId="7"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca clase_vino" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="nombre" tableColumnId="2"/>
-      <queryTableField id="3" name="descripcion" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca salida_hoja_inventario" connectionId="21" xr16:uid="{00000000-0016-0000-1300-000013000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="fecha_sal" tableColumnId="2"/>
-      <queryTableField id="3" name="saldo_sal" tableColumnId="3"/>
-      <queryTableField id="4" name="ingreso_sal" tableColumnId="4"/>
-      <queryTableField id="5" name="egreso_sal" tableColumnId="5"/>
-      <queryTableField id="6" name="donacion_sal" tableColumnId="6"/>
-      <queryTableField id="7" name="devolucion_sal" tableColumnId="7"/>
-      <queryTableField id="8" name="saldo_total" tableColumnId="8"/>
-      <queryTableField id="9" name="observaciones_sal" tableColumnId="9"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca users" connectionId="25" xr16:uid="{00000000-0016-0000-1400-000014000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12">
-    <queryTableFields count="11">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="Cedula" tableColumnId="2"/>
-      <queryTableField id="3" name="Nombres" tableColumnId="3"/>
-      <queryTableField id="4" name="Apellidos" tableColumnId="4"/>
-      <queryTableField id="5" name="Telefono" tableColumnId="5"/>
-      <queryTableField id="6" name="Direccion" tableColumnId="6"/>
-      <queryTableField id="7" name="Email" tableColumnId="7"/>
-      <queryTableField id="8" name="user" tableColumnId="8"/>
-      <queryTableField id="9" name="password" tableColumnId="9"/>
-      <queryTableField id="10" name="rol" tableColumnId="10"/>
-      <queryTableField id="11" name="estado" tableColumnId="11"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_ventas" connectionId="11" xr16:uid="{00000000-0016-0000-1500-000015000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11">
-    <queryTableFields count="10">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="fecha" tableColumnId="2"/>
-      <queryTableField id="3" name="id_tra" tableColumnId="3"/>
-      <queryTableField id="4" name="id_cli" tableColumnId="4"/>
-      <queryTableField id="5" name="cantidad" tableColumnId="5"/>
-      <queryTableField id="6" name="precio_unitario" tableColumnId="6"/>
-      <queryTableField id="7" name="precio_total" tableColumnId="7"/>
-      <queryTableField id="8" name="estado_venta" tableColumnId="8"/>
-      <queryTableField id="9" name="valor_estado" tableColumnId="9"/>
-      <queryTableField id="10" name="observaciones" tableColumnId="10"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca produccion_total" connectionId="19" xr16:uid="{00000000-0016-0000-1600-000016000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="nombre_producto" tableColumnId="2"/>
-      <queryTableField id="3" name="valor_total_producto" tableColumnId="3"/>
-      <queryTableField id="4" name="valor_ultima_suma" tableColumnId="4"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pasteurizacion" connectionId="16" xr16:uid="{00000000-0016-0000-1700-000017000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="valor" tableColumnId="2"/>
-      <queryTableField id="3" name="detalle" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca lote_1" connectionId="14" xr16:uid="{00000000-0016-0000-1800-000018000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="valor" tableColumnId="2"/>
-      <queryTableField id="3" name="detalle" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca procesos" connectionId="18" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="nombre_proceso" tableColumnId="2"/>
-      <queryTableField id="3" name="detalle" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca trabajador" connectionId="23" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="cedula" tableColumnId="2"/>
-      <queryTableField id="3" name="Nombres_tra" tableColumnId="3"/>
-      <queryTableField id="4" name="Apellidos_tra" tableColumnId="4"/>
-      <queryTableField id="5" name="Telefono_tra" tableColumnId="5"/>
-      <queryTableField id="6" name="Direccion_tra" tableColumnId="6"/>
-      <queryTableField id="7" name="Email_tra" tableColumnId="7"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca cliente" connectionId="5" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="Cedula" tableColumnId="2"/>
-      <queryTableField id="3" name="Nombres" tableColumnId="3"/>
-      <queryTableField id="4" name="Apellidos" tableColumnId="4"/>
-      <queryTableField id="5" name="Telefono" tableColumnId="5"/>
-      <queryTableField id="6" name="Direccion" tableColumnId="6"/>
-      <queryTableField id="7" name="Email" tableColumnId="7"/>
-      <queryTableField id="8" name="user" tableColumnId="8"/>
-      <queryTableField id="9" name="password" tableColumnId="9"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca item_inventario" connectionId="13" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
@@ -1500,7 +1559,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca catalogo" connectionId="3" xr16:uid="{00000000-0016-0000-0600-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
@@ -1511,26 +1570,13 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca unidad_medida" connectionId="24" xr16:uid="{00000000-0016-0000-0700-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="nombre_umed" tableColumnId="2"/>
       <queryTableField id="3" name="detalle_umed" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca empresa" connectionId="8" xr16:uid="{00000000-0016-0000-0800-000008000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="nombre" tableColumnId="2"/>
-      <queryTableField id="3" name="direccion" tableColumnId="3"/>
-      <queryTableField id="4" name="email" tableColumnId="4"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1567,10 +1613,10 @@
   <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
   </tableColumns>
@@ -1583,7 +1629,7 @@
   <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
@@ -1597,35 +1643,6 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0C00-000011000000}" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0C00-000013000000}" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0C00-000014000000}" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="8">
@@ -1642,7 +1659,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="9">
@@ -1660,7 +1677,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
@@ -1674,7 +1691,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="12">
@@ -1695,7 +1712,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="11">
@@ -1715,7 +1732,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="7">
@@ -1731,19 +1748,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="9">
@@ -1761,7 +1766,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="11">
@@ -1781,7 +1798,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="10">
@@ -1800,7 +1817,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="4">
@@ -1813,9 +1830,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" uniqueName="2" name="valor" queryTableFieldId="2"/>
@@ -1825,7 +1842,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="3">
@@ -1884,6 +1901,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T9" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0C00-000011000000}" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0C00-000013000000}" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0C00-000014000000}" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
@@ -1895,7 +1941,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
@@ -1906,26 +1952,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla_elultimoinca_empresa" displayName="Tabla_elultimoinca_empresa" ref="A1:D5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" uniqueName="3" name="direccion" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" uniqueName="4" name="email" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2231,7 +2264,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,10 +2342,87 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2528,7 +2638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2671,7 +2781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2735,111 +2845,6 @@
       <c r="I2" t="s">
         <v>222</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3460,9 +3465,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3482,6 +3489,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3495,7 +3526,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,11 +3554,17 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>Tabla_elultimoinca_lote_1[id]+1</f>
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3535,54 +3572,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4153,6 +4142,581 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="17">
+        <v>43132</v>
+      </c>
+      <c r="D2">
+        <v>0.72</v>
+      </c>
+      <c r="E2">
+        <v>0.84</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17">
+        <v>43132</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="9">
+        <v>119</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="9">
+        <v>119</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="O2" s="9">
+        <v>119</v>
+      </c>
+      <c r="P2">
+        <v>119</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>119</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43136</v>
+      </c>
+      <c r="D3">
+        <v>0.72</v>
+      </c>
+      <c r="E3">
+        <v>0.84</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>43136</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="J3" s="9">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" s="9">
+        <v>5</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="O3" s="9">
+        <v>5</v>
+      </c>
+      <c r="P3" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43137</v>
+      </c>
+      <c r="D4">
+        <v>0.72</v>
+      </c>
+      <c r="E4">
+        <v>0.84</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>43137</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="9">
+        <v>166</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>258</v>
+      </c>
+      <c r="M4" s="9">
+        <v>166</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="O4" s="9">
+        <v>166</v>
+      </c>
+      <c r="P4" s="9">
+        <v>166</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>166</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="17">
+        <v>43141</v>
+      </c>
+      <c r="D5">
+        <v>0.72</v>
+      </c>
+      <c r="E5">
+        <v>0.84</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>43141</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="9">
+        <v>108</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" s="9">
+        <v>108</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="O5" s="9">
+        <v>108</v>
+      </c>
+      <c r="P5" s="9">
+        <v>108</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>108</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43153</v>
+      </c>
+      <c r="D6">
+        <v>0.72</v>
+      </c>
+      <c r="E6">
+        <v>0.84</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>43153</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="9">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M6" s="9">
+        <v>21</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="O6" s="9">
+        <v>21</v>
+      </c>
+      <c r="P6" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>21</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43154</v>
+      </c>
+      <c r="D7">
+        <v>0.72</v>
+      </c>
+      <c r="E7">
+        <v>0.84</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="17">
+        <v>43154</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="9">
+        <v>113</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M7" s="9">
+        <v>113</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="O7" s="9">
+        <v>113</v>
+      </c>
+      <c r="P7" s="9">
+        <v>113</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>113</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43156</v>
+      </c>
+      <c r="D8">
+        <v>0.72</v>
+      </c>
+      <c r="E8">
+        <v>0.84</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17">
+        <v>43156</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="J8" s="9">
+        <v>48</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M8" s="9">
+        <v>48</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O8" s="9">
+        <v>48</v>
+      </c>
+      <c r="P8" s="9">
+        <v>48</v>
+      </c>
+      <c r="Q8">
+        <v>48</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43159</v>
+      </c>
+      <c r="D9">
+        <v>0.72</v>
+      </c>
+      <c r="E9">
+        <v>0.84</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="17">
+        <v>43159</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="9">
+        <v>233</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M9" s="9">
+        <v>232</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="O9" s="9">
+        <v>229</v>
+      </c>
+      <c r="P9" s="9">
+        <v>233</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9">
+        <f>233-39</f>
+        <v>194</v>
+      </c>
+      <c r="S9" s="9">
+        <v>8</v>
+      </c>
+      <c r="T9" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4230,7 +4794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -4258,7 +4822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4323,84 +4887,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{94D704C7-4DCD-4510-A31C-53856A5B6A3F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="856" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="856" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -46,7 +40,7 @@
     <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$4</definedName>
     <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$10</definedName>
     <definedName name="elultimoinca_compra_mat_pri" localSheetId="12" hidden="1">Compra_Mat_pi!$A$1:$I$2</definedName>
-    <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$2</definedName>
+    <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$11</definedName>
     <definedName name="elultimoinca_empresa" localSheetId="9" hidden="1">Empresa!$A$1:$D$4</definedName>
     <definedName name="elultimoinca_hoja_produccion_vino" localSheetId="17" hidden="1">Hoja_producion_vino!$A$1:$K$2</definedName>
     <definedName name="elultimoinca_hoja_producto_terminado" localSheetId="5" hidden="1">Hoja_producto_terminado!$A$1:$T$9</definedName>
@@ -56,7 +50,7 @@
     <definedName name="elultimoinca_lote_1" localSheetId="24" hidden="1">Lote!$A$1:$C$2</definedName>
     <definedName name="elultimoinca_materia_prima" localSheetId="10" hidden="1">Matria_Prima!$A$1:$D$15</definedName>
     <definedName name="elultimoinca_pasteurizacion" localSheetId="23" hidden="1">Pasteorizacion!$A$1:$C$4</definedName>
-    <definedName name="elultimoinca_pedido" localSheetId="13" hidden="1">Pedido!$A$1:$H$2</definedName>
+    <definedName name="elultimoinca_pedido" localSheetId="13" hidden="1">Pedido!$A$1:$H$10</definedName>
     <definedName name="elultimoinca_procesos" localSheetId="2" hidden="1">Proceso!$A$1:$C$3</definedName>
     <definedName name="elultimoinca_produccion_total" localSheetId="22" hidden="1">Producion_total!$A$1:$D$2</definedName>
     <definedName name="elultimoinca_proveedor" localSheetId="11" hidden="1">Proveedor!$A$1:$G$4</definedName>
@@ -66,97 +60,92 @@
     <definedName name="elultimoinca_unidad_medida" localSheetId="8" hidden="1">Unidad_medida!$A$1:$C$5</definedName>
     <definedName name="elultimoinca_users" localSheetId="20" hidden="1">Usuario!$A$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`area_produccion`"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`brix`"/>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`catalogo`"/>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`clase_vino`"/>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`cliente`"/>
   </connection>
-  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_mat_pri`"/>
   </connection>
-  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_venta`"/>
   </connection>
-  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`empresa`"/>
   </connection>
-  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_produccion_vino`"/>
   </connection>
-  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF09000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_producto_terminado`"/>
   </connection>
-  <connection id="11" xr16:uid="{00000000-0015-0000-FFFF-FFFF0A000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_ventas`"/>
   </connection>
-  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF0B000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`inventario_empresa`"/>
   </connection>
-  <connection id="13" xr16:uid="{00000000-0015-0000-FFFF-FFFF0C000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`item_inventario`"/>
   </connection>
-  <connection id="14" xr16:uid="{00000000-0015-0000-FFFF-FFFF0D000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="14" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`lote`"/>
   </connection>
-  <connection id="15" xr16:uid="{00000000-0015-0000-FFFF-FFFF0E000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="15" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`materia_prima`"/>
   </connection>
-  <connection id="16" xr16:uid="{00000000-0015-0000-FFFF-FFFF0F000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="16" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pasteurizacion`"/>
   </connection>
-  <connection id="17" xr16:uid="{00000000-0015-0000-FFFF-FFFF10000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="17" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pedido`"/>
   </connection>
-  <connection id="18" xr16:uid="{00000000-0015-0000-FFFF-FFFF11000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="18" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`procesos`"/>
   </connection>
-  <connection id="19" xr16:uid="{00000000-0015-0000-FFFF-FFFF12000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="19" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`produccion_total`"/>
   </connection>
-  <connection id="20" xr16:uid="{00000000-0015-0000-FFFF-FFFF13000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="20" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`proveedor`"/>
   </connection>
-  <connection id="21" xr16:uid="{00000000-0015-0000-FFFF-FFFF14000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="21" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`salida_hoja_inventario`"/>
   </connection>
-  <connection id="22" xr16:uid="{00000000-0015-0000-FFFF-FFFF15000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="22" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`socio`"/>
   </connection>
-  <connection id="23" xr16:uid="{00000000-0015-0000-FFFF-FFFF16000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="23" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`trabajador`"/>
   </connection>
-  <connection id="24" xr16:uid="{00000000-0015-0000-FFFF-FFFF17000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="24" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`unidad_medida`"/>
   </connection>
-  <connection id="25" xr16:uid="{00000000-0015-0000-FFFF-FFFF18000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="25" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`users`"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="267">
   <si>
     <t>id</t>
   </si>
@@ -962,7 +951,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1093,6 +1082,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1186,7 +1177,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
@@ -1195,15 +1186,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca brix" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca brix" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1214,7 +1202,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca materia_prima" connectionId="15" xr16:uid="{00000000-0016-0000-0900-000009000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca materia_prima" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1227,7 +1215,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca proveedor" connectionId="20" xr16:uid="{00000000-0016-0000-0A00-00000A000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca proveedor" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1243,7 +1231,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_mat_pri" connectionId="6" xr16:uid="{00000000-0016-0000-0B00-00000B000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_mat_pri" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1261,7 +1249,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pedido" connectionId="17" xr16:uid="{00000000-0016-0000-0D00-00000D000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pedido" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1278,7 +1266,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_venta" connectionId="7" xr16:uid="{00000000-0016-0000-0E00-00000E000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_venta" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1296,7 +1284,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca inventario_empresa" connectionId="12" xr16:uid="{00000000-0016-0000-0F00-00000F000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca inventario_empresa" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1310,7 +1298,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="+Conectar con nuevo origen de datos" connectionId="1" xr16:uid="{00000000-0016-0000-1000-000010000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="+Conectar con nuevo origen de datos" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
     <queryTableFields count="12">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1331,7 +1319,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_produccion_vino" connectionId="9" xr16:uid="{00000000-0016-0000-1100-000011000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_produccion_vino" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1351,7 +1339,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca socio" connectionId="22" xr16:uid="{00000000-0016-0000-1200-000012000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca socio" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1367,7 +1355,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca salida_hoja_inventario" connectionId="21" xr16:uid="{00000000-0016-0000-1300-000013000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca salida_hoja_inventario" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1385,7 +1373,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca clase_vino" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca clase_vino" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1397,7 +1385,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca users" connectionId="25" xr16:uid="{00000000-0016-0000-1400-000014000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca users" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1417,7 +1405,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_ventas" connectionId="11" xr16:uid="{00000000-0016-0000-1500-000015000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_ventas" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1436,7 +1424,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca produccion_total" connectionId="19" xr16:uid="{00000000-0016-0000-1600-000016000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca produccion_total" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1449,7 +1437,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pasteurizacion" connectionId="16" xr16:uid="{00000000-0016-0000-1700-000017000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pasteurizacion" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1461,7 +1449,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca lote_1" connectionId="14" xr16:uid="{00000000-0016-0000-1800-000018000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca lote_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1473,7 +1461,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca procesos" connectionId="18" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca procesos" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1485,7 +1473,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca trabajador" connectionId="23" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca trabajador" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1501,7 +1489,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca cliente" connectionId="5" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca cliente" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1519,7 +1507,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_producto_terminado" connectionId="10" xr16:uid="{00000000-0016-0000-0C00-00000C000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_producto_terminado" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1548,7 +1536,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca item_inventario" connectionId="13" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca item_inventario" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1560,7 +1548,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca catalogo" connectionId="3" xr16:uid="{00000000-0016-0000-0600-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca catalogo" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1571,7 +1559,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca unidad_medida" connectionId="24" xr16:uid="{00000000-0016-0000-0700-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca unidad_medida" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1583,382 +1571,382 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
+    <tableColumn id="1" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>A3+1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="13"/>
+    <tableColumn id="3" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D15" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D15"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" uniqueName="4" name="contidad" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="contidad" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" uniqueName="6" name="estado" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="estado" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I11"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0E00-000009000000}" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1100-00000A000000}" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1100-00000B000000}" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" uniqueName="9" name="password" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" uniqueName="10" name="rol" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1400-00000B000000}" uniqueName="11" name="estado" queryTableFieldId="11"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="rol" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="estado" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" uniqueName="7" name="Email_tra" queryTableFieldId="7" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email_tra" queryTableFieldId="7" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I10"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T9" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T9"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0C00-000011000000}" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0C00-000013000000}" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0C00-000014000000}" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
+    <tableColumn id="13" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
+    <tableColumn id="14" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
+    <tableColumn id="15" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
+    <tableColumn id="16" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
+    <tableColumn id="17" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
+    <tableColumn id="18" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
+    <tableColumn id="19" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
+    <tableColumn id="20" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2007,7 +1995,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2059,7 +2047,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2253,14 +2241,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2342,7 +2330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2419,7 +2407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2639,7 +2627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2769,9 +2757,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{740AE232-EC2F-46D5-94A3-0EFD252446E2}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{4AA0BD44-731B-408C-80DD-81B01E3DC353}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{5368A2A5-3D61-4569-A3EB-7219B471C95E}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2782,11 +2770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,18 +2843,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -2899,7 +2889,191 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>43132</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="9">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <v>43136</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>43137</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="9">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>43141</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="9">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>43153</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="9">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>43154</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="9">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>43156</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="9">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>43159</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="9">
+        <v>233</v>
+      </c>
+      <c r="E9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2910,10 +3084,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2958,7 +3134,140 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>43146</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>43149</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>43151</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>43152</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>43153</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>43153</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>43154</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,7 +3278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3008,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3080,7 +3389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3147,7 +3456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3194,7 +3503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3244,7 +3553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3302,7 +3611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3365,7 +3674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3428,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3464,11 +3773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,7 +3831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3626,7 +3935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3796,14 +4105,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3813,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4125,14 +4434,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{5917A18E-9C0C-48B8-9548-776C5B29D413}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{B8300018-6A8F-4B99-9522-CC00FA7AFC8A}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{75C864F9-2E17-4222-B63B-D129E776C669}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{2554BC5D-0217-4B15-A8F0-64D15F26FD0C}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{41A8E423-7A9A-4CA5-B67C-E363C981BD5F}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{138BF0FF-0DB2-450C-B4A8-2C9F0C570FC6}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{5AD68DD3-840C-4A4D-98DC-8EFB0884335F}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{B962FFD2-5AA2-4DF9-8EB8-BFF635B36BA2}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4142,11 +4451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4717,7 +5026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4795,7 +5104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4823,11 +5132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="856" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="856" firstSheet="13" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="elultimoinca_empresa" localSheetId="9" hidden="1">Empresa!$A$1:$D$4</definedName>
     <definedName name="elultimoinca_hoja_produccion_vino" localSheetId="17" hidden="1">Hoja_producion_vino!$A$1:$K$9</definedName>
     <definedName name="elultimoinca_hoja_producto_terminado" localSheetId="5" hidden="1">Hoja_producto_terminado!$A$1:$T$9</definedName>
-    <definedName name="elultimoinca_hoja_ventas" localSheetId="21" hidden="1">Hoja_venta!$A$1:$J$2</definedName>
+    <definedName name="elultimoinca_hoja_ventas" localSheetId="21" hidden="1">Hoja_venta!$A$1:$J$50</definedName>
     <definedName name="elultimoinca_inventario_empresa" localSheetId="15" hidden="1">Inventario_empresa!$A$1:$E$5</definedName>
     <definedName name="elultimoinca_item_inventario" localSheetId="6" hidden="1">Item_inventario!$A$1:$C$6</definedName>
     <definedName name="elultimoinca_lote_1" localSheetId="24" hidden="1">Lote!$A$1:$C$2</definedName>
@@ -59,7 +59,7 @@
     <definedName name="elultimoinca_procesos" localSheetId="2" hidden="1">Proceso!$A$1:$C$3</definedName>
     <definedName name="elultimoinca_produccion_total" localSheetId="22" hidden="1">Producion_total!$A$1:$D$2</definedName>
     <definedName name="elultimoinca_proveedor" localSheetId="11" hidden="1">Proveedor!$A$1:$G$4</definedName>
-    <definedName name="elultimoinca_salida_hoja_inventario" localSheetId="19" hidden="1">Salida_hoja_inventario!$A$1:$I$2</definedName>
+    <definedName name="elultimoinca_salida_hoja_inventario" localSheetId="19" hidden="1">Salida_hoja_inventario!$A$1:$I$29</definedName>
     <definedName name="elultimoinca_socio" localSheetId="18" hidden="1">Socio!$A$1:$G$2</definedName>
     <definedName name="elultimoinca_trabajador" localSheetId="3" hidden="1">Trabajador!$A$1:$G$9</definedName>
     <definedName name="elultimoinca_unidad_medida" localSheetId="8" hidden="1">Unidad_medida!$A$1:$C$5</definedName>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="323">
   <si>
     <t>id</t>
   </si>
@@ -996,6 +996,129 @@
   </si>
   <si>
     <t>ninguna</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>BOTELLAS</t>
+  </si>
+  <si>
+    <t>VENDIDOS Y DONADOS</t>
+  </si>
+  <si>
+    <t>SALDO MES DE FEBRERO</t>
+  </si>
+  <si>
+    <t>JAK</t>
+  </si>
+  <si>
+    <t>ENCUESTA</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>MUNICIPO</t>
+  </si>
+  <si>
+    <t>ANITA</t>
+  </si>
+  <si>
+    <t>TIENDA DE MUJERES</t>
+  </si>
+  <si>
+    <t>BODEGA</t>
+  </si>
+  <si>
+    <t>CHACON</t>
+  </si>
+  <si>
+    <t>CRIOLLO MARCO</t>
+  </si>
+  <si>
+    <t>OLMEDO SIGCHA</t>
+  </si>
+  <si>
+    <t>NOBOA</t>
+  </si>
+  <si>
+    <t>FREDY PACHECO</t>
+  </si>
+  <si>
+    <t>LUIS BAUTISTA</t>
+  </si>
+  <si>
+    <t>DELIA CAIZA</t>
+  </si>
+  <si>
+    <t>JADIN</t>
+  </si>
+  <si>
+    <t>ESTALIN OÑA</t>
+  </si>
+  <si>
+    <t>NARCISA ESPIN</t>
+  </si>
+  <si>
+    <t>MARCELO CRUZ</t>
+  </si>
+  <si>
+    <t>ALVARO MELO</t>
+  </si>
+  <si>
+    <t>ALBERTO GUYTA</t>
+  </si>
+  <si>
+    <t>ALCIDES GUANOQUI</t>
+  </si>
+  <si>
+    <t>MERCDES</t>
+  </si>
+  <si>
+    <t>CELIA CHICAIZA</t>
+  </si>
+  <si>
+    <t>ALCIDES CATOTA</t>
+  </si>
+  <si>
+    <t>CAMARI QUITO</t>
+  </si>
+  <si>
+    <t>ING CONCEJO</t>
+  </si>
+  <si>
+    <t>ING FRANCISCO</t>
+  </si>
+  <si>
+    <t>SAN JOSE</t>
+  </si>
+  <si>
+    <t>MOL</t>
+  </si>
+  <si>
+    <t>PAGADO</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>ERAN 24</t>
+  </si>
+  <si>
+    <t>250ML</t>
+  </si>
+  <si>
+    <t>ING CATOTA</t>
+  </si>
+  <si>
+    <t>OBSEVACIONES</t>
+  </si>
+  <si>
+    <t>NO SE TOMA EN CUENTA UNA VOTELLA PARA EL PADRE</t>
+  </si>
+  <si>
+    <t>TOTAL BOTELLAS</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1067,8 +1190,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1104,12 +1251,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1138,17 +1368,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
@@ -1232,8 +1486,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1634,7 +1888,7 @@
     <tableColumn id="1" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>A3+1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="13"/>
+    <tableColumn id="3" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1658,10 +1912,10 @@
   <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="10"/>
     <tableColumn id="3" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="5" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="9"/>
     <tableColumn id="6" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
     <tableColumn id="7" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
   </tableColumns>
@@ -1674,7 +1928,7 @@
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="8"/>
     <tableColumn id="3" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
@@ -1692,7 +1946,7 @@
   <autoFilter ref="A1:H10"/>
   <tableColumns count="8">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="2" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
@@ -1709,7 +1963,7 @@
   <autoFilter ref="A1:I11"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
@@ -1741,7 +1995,7 @@
   <autoFilter ref="A1:L9"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
@@ -1749,7 +2003,7 @@
     <tableColumn id="7" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
     <tableColumn id="8" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
     <tableColumn id="9" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="10" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="4"/>
     <tableColumn id="11" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
     <tableColumn id="12" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
@@ -1765,7 +2019,7 @@
     <tableColumn id="2" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
     <tableColumn id="3" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="5" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="3"/>
     <tableColumn id="6" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
     <tableColumn id="7" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
     <tableColumn id="8" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
@@ -1794,11 +2048,11 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I29" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I29"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
@@ -1844,10 +2098,10 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J50" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J50"/>
   <tableColumns count="10">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
@@ -1933,7 +2187,7 @@
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="13"/>
     <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
     <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
@@ -1951,11 +2205,11 @@
   <tableColumns count="20">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="3" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="12"/>
     <tableColumn id="4" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
     <tableColumn id="6" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="7" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="11"/>
     <tableColumn id="8" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
     <tableColumn id="9" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
     <tableColumn id="10" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
@@ -3448,7 +3702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4218,9 +4472,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4238,13 +4494,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E1" t="s">
@@ -4264,7 +4520,530 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>43132</v>
+      </c>
+      <c r="C2" s="9">
+        <v>47</v>
+      </c>
+      <c r="D2" s="9">
+        <v>119</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <v>43133</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
+        <v>150</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>43134</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>43135</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>43136</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>43137</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>166</v>
+      </c>
+      <c r="E7">
+        <v>159</v>
+      </c>
+      <c r="H7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>43138</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>43139</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <v>43140</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>43141</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <v>108</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17">
+        <v>43142</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17">
+        <v>43143</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17">
+        <v>43144</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17">
+        <v>43145</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17">
+        <v>43146</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17">
+        <v>43147</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17">
+        <v>43148</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17">
+        <v>43149</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17">
+        <v>43150</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17">
+        <v>43151</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17">
+        <v>43152</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17">
+        <v>43153</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17">
+        <v>43154</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9">
+        <v>113</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17">
+        <v>43155</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>96</v>
+      </c>
+      <c r="H25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17">
+        <v>43156</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26">
+        <v>85</v>
+      </c>
+      <c r="H26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17">
+        <v>43157</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17">
+        <v>43158</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17">
+        <v>43159</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9">
+        <v>233</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="25">
+        <f>SUM(D2:D29)+0</f>
+        <v>813</v>
+      </c>
+      <c r="E30" s="26">
+        <f>SUM(E2:E29)</f>
+        <v>781</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26">
+        <f>SUM(G19:G29)</f>
+        <v>3</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="30">
+        <f>E30+G30</f>
+        <v>784</v>
+      </c>
+      <c r="H31" s="31">
+        <v>176</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4278,7 +5057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4339,22 +5120,25 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -4390,7 +5174,1505 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43132</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43132</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="0">E3*F3</f>
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43132</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43133</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>315</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43134</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43134</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="H7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43134</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43134</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43134</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43136</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43136</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>315</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43137</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43137</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43137</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>316</v>
+      </c>
+      <c r="I15">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43138</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>316</v>
+      </c>
+      <c r="I16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43138</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>316</v>
+      </c>
+      <c r="I17">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43138</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>316</v>
+      </c>
+      <c r="I18">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43139</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G20" si="1">E19*F19</f>
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43139</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>315</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43140</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>316</v>
+      </c>
+      <c r="I21">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43140</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43141</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>5.85</v>
+      </c>
+      <c r="G23">
+        <f>E23*F23</f>
+        <v>76.05</v>
+      </c>
+      <c r="H23" t="s">
+        <v>315</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43141</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <f>E24*F24</f>
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>315</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43142</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G29" si="2">E25*F25</f>
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>315</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43142</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43143</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>315</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43143</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>315</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43144</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>315</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43145</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>316</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43146</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43146</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>316</v>
+      </c>
+      <c r="I32">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43147</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <f>E33*F33</f>
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>315</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43147</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34" si="3">E34*F34</f>
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
+        <v>315</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="33">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43149</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>316</v>
+      </c>
+      <c r="I35">
+        <v>72</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43149</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36">
+        <v>24</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43149</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="4">E37*F37</f>
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>315</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43153</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38">
+        <v>24</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>316</v>
+      </c>
+      <c r="I38">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43155</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>48</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>316</v>
+      </c>
+      <c r="I39">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="33">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43155</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>316</v>
+      </c>
+      <c r="I40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="33">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43155</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41">
+        <v>24</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>316</v>
+      </c>
+      <c r="I41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43155</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>308</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <f>E42*F42</f>
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="33">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43156</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>309</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <f>E43*F43</f>
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>315</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="33">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43156</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>316</v>
+      </c>
+      <c r="I44">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43156</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>310</v>
+      </c>
+      <c r="E45">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>316</v>
+      </c>
+      <c r="I45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43157</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>311</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G47" si="5">E46*F46</f>
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>315</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="33">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43157</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>312</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="H47" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="33">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43157</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>316</v>
+      </c>
+      <c r="I48">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="33">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43159</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>288</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>316</v>
+      </c>
+      <c r="I49">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="33">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43159</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>314</v>
+      </c>
+      <c r="E50">
+        <v>36</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>316</v>
+      </c>
+      <c r="I50">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="35">
+        <f>SUM(E2:E50)</f>
+        <v>681</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="36">
+        <f>SUM(G2:G50)</f>
+        <v>838.05</v>
+      </c>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36">
+        <f>SUM(I2:I50)</f>
+        <v>3246</v>
+      </c>
+      <c r="J51" s="37"/>
+      <c r="K51" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="L51" s="34">
+        <f>E51+J51</f>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>320</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38">
+        <f>G51+I51</f>
+        <v>4084.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4404,7 +6686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4603,7 +6885,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="856" firstSheet="13" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="856" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="324">
   <si>
     <t>id</t>
   </si>
@@ -1119,6 +1119,9 @@
   </si>
   <si>
     <t>TOTAL BOTELLAS</t>
+  </si>
+  <si>
+    <t>Vino</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,32 +1193,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1252,54 +1231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1308,38 +1239,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1368,23 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4472,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4774,7 +4663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4790,7 +4679,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4806,7 +4695,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4825,7 +4714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4841,7 +4730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4857,7 +4746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4873,7 +4762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4891,7 +4780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4909,7 +4798,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4927,7 +4816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4943,7 +4832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4959,7 +4848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4978,7 +4867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4999,51 +4888,43 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="23" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" t="s">
         <v>283</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30">
         <f>SUM(D2:D29)+0</f>
         <v>813</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30">
         <f>SUM(E2:E29)</f>
         <v>781</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26">
+      <c r="G30">
         <f>SUM(G19:G29)</f>
         <v>3</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="29" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" t="s">
         <v>284</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="30">
+      <c r="G31">
         <f>E30+G30</f>
         <v>784</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31">
         <v>176</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" t="s">
         <v>285</v>
       </c>
-      <c r="J31" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5123,7 +5004,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6006,7 +5887,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="33">
+      <c r="A30" s="22">
         <v>43</v>
       </c>
       <c r="B30" s="1">
@@ -6035,7 +5916,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="33">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -6064,7 +5945,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -6093,7 +5974,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
+      <c r="A33" s="22">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -6123,7 +6004,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="33">
+      <c r="A34" s="22">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -6153,7 +6034,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="33">
+      <c r="A35" s="22">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -6185,7 +6066,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="33">
+      <c r="A36" s="22">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -6214,7 +6095,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="33">
+      <c r="A37" s="22">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -6244,7 +6125,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="33">
+      <c r="A38" s="22">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -6273,7 +6154,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="33">
+      <c r="A39" s="22">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -6302,7 +6183,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="33">
+      <c r="A40" s="22">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -6331,7 +6212,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="33">
+      <c r="A41" s="22">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -6360,7 +6241,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="33">
+      <c r="A42" s="22">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -6390,7 +6271,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="33">
+      <c r="A43" s="22">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -6420,7 +6301,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="33">
+      <c r="A44" s="22">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -6449,7 +6330,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="33">
+      <c r="A45" s="22">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -6478,7 +6359,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="33">
+      <c r="A46" s="22">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -6508,7 +6389,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="33">
+      <c r="A47" s="22">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -6538,7 +6419,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="33">
+      <c r="A48" s="22">
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -6570,7 +6451,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="33">
+      <c r="A49" s="22">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -6598,8 +6479,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="33">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="22">
         <v>49</v>
       </c>
       <c r="B50" s="1">
@@ -6627,31 +6508,26 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="34" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>282</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="35">
+      <c r="E51">
         <f>SUM(E2:E50)</f>
         <v>681</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="36">
+      <c r="G51">
         <f>SUM(G2:G50)</f>
         <v>838.05</v>
       </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36">
+      <c r="I51">
         <f>SUM(I2:I50)</f>
         <v>3246</v>
       </c>
-      <c r="J51" s="37"/>
-      <c r="K51" s="34" t="s">
+      <c r="K51" t="s">
         <v>322</v>
       </c>
-      <c r="L51" s="34">
+      <c r="L51">
         <f>E51+J51</f>
         <v>681</v>
       </c>
@@ -6660,11 +6536,10 @@
       <c r="B52" t="s">
         <v>320</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" t="s">
         <v>282</v>
       </c>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38">
+      <c r="I52">
         <f>G51+I51</f>
         <v>4084.05</v>
       </c>
@@ -6684,9 +6559,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6708,6 +6585,20 @@
       </c>
       <c r="D1" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2">
+        <v>960</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="856" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="856" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <sheet name="Lote" sheetId="26" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="Conectar_con_nuevo_origen_de_datos" localSheetId="16" hidden="1">Area_produccion!$A$1:$L$9</definedName>
+    <definedName name="Conectar_con_nuevo_origen_de_datos" localSheetId="16" hidden="1">Area_produccion!$A$1:$L$10</definedName>
     <definedName name="elultimoinca_brix" localSheetId="0" hidden="1">brix!$A$1:$B$3</definedName>
     <definedName name="elultimoinca_catalogo" localSheetId="7" hidden="1">Catalogo!$A$1:$B$2</definedName>
     <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$4</definedName>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="281">
   <si>
     <t>id</t>
   </si>
@@ -986,16 +986,13 @@
     <t>concho de vino</t>
   </si>
   <si>
-    <t>fria</t>
-  </si>
-  <si>
-    <t>caliente</t>
-  </si>
-  <si>
-    <t>templada</t>
-  </si>
-  <si>
-    <t>ninguna</t>
+    <t>FILTRAR</t>
+  </si>
+  <si>
+    <t>FEILTRAR</t>
+  </si>
+  <si>
+    <t>NINGUNA</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1734,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L10"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="4"/>
@@ -3449,7 +3446,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3511,13 +3508,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>42867</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>51</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -3531,17 +3528,17 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>278</v>
+      <c r="I2">
+        <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>43273</v>
+        <v>43151</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3549,13 +3546,13 @@
         <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>42868</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="E3">
         <v>32</v>
@@ -3569,17 +3566,17 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>279</v>
+      <c r="I3">
+        <v>20</v>
       </c>
       <c r="J3" s="1">
-        <v>43274</v>
+        <v>43151</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3587,13 +3584,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>42869</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>53</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>33</v>
@@ -3601,17 +3598,17 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
-        <v>278</v>
+      <c r="I4">
+        <v>20</v>
       </c>
       <c r="J4" s="1">
-        <v>43275</v>
+        <v>43151</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3619,13 +3616,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>42870</v>
+        <v>43125</v>
       </c>
       <c r="C5">
         <v>54</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E5">
         <v>34</v>
@@ -3633,17 +3630,17 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
-        <v>280</v>
+      <c r="I5">
+        <v>20</v>
       </c>
       <c r="J5" s="1">
-        <v>43276</v>
+        <v>43151</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3651,13 +3648,13 @@
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>42871</v>
+        <v>43140</v>
       </c>
       <c r="C6">
         <v>55</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>220</v>
       </c>
       <c r="E6">
         <v>35</v>
@@ -3665,17 +3662,17 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>278</v>
+      <c r="I6">
+        <v>20</v>
       </c>
       <c r="J6" s="1">
-        <v>43277</v>
+        <v>43151</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3683,13 +3680,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="1">
-        <v>42872</v>
+        <v>43131</v>
       </c>
       <c r="C7">
         <v>56</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="E7">
         <v>36</v>
@@ -3697,17 +3694,17 @@
       <c r="G7">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>279</v>
+      <c r="I7">
+        <v>20</v>
       </c>
       <c r="J7" s="1">
-        <v>43278</v>
+        <v>43151</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3715,28 +3712,28 @@
         <v>26</v>
       </c>
       <c r="B8" s="1">
-        <v>42873</v>
+        <v>43144</v>
       </c>
       <c r="C8">
         <v>57</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="E8">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
-        <v>278</v>
+      <c r="I8">
+        <v>20</v>
       </c>
       <c r="J8" s="1">
-        <v>43279</v>
+        <v>43151</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3744,33 +3741,55 @@
         <v>26</v>
       </c>
       <c r="B9" s="1">
-        <v>42874</v>
+        <v>43124</v>
       </c>
       <c r="C9">
         <v>58</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="E9">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
-        <v>280</v>
+      <c r="I9">
+        <v>20</v>
       </c>
       <c r="J9" s="1">
-        <v>43280</v>
+        <v>43151</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="J10" s="21"/>
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10" s="21">
+        <v>43117</v>
+      </c>
+      <c r="C10">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>220</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>43151</v>
+      </c>
+      <c r="L10" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto_Vino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{463B843E-6425-4B9F-B80C-9667AD5B0E08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="856" firstSheet="15" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="856" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -43,7 +44,7 @@
     <definedName name="elultimoinca_brix" localSheetId="0" hidden="1">brix!$A$1:$B$3</definedName>
     <definedName name="elultimoinca_catalogo" localSheetId="7" hidden="1">Catalogo!$A$1:$B$2</definedName>
     <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$4</definedName>
-    <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$10</definedName>
+    <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$50</definedName>
     <definedName name="elultimoinca_compra_mat_pri" localSheetId="12" hidden="1">Compra_Mat_pi!$A$1:$I$2</definedName>
     <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$11</definedName>
     <definedName name="elultimoinca_empresa" localSheetId="9" hidden="1">Empresa!$A$1:$D$4</definedName>
@@ -65,92 +66,92 @@
     <definedName name="elultimoinca_unidad_medida" localSheetId="8" hidden="1">Unidad_medida!$A$1:$C$5</definedName>
     <definedName name="elultimoinca_users" localSheetId="20" hidden="1">Usuario!$A$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`area_produccion`"/>
   </connection>
-  <connection id="2" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`brix`"/>
   </connection>
-  <connection id="3" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`catalogo`"/>
   </connection>
-  <connection id="4" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`clase_vino`"/>
   </connection>
-  <connection id="5" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`cliente`"/>
   </connection>
-  <connection id="6" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_mat_pri`"/>
   </connection>
-  <connection id="7" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_venta`"/>
   </connection>
-  <connection id="8" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`empresa`"/>
   </connection>
-  <connection id="9" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_produccion_vino`"/>
   </connection>
-  <connection id="10" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF09000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_producto_terminado`"/>
   </connection>
-  <connection id="11" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" xr16:uid="{00000000-0015-0000-FFFF-FFFF0A000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_ventas`"/>
   </connection>
-  <connection id="12" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF0B000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`inventario_empresa`"/>
   </connection>
-  <connection id="13" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" xr16:uid="{00000000-0015-0000-FFFF-FFFF0C000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`item_inventario`"/>
   </connection>
-  <connection id="14" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="14" xr16:uid="{00000000-0015-0000-FFFF-FFFF0D000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`lote`"/>
   </connection>
-  <connection id="15" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="15" xr16:uid="{00000000-0015-0000-FFFF-FFFF0E000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`materia_prima`"/>
   </connection>
-  <connection id="16" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="16" xr16:uid="{00000000-0015-0000-FFFF-FFFF0F000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pasteurizacion`"/>
   </connection>
-  <connection id="17" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="17" xr16:uid="{00000000-0015-0000-FFFF-FFFF10000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pedido`"/>
   </connection>
-  <connection id="18" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="18" xr16:uid="{00000000-0015-0000-FFFF-FFFF11000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`procesos`"/>
   </connection>
-  <connection id="19" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="19" xr16:uid="{00000000-0015-0000-FFFF-FFFF12000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`produccion_total`"/>
   </connection>
-  <connection id="20" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="20" xr16:uid="{00000000-0015-0000-FFFF-FFFF13000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`proveedor`"/>
   </connection>
-  <connection id="21" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="21" xr16:uid="{00000000-0015-0000-FFFF-FFFF14000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`salida_hoja_inventario`"/>
   </connection>
-  <connection id="22" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="22" xr16:uid="{00000000-0015-0000-FFFF-FFFF15000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`socio`"/>
   </connection>
-  <connection id="23" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="23" xr16:uid="{00000000-0015-0000-FFFF-FFFF16000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`trabajador`"/>
   </connection>
-  <connection id="24" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="24" xr16:uid="{00000000-0015-0000-FFFF-FFFF17000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`unidad_medida`"/>
   </connection>
-  <connection id="25" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="25" xr16:uid="{00000000-0015-0000-FFFF-FFFF18000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`users`"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -551,186 +552,6 @@
     <t>VILLAMARIM</t>
   </si>
   <si>
-    <t xml:space="preserve">ALCALDE </t>
-  </si>
-  <si>
-    <t>ARAJUNO</t>
-  </si>
-  <si>
-    <t>DE ANTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFRAIN </t>
-  </si>
-  <si>
-    <t>CALAOUCHO</t>
-  </si>
-  <si>
-    <t>AlMACHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HILDA </t>
-  </si>
-  <si>
-    <t>DIAS</t>
-  </si>
-  <si>
-    <t>MIRIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALCALDE  </t>
-  </si>
-  <si>
-    <t>SIGCHOS</t>
-  </si>
-  <si>
-    <t>PASTUÑA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUZMILA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTHA </t>
-  </si>
-  <si>
-    <t>AYALA</t>
-  </si>
-  <si>
-    <t>0503870735</t>
-  </si>
-  <si>
-    <t>0507035942</t>
-  </si>
-  <si>
-    <t>0507894521</t>
-  </si>
-  <si>
-    <t>0508070745</t>
-  </si>
-  <si>
-    <t>0507896342</t>
-  </si>
-  <si>
-    <t>0503870759</t>
-  </si>
-  <si>
-    <t>0507841562</t>
-  </si>
-  <si>
-    <t>0504896721</t>
-  </si>
-  <si>
-    <t>0502478963</t>
-  </si>
-  <si>
-    <t>0897645867</t>
-  </si>
-  <si>
-    <t>0985774563</t>
-  </si>
-  <si>
-    <t>0986547125</t>
-  </si>
-  <si>
-    <t>0984576212</t>
-  </si>
-  <si>
-    <t>0986571256</t>
-  </si>
-  <si>
-    <t>0986574523</t>
-  </si>
-  <si>
-    <t>0963547852</t>
-  </si>
-  <si>
-    <t>0932547965</t>
-  </si>
-  <si>
-    <t>0968745214</t>
-  </si>
-  <si>
-    <t>Loja</t>
-  </si>
-  <si>
-    <t>Quinticusi</t>
-  </si>
-  <si>
-    <t>Machala</t>
-  </si>
-  <si>
-    <t>Latacunga</t>
-  </si>
-  <si>
-    <t>Salcedo</t>
-  </si>
-  <si>
-    <t>Ambato</t>
-  </si>
-  <si>
-    <t>Quito</t>
-  </si>
-  <si>
-    <t>Machachi</t>
-  </si>
-  <si>
-    <t>Laso</t>
-  </si>
-  <si>
-    <t>AlcaldeArajuno@gmail.com</t>
-  </si>
-  <si>
-    <t>EfrainCalaoucho@gmail.com</t>
-  </si>
-  <si>
-    <t>AlcaldedeAnte@hotmail.com</t>
-  </si>
-  <si>
-    <t>policiaAlamche@gmailcom</t>
-  </si>
-  <si>
-    <t>HildaDias@hotmail.com</t>
-  </si>
-  <si>
-    <t>MirianVillamarin@hotmail.com</t>
-  </si>
-  <si>
-    <t>luzmilapastuña@gmail.com</t>
-  </si>
-  <si>
-    <t>AlcaldeSigchos@hotmail.com</t>
-  </si>
-  <si>
-    <t>MarthaAyala@hotmail.com</t>
-  </si>
-  <si>
-    <t>Al12</t>
-  </si>
-  <si>
-    <t>Ef32</t>
-  </si>
-  <si>
-    <t>po42</t>
-  </si>
-  <si>
-    <t>Hi52</t>
-  </si>
-  <si>
-    <t>Mi62</t>
-  </si>
-  <si>
-    <t>Al72</t>
-  </si>
-  <si>
-    <t>lu82</t>
-  </si>
-  <si>
-    <t>Ma92</t>
-  </si>
-  <si>
-    <t>An24</t>
-  </si>
-  <si>
     <t>Corcho</t>
   </si>
   <si>
@@ -1122,12 +943,33 @@
   </si>
   <si>
     <t>Vino</t>
+  </si>
+  <si>
+    <t>ALCALDE ARAJUNO</t>
+  </si>
+  <si>
+    <t>ALCALDE DE ANTI</t>
+  </si>
+  <si>
+    <t>EFRAIN CALAOUCHO</t>
+  </si>
+  <si>
+    <t>HILDA DIAS</t>
+  </si>
+  <si>
+    <t>ALCALDE  SIGCHOS</t>
+  </si>
+  <si>
+    <t>LUZMILA PASTUÑA</t>
+  </si>
+  <si>
+    <t>MARTHA AYALA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -1180,7 +1022,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,6 +1032,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,9 +1105,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1274,6 +1120,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1374,7 +1222,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
     </tableStyle>
@@ -1391,7 +1239,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca brix" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca brix" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1402,7 +1250,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca materia_prima" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca materia_prima" connectionId="15" xr16:uid="{00000000-0016-0000-0A00-000009000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1415,7 +1263,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca proveedor" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca proveedor" connectionId="20" xr16:uid="{00000000-0016-0000-0B00-00000A000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1431,7 +1279,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_mat_pri" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_mat_pri" connectionId="6" xr16:uid="{00000000-0016-0000-0C00-00000B000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1449,7 +1297,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pedido" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pedido" connectionId="17" xr16:uid="{00000000-0016-0000-0D00-00000C000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1466,7 +1314,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_venta" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_venta" connectionId="7" xr16:uid="{00000000-0016-0000-0E00-00000D000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1484,7 +1332,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca inventario_empresa" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca inventario_empresa" connectionId="12" xr16:uid="{00000000-0016-0000-0F00-00000E000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1498,7 +1346,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="+Conectar con nuevo origen de datos" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="+Conectar con nuevo origen de datos" connectionId="1" xr16:uid="{00000000-0016-0000-1000-00000F000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
     <queryTableFields count="12">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1519,7 +1367,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_produccion_vino" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_produccion_vino" connectionId="9" xr16:uid="{00000000-0016-0000-1100-000010000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1539,7 +1387,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca socio" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca socio" connectionId="22" xr16:uid="{00000000-0016-0000-1200-000011000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1555,7 +1403,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca salida_hoja_inventario" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca salida_hoja_inventario" connectionId="21" xr16:uid="{00000000-0016-0000-1300-000012000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1573,7 +1421,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca clase_vino" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca clase_vino" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1585,7 +1433,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca users" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca users" connectionId="25" xr16:uid="{00000000-0016-0000-1400-000013000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1605,7 +1453,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_ventas" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_ventas" connectionId="11" xr16:uid="{00000000-0016-0000-1500-000014000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1624,7 +1472,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca produccion_total" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca produccion_total" connectionId="19" xr16:uid="{00000000-0016-0000-1600-000015000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1637,7 +1485,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pasteurizacion" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pasteurizacion" connectionId="16" xr16:uid="{00000000-0016-0000-1700-000016000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1649,7 +1497,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca lote_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca lote_1" connectionId="14" xr16:uid="{00000000-0016-0000-1800-000017000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1661,7 +1509,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca procesos" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca procesos" connectionId="18" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1673,7 +1521,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca trabajador" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca trabajador" connectionId="23" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1689,7 +1537,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca cliente" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca cliente" connectionId="5" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1707,7 +1555,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_producto_terminado" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_producto_terminado" connectionId="10" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1736,7 +1584,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca item_inventario" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca item_inventario" connectionId="13" xr16:uid="{00000000-0016-0000-0600-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1748,7 +1596,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca catalogo" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca catalogo" connectionId="3" xr16:uid="{00000000-0016-0000-0700-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1759,7 +1607,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca unidad_medida" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca unidad_medida" connectionId="24" xr16:uid="{00000000-0016-0000-0800-000008000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1771,382 +1619,382 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>A3+1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D15" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="contidad" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" uniqueName="4" name="contidad" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="estado" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" uniqueName="6" name="estado" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0F00-000008000000}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0F00-000009000000}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0F00-00000A000000}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0F00-00000B000000}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0F00-00000C000000}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K9" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I29" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I29" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I29" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="rol" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="estado" queryTableFieldId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" uniqueName="10" name="rol" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" uniqueName="11" name="estado" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J50" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J50" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J50" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Email_tra" queryTableFieldId="7" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" uniqueName="7" name="Email_tra" queryTableFieldId="7" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I50" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I50" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" uniqueName="9" name="password" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T9" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="11"/>
-    <tableColumn id="8" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
-    <tableColumn id="14" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
-    <tableColumn id="15" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
-    <tableColumn id="16" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
-    <tableColumn id="17" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
-    <tableColumn id="18" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
-    <tableColumn id="19" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
-    <tableColumn id="20" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2448,21 +2296,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2478,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2486,7 +2334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
@@ -2495,7 +2343,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A6" si="0">A4+1</f>
         <v>4</v>
@@ -2504,7 +2352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2513,7 +2361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2530,22 +2378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2559,46 +2407,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>210</v>
+        <v>149</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>212</v>
+        <v>149</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>202</v>
+        <v>149</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2607,22 +2455,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2636,183 +2484,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2827,25 +2675,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2868,21 +2716,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>213</v>
+        <v>156</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>127</v>
@@ -2891,75 +2739,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>217</v>
+        <v>156</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="E8" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2970,27 +2818,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3019,19 +2867,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3043,26 +2891,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3088,21 +2936,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>43132</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3111,21 +2959,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>43136</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3134,21 +2982,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>43137</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3157,21 +3005,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>43141</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3180,21 +3028,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>43153</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3203,21 +3051,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>43154</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -3226,21 +3074,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>43156</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3249,21 +3097,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>43159</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3272,7 +3120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
   </sheetData>
@@ -3284,27 +3132,27 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3333,7 +3181,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
@@ -3343,11 +3191,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>43146</v>
       </c>
@@ -3360,11 +3208,11 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="G3" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>43149</v>
       </c>
@@ -3377,11 +3225,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="G4" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>43151</v>
       </c>
@@ -3394,11 +3242,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="G5" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>43152</v>
       </c>
@@ -3411,11 +3259,11 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="G6" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>43153</v>
       </c>
@@ -3428,11 +3276,11 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="G7" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>43153</v>
       </c>
@@ -3445,11 +3293,11 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="G8" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>43154</v>
       </c>
@@ -3462,11 +3310,11 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="G9" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
   </sheetData>
@@ -3478,23 +3326,23 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3511,69 +3359,69 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3588,30 +3436,30 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3649,7 +3497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
@@ -3675,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="J2" s="1">
         <v>43273</v>
@@ -3684,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
@@ -3713,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="J3" s="1">
         <v>43274</v>
@@ -3722,10 +3570,10 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -3745,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="J4" s="1">
         <v>43275</v>
@@ -3754,10 +3602,10 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -3777,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="J5" s="1">
         <v>43276</v>
@@ -3786,10 +3634,10 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25</v>
       </c>
@@ -3809,7 +3657,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="J6" s="1">
         <v>43277</v>
@@ -3818,10 +3666,10 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26</v>
       </c>
@@ -3841,7 +3689,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="J7" s="1">
         <v>43278</v>
@@ -3850,10 +3698,10 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -3870,7 +3718,7 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="J8" s="1">
         <v>43279</v>
@@ -3879,10 +3727,10 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26</v>
       </c>
@@ -3899,7 +3747,7 @@
         <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="J9" s="1">
         <v>43280</v>
@@ -3908,20 +3756,20 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3932,29 +3780,29 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3989,7 +3837,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>41</v>
       </c>
@@ -4024,7 +3872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42</v>
       </c>
@@ -4059,7 +3907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
@@ -4091,7 +3939,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>44</v>
       </c>
@@ -4123,7 +3971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45</v>
       </c>
@@ -4155,7 +4003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>46</v>
       </c>
@@ -4187,7 +4035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>47</v>
       </c>
@@ -4219,7 +4067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>48</v>
       </c>
@@ -4251,8 +4099,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E10" s="21"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4263,22 +4111,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4310,21 +4158,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4343,7 +4191,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4360,36 +4208,36 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E1" t="s">
@@ -4408,17 +4256,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>43132</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>47</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>119</v>
       </c>
       <c r="E2">
@@ -4428,34 +4276,34 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>43133</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
         <v>150</v>
       </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>43134</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4">
         <v>77</v>
       </c>
@@ -4463,15 +4311,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>43135</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5">
         <v>0</v>
       </c>
@@ -4479,15 +4327,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>43136</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <v>5</v>
       </c>
       <c r="E6">
@@ -4497,15 +4345,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>43137</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
         <v>166</v>
       </c>
       <c r="E7">
@@ -4515,15 +4363,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>43138</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8">
@@ -4533,15 +4381,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>43139</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9">
         <v>2</v>
       </c>
@@ -4549,15 +4397,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>43140</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10">
         <v>36</v>
       </c>
@@ -4565,15 +4413,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>43141</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <v>108</v>
       </c>
       <c r="E11">
@@ -4583,15 +4431,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>43142</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12">
         <v>9</v>
       </c>
@@ -4599,15 +4447,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>43143</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13">
         <v>6</v>
       </c>
@@ -4615,15 +4463,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>43144</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14">
         <v>1</v>
       </c>
@@ -4631,15 +4479,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>43145</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15">
         <v>1</v>
       </c>
@@ -4647,15 +4495,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>43146</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16">
         <v>48</v>
       </c>
@@ -4663,15 +4511,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>43147</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17">
         <v>7</v>
       </c>
@@ -4679,15 +4527,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>43148</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18">
         <v>0</v>
       </c>
@@ -4695,15 +4543,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>43149</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19">
         <v>40</v>
       </c>
@@ -4714,15 +4562,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>43150</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20">
         <v>0</v>
       </c>
@@ -4730,15 +4578,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>43151</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21">
         <v>0</v>
       </c>
@@ -4746,15 +4594,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>43152</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22">
         <v>0</v>
       </c>
@@ -4762,15 +4610,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <v>43153</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
         <v>21</v>
       </c>
       <c r="E23">
@@ -4780,15 +4628,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>43154</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8">
         <v>113</v>
       </c>
       <c r="E24">
@@ -4798,15 +4646,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>43155</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8">
         <v>48</v>
       </c>
       <c r="E25">
@@ -4816,15 +4664,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>43156</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26">
         <v>85</v>
       </c>
@@ -4832,15 +4680,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="15">
         <v>43157</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27">
         <v>18</v>
       </c>
@@ -4848,15 +4696,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>43158</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28">
         <v>0</v>
       </c>
@@ -4867,15 +4715,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <v>43159</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
         <v>233</v>
       </c>
       <c r="E29">
@@ -4888,12 +4736,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="D30">
         <f>SUM(D2:D29)+0</f>
@@ -4908,12 +4756,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="G31">
         <f>E30+G30</f>
@@ -4923,7 +4771,7 @@
         <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4935,28 +4783,28 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5000,29 +4848,29 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5054,7 +4902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5078,13 +4926,13 @@
         <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5108,13 +4956,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5138,13 +4986,13 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5168,13 +5016,13 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5197,13 +5045,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I6">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5227,13 +5075,13 @@
         <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5256,13 +5104,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I8">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5285,13 +5133,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5315,13 +5163,13 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5332,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -5345,13 +5193,13 @@
         <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5362,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -5375,13 +5223,13 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5392,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -5404,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I13">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5421,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="E14">
         <v>24</v>
@@ -5433,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I14">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5450,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="E15">
         <v>23</v>
@@ -5462,16 +5310,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I15">
         <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5482,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="E16">
         <v>12</v>
@@ -5494,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I16">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5511,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="E17">
         <v>12</v>
@@ -5523,16 +5371,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I17">
         <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5543,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="E18">
         <v>24</v>
@@ -5555,13 +5403,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I18">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5572,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5585,13 +5433,13 @@
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5602,7 +5450,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5615,13 +5463,13 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5632,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="E21">
         <v>24</v>
@@ -5641,13 +5489,13 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I21">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5658,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -5667,16 +5515,16 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I22">
         <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5687,7 +5535,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="E23">
         <v>13</v>
@@ -5700,13 +5548,13 @@
         <v>76.05</v>
       </c>
       <c r="H23" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5717,7 +5565,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -5730,13 +5578,13 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5747,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -5760,13 +5608,13 @@
         <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5777,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -5790,13 +5638,13 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5820,13 +5668,13 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5850,13 +5698,13 @@
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5867,7 +5715,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5880,14 +5728,14 @@
         <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
         <v>43</v>
       </c>
       <c r="B30" s="1">
@@ -5897,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5909,14 +5757,14 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -5926,7 +5774,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="E31">
         <v>24</v>
@@ -5938,14 +5786,14 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I31">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -5955,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="E32">
         <v>24</v>
@@ -5967,14 +5815,14 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I32">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -5984,7 +5832,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -5997,14 +5845,14 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -6014,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -6027,14 +5875,14 @@
         <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -6044,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="E35">
         <v>12</v>
@@ -6056,17 +5904,17 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I35">
         <v>72</v>
       </c>
       <c r="J35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -6076,7 +5924,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="E36">
         <v>24</v>
@@ -6088,14 +5936,14 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I36">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -6105,7 +5953,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -6118,14 +5966,14 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -6135,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="E38">
         <v>24</v>
@@ -6147,14 +5995,14 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I38">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -6176,14 +6024,14 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I39">
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -6193,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="E40">
         <v>12</v>
@@ -6205,14 +6053,14 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I40">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="22">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -6222,7 +6070,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="E41">
         <v>24</v>
@@ -6234,14 +6082,14 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I41">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -6251,7 +6099,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="E42">
         <v>12</v>
@@ -6264,14 +6112,14 @@
         <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -6281,7 +6129,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -6294,14 +6142,14 @@
         <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -6323,14 +6171,14 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I44">
         <v>288</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -6340,7 +6188,7 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="E45">
         <v>36</v>
@@ -6352,14 +6200,14 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I45">
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="22">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -6369,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -6382,14 +6230,14 @@
         <v>6</v>
       </c>
       <c r="H46" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -6399,7 +6247,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -6412,14 +6260,14 @@
         <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -6429,7 +6277,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="E48">
         <v>12</v>
@@ -6441,17 +6289,17 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I48">
         <v>72</v>
       </c>
       <c r="J48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -6461,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E49">
         <v>24</v>
@@ -6473,14 +6321,14 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I49">
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="22">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
         <v>49</v>
       </c>
       <c r="B50" s="1">
@@ -6490,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="E50">
         <v>36</v>
@@ -6502,15 +6350,15 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I50">
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="E51">
         <f>SUM(E2:E50)</f>
@@ -6525,28 +6373,28 @@
         <v>3246</v>
       </c>
       <c r="K51" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="L51">
         <f>E51+J51</f>
         <v>681</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="G52" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="I52">
         <f>G51+I51</f>
         <v>4084.05</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6558,22 +6406,22 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6587,12 +6435,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="C2">
         <v>960</v>
@@ -6610,21 +6458,21 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6635,7 +6483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6643,7 +6491,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6651,7 +6499,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6668,24 +6516,24 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6696,7 +6544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6704,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>Tabla_elultimoinca_lote_1[id]+1</f>
         <v>2</v>
@@ -6722,21 +6570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6747,7 +6595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6755,7 +6603,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6772,25 +6620,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6813,7 +6661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6836,7 +6684,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6850,7 +6698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6864,7 +6712,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6878,7 +6726,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6892,7 +6740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6909,7 +6757,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6926,7 +6774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6942,14 +6790,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6959,27 +6807,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7008,317 +6856,777 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2">
-        <v>7345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="B2" s="6"/>
+      <c r="C2" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="9">
-        <v>4587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="B3" s="6"/>
+      <c r="C3" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="9">
-        <v>9674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="B4" s="6"/>
+      <c r="C4" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="I6" s="9">
-        <v>3697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8" s="9">
-        <v>5874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="B8" s="6"/>
+      <c r="C8" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="I9" s="9">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="B9" s="6"/>
+      <c r="C9" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I10" s="9">
-        <v>8745</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
     <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7380,14 +7688,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="17">
+        <v>189</v>
+      </c>
+      <c r="C2" s="15">
         <v>43132</v>
       </c>
       <c r="D2">
@@ -7399,31 +7707,31 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>43132</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="I2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="8">
         <v>119</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>258</v>
-      </c>
-      <c r="M2" s="9">
+        <v>198</v>
+      </c>
+      <c r="M2" s="8">
         <v>119</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="N2" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="8">
         <v>119</v>
       </c>
       <c r="P2">
@@ -7439,14 +7747,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="17">
+        <v>189</v>
+      </c>
+      <c r="C3" s="15">
         <v>43136</v>
       </c>
       <c r="D3">
@@ -7458,34 +7766,34 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>43136</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="8">
         <v>5</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M3" s="9">
+        <v>198</v>
+      </c>
+      <c r="M3" s="8">
         <v>5</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="N3" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="8">
         <v>5</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>5</v>
       </c>
       <c r="Q3">
@@ -7498,14 +7806,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="17">
+        <v>189</v>
+      </c>
+      <c r="C4" s="15">
         <v>43137</v>
       </c>
       <c r="D4">
@@ -7517,34 +7825,34 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>43137</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="I4" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" s="8">
         <v>166</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>258</v>
-      </c>
-      <c r="M4" s="9">
+        <v>198</v>
+      </c>
+      <c r="M4" s="8">
         <v>166</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="8">
         <v>166</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>166</v>
       </c>
       <c r="Q4">
@@ -7557,14 +7865,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="17">
+        <v>189</v>
+      </c>
+      <c r="C5" s="15">
         <v>43141</v>
       </c>
       <c r="D5">
@@ -7576,54 +7884,54 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>43141</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="8">
         <v>108</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
-      </c>
-      <c r="M5" s="9">
+        <v>198</v>
+      </c>
+      <c r="M5" s="8">
         <v>108</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="N5" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="O5" s="8">
         <v>108</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>108</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>108</v>
       </c>
       <c r="S5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="17">
+        <v>189</v>
+      </c>
+      <c r="C6" s="15">
         <v>43153</v>
       </c>
       <c r="D6">
@@ -7635,54 +7943,54 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>43153</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="8">
         <v>21</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>258</v>
-      </c>
-      <c r="M6" s="9">
+        <v>198</v>
+      </c>
+      <c r="M6" s="8">
         <v>21</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="8">
         <v>21</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>21</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <v>21</v>
       </c>
       <c r="S6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="17">
+        <v>189</v>
+      </c>
+      <c r="C7" s="15">
         <v>43154</v>
       </c>
       <c r="D7">
@@ -7694,54 +8002,54 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>43154</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="8">
         <v>113</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M7" s="9">
+        <v>198</v>
+      </c>
+      <c r="M7" s="8">
         <v>113</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="N7" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="O7" s="8">
         <v>113</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>113</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="8">
         <v>113</v>
       </c>
       <c r="S7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="17">
+        <v>189</v>
+      </c>
+      <c r="C8" s="15">
         <v>43156</v>
       </c>
       <c r="D8">
@@ -7753,54 +8061,54 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>43156</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I8" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="8">
         <v>48</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>258</v>
-      </c>
-      <c r="M8" s="9">
+        <v>198</v>
+      </c>
+      <c r="M8" s="8">
         <v>48</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="N8" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O8" s="8">
         <v>48</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>48</v>
       </c>
       <c r="Q8">
         <v>48</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <v>0</v>
       </c>
       <c r="S8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="17">
+        <v>189</v>
+      </c>
+      <c r="C9" s="15">
         <v>43159</v>
       </c>
       <c r="D9">
@@ -7809,50 +8117,50 @@
       <c r="E9">
         <v>0.84</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>43159</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>2</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="8">
         <v>233</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>258</v>
-      </c>
-      <c r="M9" s="9">
+        <v>198</v>
+      </c>
+      <c r="M9" s="8">
         <v>232</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="N9" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="O9" s="8">
         <v>229</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>233</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>39</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <f>233-39</f>
         <v>194</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <v>8</v>
       </c>
-      <c r="T9" s="9"/>
+      <c r="T9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7863,21 +8171,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7888,48 +8196,48 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7941,18 +8249,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7969,21 +8277,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7994,7 +8302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8005,26 +8313,26 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppp\htdocs\Proyecto_Vino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{463B843E-6425-4B9F-B80C-9667AD5B0E08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{09E14AFE-51FE-419B-A72F-35BBB90E45CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="856" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="300">
   <si>
     <t>id</t>
   </si>
@@ -951,19 +951,106 @@
     <t>ALCALDE DE ANTI</t>
   </si>
   <si>
-    <t>EFRAIN CALAOUCHO</t>
-  </si>
-  <si>
     <t>HILDA DIAS</t>
   </si>
   <si>
     <t>ALCALDE  SIGCHOS</t>
   </si>
   <si>
-    <t>LUZMILA PASTUÑA</t>
-  </si>
-  <si>
-    <t>MARTHA AYALA</t>
+    <t xml:space="preserve">MARCELO </t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVARO </t>
+  </si>
+  <si>
+    <t>MELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERTO </t>
+  </si>
+  <si>
+    <t>GUYTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCIDES </t>
+  </si>
+  <si>
+    <t>GUANOQUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELIA </t>
+  </si>
+  <si>
+    <t>CHICAIZA</t>
+  </si>
+  <si>
+    <t>DIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HILDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARCISA </t>
+  </si>
+  <si>
+    <t>ESPIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARCO</t>
+  </si>
+  <si>
+    <t>CRIOLLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTALIN </t>
+  </si>
+  <si>
+    <t>OÑA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELIA </t>
+  </si>
+  <si>
+    <t>CAIZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS </t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREDY </t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLMEDO </t>
+  </si>
+  <si>
+    <t>SIGCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTHA </t>
+  </si>
+  <si>
+    <t>AYALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUZMILA </t>
+  </si>
+  <si>
+    <t>PASTUÑA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFRAIN </t>
+  </si>
+  <si>
+    <t>CALAOUCHO</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2095,7 +2182,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6810,8 +6897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6888,9 +6975,11 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>298</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="8"/>
       <c r="G4" s="11"/>
@@ -6918,9 +7007,11 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="11"/>
@@ -6948,7 +7039,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
@@ -6963,9 +7054,11 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="8"/>
+        <v>296</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
       <c r="G9" s="12"/>
@@ -6978,9 +7071,11 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>294</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
       <c r="G10" s="11"/>
@@ -7113,9 +7208,11 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>282</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -7128,9 +7225,11 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>292</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -7173,9 +7272,11 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>290</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -7188,9 +7289,11 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>288</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -7203,9 +7306,11 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -7263,9 +7368,11 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="8"/>
+        <v>284</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -7278,9 +7385,11 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>282</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -7293,9 +7402,11 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>280</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -7323,9 +7434,11 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -7338,9 +7451,11 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -7353,9 +7468,11 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -7383,9 +7500,11 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -7413,7 +7532,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -7458,9 +7577,11 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="8"/>
+        <v>276</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -7488,9 +7609,11 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D44" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppp\htdocs\Proyecto_Vino\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{09E14AFE-51FE-419B-A72F-35BBB90E45CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="856" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="856" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -46,7 +40,7 @@
     <definedName name="elultimoinca_clase_vino" localSheetId="1" hidden="1">Clase_vino!$A$1:$C$4</definedName>
     <definedName name="elultimoinca_cliente" localSheetId="4" hidden="1">Cliente!$A$1:$I$50</definedName>
     <definedName name="elultimoinca_compra_mat_pri" localSheetId="12" hidden="1">Compra_Mat_pi!$A$1:$I$2</definedName>
-    <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$11</definedName>
+    <definedName name="elultimoinca_compra_venta" localSheetId="14" hidden="1">Compra_venta!$A$1:$I$51</definedName>
     <definedName name="elultimoinca_empresa" localSheetId="9" hidden="1">Empresa!$A$1:$D$4</definedName>
     <definedName name="elultimoinca_hoja_produccion_vino" localSheetId="17" hidden="1">Hoja_producion_vino!$A$1:$K$9</definedName>
     <definedName name="elultimoinca_hoja_producto_terminado" localSheetId="5" hidden="1">Hoja_producto_terminado!$A$1:$T$9</definedName>
@@ -66,92 +60,92 @@
     <definedName name="elultimoinca_unidad_medida" localSheetId="8" hidden="1">Unidad_medida!$A$1:$C$5</definedName>
     <definedName name="elultimoinca_users" localSheetId="20" hidden="1">Usuario!$A$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\+Conectar con nuevo origen de datos.odc" name="elultimoinca area_produccion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`area_produccion`"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca brix.odc" name="elultimoinca brix" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`brix`"/>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca catalogo.odc" name="elultimoinca catalogo" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`catalogo`"/>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca clase_vino.odc" name="elultimoinca clase_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`clase_vino`"/>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca cliente.odc" name="elultimoinca cliente" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`cliente`"/>
   </connection>
-  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_mat_pri.odc" name="elultimoinca compra_mat_pri" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_mat_pri`"/>
   </connection>
-  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca compra_venta.odc" name="elultimoinca compra_venta" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`compra_venta`"/>
   </connection>
-  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca empresa.odc" name="elultimoinca empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`empresa`"/>
   </connection>
-  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_produccion_vino.odc" name="elultimoinca hoja_produccion_vino" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_produccion_vino`"/>
   </connection>
-  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF09000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_producto_terminado.odc" name="elultimoinca hoja_producto_terminado" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_producto_terminado`"/>
   </connection>
-  <connection id="11" xr16:uid="{00000000-0015-0000-FFFF-FFFF0A000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca hoja_ventas.odc" name="elultimoinca hoja_ventas" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`hoja_ventas`"/>
   </connection>
-  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF0B000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca inventario_empresa.odc" name="elultimoinca inventario_empresa" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`inventario_empresa`"/>
   </connection>
-  <connection id="13" xr16:uid="{00000000-0015-0000-FFFF-FFFF0C000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="13" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca item_inventario.odc" name="elultimoinca item_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`item_inventario`"/>
   </connection>
-  <connection id="14" xr16:uid="{00000000-0015-0000-FFFF-FFFF0D000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="14" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca lote.odc" name="elultimoinca lote" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`lote`"/>
   </connection>
-  <connection id="15" xr16:uid="{00000000-0015-0000-FFFF-FFFF0E000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="15" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca materia_prima.odc" name="elultimoinca materia_prima" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`materia_prima`"/>
   </connection>
-  <connection id="16" xr16:uid="{00000000-0015-0000-FFFF-FFFF0F000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="16" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pasteurizacion.odc" name="elultimoinca pasteurizacion" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pasteurizacion`"/>
   </connection>
-  <connection id="17" xr16:uid="{00000000-0015-0000-FFFF-FFFF10000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="17" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca pedido.odc" name="elultimoinca pedido" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`pedido`"/>
   </connection>
-  <connection id="18" xr16:uid="{00000000-0015-0000-FFFF-FFFF11000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="18" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca procesos.odc" name="elultimoinca procesos" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`procesos`"/>
   </connection>
-  <connection id="19" xr16:uid="{00000000-0015-0000-FFFF-FFFF12000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="19" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca produccion_total.odc" name="elultimoinca produccion_total" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`produccion_total`"/>
   </connection>
-  <connection id="20" xr16:uid="{00000000-0015-0000-FFFF-FFFF13000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="20" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca proveedor.odc" name="elultimoinca proveedor" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`proveedor`"/>
   </connection>
-  <connection id="21" xr16:uid="{00000000-0015-0000-FFFF-FFFF14000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="21" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca salida_hoja_inventario.odc" name="elultimoinca salida_hoja_inventario" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`salida_hoja_inventario`"/>
   </connection>
-  <connection id="22" xr16:uid="{00000000-0015-0000-FFFF-FFFF15000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="22" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca socio.odc" name="elultimoinca socio" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`socio`"/>
   </connection>
-  <connection id="23" xr16:uid="{00000000-0015-0000-FFFF-FFFF16000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="23" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca trabajador.odc" name="elultimoinca trabajador" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`trabajador`"/>
   </connection>
-  <connection id="24" xr16:uid="{00000000-0015-0000-FFFF-FFFF17000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="24" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca unidad_medida.odc" name="elultimoinca unidad_medida" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`unidad_medida`"/>
   </connection>
-  <connection id="25" xr16:uid="{00000000-0015-0000-FFFF-FFFF18000000}" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
+  <connection id="25" odcFile="C:\Users\Danilo\Documents\Mis archivos de origen de datos\elultimoinca\elultimoinca users.odc" name="elultimoinca users" type="1" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="DSN=elultimoinca;" command="SELECT * FROM `elultimoinca`.`users`"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="311">
   <si>
     <t>id</t>
   </si>
@@ -1051,15 +1045,45 @@
   </si>
   <si>
     <t>CALAOUCHO</t>
+  </si>
+  <si>
+    <t>EFRAIN CALAOUCHO</t>
+  </si>
+  <si>
+    <t>LUZMILA PASTUÑA</t>
+  </si>
+  <si>
+    <t>MARTHA AYALA</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>HOLGER</t>
+  </si>
+  <si>
+    <t>FLAVIO</t>
+  </si>
+  <si>
+    <t>MARGOT LU</t>
+  </si>
+  <si>
+    <t>ESTER TIMBILA</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
+  </si>
+  <si>
+    <t>MERCEDES L</t>
+  </si>
+  <si>
+    <t>MECEDES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1109,18 +1133,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1179,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1203,20 +1221,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1226,25 +1268,32 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1253,10 +1302,10 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -1309,9 +1358,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1326,7 +1375,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca brix" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca brix" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1337,7 +1386,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca materia_prima" connectionId="15" xr16:uid="{00000000-0016-0000-0A00-000009000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca materia_prima" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1350,7 +1399,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca proveedor" connectionId="20" xr16:uid="{00000000-0016-0000-0B00-00000A000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca proveedor" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1366,7 +1415,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_mat_pri" connectionId="6" xr16:uid="{00000000-0016-0000-0C00-00000B000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_mat_pri" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1384,7 +1433,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pedido" connectionId="17" xr16:uid="{00000000-0016-0000-0D00-00000C000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pedido" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1401,7 +1450,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca compra_venta" connectionId="7" xr16:uid="{00000000-0016-0000-0E00-00000D000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca compra_venta" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1419,7 +1468,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca inventario_empresa" connectionId="12" xr16:uid="{00000000-0016-0000-0F00-00000E000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca inventario_empresa" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1433,7 +1482,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="+Conectar con nuevo origen de datos" connectionId="1" xr16:uid="{00000000-0016-0000-1000-00000F000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="+Conectar con nuevo origen de datos" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
     <queryTableFields count="12">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1454,7 +1503,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_produccion_vino" connectionId="9" xr16:uid="{00000000-0016-0000-1100-000010000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_produccion_vino" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1474,7 +1523,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca socio" connectionId="22" xr16:uid="{00000000-0016-0000-1200-000011000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca socio" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1490,7 +1539,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca salida_hoja_inventario" connectionId="21" xr16:uid="{00000000-0016-0000-1300-000012000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca salida_hoja_inventario" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1508,7 +1557,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca clase_vino" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca clase_vino" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1520,7 +1569,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca users" connectionId="25" xr16:uid="{00000000-0016-0000-1400-000013000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca users" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="11">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1540,7 +1589,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_ventas" connectionId="11" xr16:uid="{00000000-0016-0000-1500-000014000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_ventas" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1559,7 +1608,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca produccion_total" connectionId="19" xr16:uid="{00000000-0016-0000-1600-000015000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca produccion_total" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1572,7 +1621,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca pasteurizacion" connectionId="16" xr16:uid="{00000000-0016-0000-1700-000016000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca pasteurizacion" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1584,7 +1633,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca lote_1" connectionId="14" xr16:uid="{00000000-0016-0000-1800-000017000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca lote_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1596,7 +1645,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca procesos" connectionId="18" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca procesos" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1608,7 +1657,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca trabajador" connectionId="23" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca trabajador" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1624,7 +1673,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca cliente" connectionId="5" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca cliente" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1642,7 +1691,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca hoja_producto_terminado" connectionId="10" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca hoja_producto_terminado" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="21">
     <queryTableFields count="20">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1671,7 +1720,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca item_inventario" connectionId="13" xr16:uid="{00000000-0016-0000-0600-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca item_inventario" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1683,7 +1732,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca catalogo" connectionId="3" xr16:uid="{00000000-0016-0000-0700-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca catalogo" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1694,7 +1743,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="elultimoinca unidad_medida" connectionId="24" xr16:uid="{00000000-0016-0000-0800-000008000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elultimoinca unidad_medida" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -1706,382 +1755,382 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_elultimoinca_brix" displayName="Tabla_elultimoinca_brix" ref="A1:B4" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
+    <tableColumn id="1" uniqueName="1" name="id" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>A3+1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="14"/>
+    <tableColumn id="3" uniqueName="3" name="cantidad" totalsRowLabel="12" queryTableFieldId="3" totalsRowDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D15" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla_elultimoinca_materia_prima" displayName="Tabla_elultimoinca_materia_prima" ref="A1:D15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D15"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" uniqueName="4" name="contidad" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_mat_pri" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion_mat_pri" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="contidad" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla_elultimoinca_proveedor" displayName="Tabla_elultimoinca_proveedor" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="3" uniqueName="3" name="nombres_pro" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="apellidos_pro" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="telefono_pro" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="6" uniqueName="6" name="email_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_emp" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla_elultimoinca_compra_mat_pri" displayName="Tabla_elultimoinca_compra_mat_pri" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_mat" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" uniqueName="3" name="precio_u_mat" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="precio_tot_mat" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="observaciones_mat" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_pro" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_tra" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_mat_prim" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="unm_id" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla_elultimoinca_pedido" displayName="Tabla_elultimoinca_pedido" ref="A1:H10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" uniqueName="6" name="estado" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Fecha" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" uniqueName="3" name="unidad_medida" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Cantidad" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="presentacion" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="estado" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Idcliente" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_prod_total" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla_elultimoinca_compra_venta" displayName="Tabla_elultimoinca_compra_venta" ref="A1:I51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I51"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" uniqueName="7" name="precio_uni" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_ven" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" uniqueName="4" name="Idcliente" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_prod_total" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="estado_cuenta" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="precio_uni" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="8" uniqueName="8" name="precio_total" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="observaciones_ven" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla_elultimoinca_inventario_empresa" displayName="Tabla_elultimoinca_inventario_empresa" ref="A1:E5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_art_inv" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion_inv" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="color_inv" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_item_inventario" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla_Conectar_con_nuevo_origen_de_datos" displayName="Tabla_Conectar_con_nuevo_origen_de_datos" ref="A1:L9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L9"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0F00-000008000000}" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0F00-000009000000}" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0F00-00000A000000}" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0F00-00000B000000}" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0F00-00000C000000}" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_elaboracion" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" uniqueName="3" name="id_tanque" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="cantidad_litros" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="id_uni_medi" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_procesos" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="id_brix" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="id_clase_vino" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="temperatura_vino" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="fecha_control" queryTableFieldId="10" dataDxfId="8"/>
+    <tableColumn id="11" uniqueName="11" name="id_tra" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="observaciones_area_pro" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K9" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla_elultimoinca_hoja_produccion_vino" displayName="Tabla_elultimoinca_hoja_produccion_vino" ref="A1:K9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K9"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="id_tanque" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="id_procesos" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="id_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="fecha_pro" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="6" uniqueName="6" name="cant_fruta_klg" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="cant_agua_lts" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="cant_azucar_klg" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="cant_levadura_grms" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="numero_procesos" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="observacion_pro" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla_elultimoinca_socio" displayName="Tabla_elultimoinca_socio" ref="A1:G2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I29" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I29" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla_elultimoinca_salida_hoja_inventario" displayName="Tabla_elultimoinca_salida_hoja_inventario" ref="A1:I29" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I29"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="fecha_sal" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" uniqueName="3" name="saldo_sal" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="ingreso_sal" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="egreso_sal" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="donacion_sal" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="devolucion_sal" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="saldo_total" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="observaciones_sal" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla_elultimoinca_clase_vino" displayName="Tabla_elultimoinca_clase_vino" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla_elultimoinca_users" displayName="Tabla_elultimoinca_users" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" uniqueName="9" name="password" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" uniqueName="10" name="rol" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" uniqueName="11" name="estado" queryTableFieldId="11"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="rol" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="estado" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J50" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J50" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla_elultimoinca_hoja_ventas" displayName="Tabla_elultimoinca_hoja_ventas" ref="A1:J50" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J50"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" uniqueName="2" name="fecha" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" uniqueName="3" name="id_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="id_cli" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="cantidad" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="precio_unitario" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="precio_total" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="estado_venta" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="valor_estado" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="observaciones" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla_elultimoinca_produccion_total" displayName="Tabla_elultimoinca_produccion_total" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_producto" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="valor_total_producto" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="valor_ultima_suma" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla_elultimoinca_pasteurizacion" displayName="Tabla_elultimoinca_pasteurizacion" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla_elultimoinca_lote_1" displayName="Tabla_elultimoinca_lote_1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" uniqueName="2" name="valor" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="valor" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla_elultimoinca_procesos" displayName="Tabla_elultimoinca_procesos" ref="A1:C3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="detalle" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_proceso" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla_elultimoinca_trabajador" displayName="Tabla_elultimoinca_trabajador" ref="A1:G9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" uniqueName="7" name="Email_tra" queryTableFieldId="7" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres_tra" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos_tra" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono_tra" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion_tra" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email_tra" queryTableFieldId="7" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I50" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I50" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla_elultimoinca_cliente" displayName="Tabla_elultimoinca_cliente" ref="A1:I50" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I50"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" uniqueName="7" name="Email" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="user" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" uniqueName="9" name="password" queryTableFieldId="9"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Cedula" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Nombres" queryTableFieldId="3" dataDxfId="16"/>
+    <tableColumn id="4" uniqueName="4" name="Apellidos" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Telefono" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Direccion" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Email" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="user" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="password" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T9" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla_elultimoinca_hoja_producto_terminado" displayName="Tabla_elultimoinca_hoja_producto_terminado" ref="A1:T9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T9"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" uniqueName="2" name="nombre" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="fecha" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" uniqueName="4" name="valor_IVA" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="valor_ICE" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="id_paste" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="fecha_elb" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="8" uniqueName="8" name="id_lote" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="nombre_cantidad" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="valor_cantidad" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="id_brix" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="nombre_etiqueta" queryTableFieldId="12"/>
+    <tableColumn id="13" uniqueName="13" name="cantidad_etiqueta" queryTableFieldId="13"/>
+    <tableColumn id="14" uniqueName="14" name="nombre_corcho" queryTableFieldId="14"/>
+    <tableColumn id="15" uniqueName="15" name="cantidad_corcho" queryTableFieldId="15"/>
+    <tableColumn id="16" uniqueName="16" name="cantidad_capuchon" queryTableFieldId="16"/>
+    <tableColumn id="17" uniqueName="17" name="cantidad_cintas_SRI" queryTableFieldId="17"/>
+    <tableColumn id="18" uniqueName="18" name="cantidad_cintas_ultimoInca" queryTableFieldId="18"/>
+    <tableColumn id="19" uniqueName="19" name="id_tra" queryTableFieldId="19"/>
+    <tableColumn id="20" uniqueName="20" name="observaciones" queryTableFieldId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla_elultimoinca_item_inventario" displayName="Tabla_elultimoinca_item_inventario" ref="A1:C6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nom_item" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle_item" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla_elultimoinca_catalogo" displayName="Tabla_elultimoinca_catalogo" ref="A1:B2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Descripcion" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla_elultimoinca_unidad_medida" displayName="Tabla_elultimoinca_unidad_medida" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="nombre_umed" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="detalle_umed" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2130,7 +2179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2182,7 +2231,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2376,14 +2425,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2465,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2542,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,7 +2811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2892,9 +2941,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2905,7 +2954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -2978,11 +3027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,19 +3268,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3240,180 +3289,1441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="B2" s="21">
+        <v>43132</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="24">
+        <v>12</v>
+      </c>
+      <c r="G2" s="24">
+        <v>6</v>
+      </c>
+      <c r="H2" s="24">
+        <f>F2*G2</f>
+        <v>72</v>
+      </c>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>43132</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G2" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="G3" s="24">
+        <v>6</v>
+      </c>
+      <c r="H3" s="24">
+        <f t="shared" ref="H3:H18" si="0">F3*G3</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>43132</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24">
+        <v>6</v>
+      </c>
+      <c r="H4" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>43133</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="24">
+        <v>2</v>
+      </c>
+      <c r="G5" s="24">
+        <v>6</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>43134</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5</v>
+      </c>
+      <c r="F6" s="24">
+        <v>24</v>
+      </c>
+      <c r="G6" s="24">
+        <v>6</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>43134</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="13">
+        <v>6</v>
+      </c>
+      <c r="F7" s="24">
+        <v>24</v>
+      </c>
+      <c r="G7" s="24">
+        <v>6</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>43134</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7</v>
+      </c>
+      <c r="F8" s="24">
+        <v>24</v>
+      </c>
+      <c r="G8" s="24">
+        <v>6</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>43134</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="13">
+        <v>8</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24">
+        <v>6</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>43134</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="13">
+        <v>9</v>
+      </c>
+      <c r="F10" s="24">
+        <v>4</v>
+      </c>
+      <c r="G10" s="24">
+        <v>6</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21">
+        <v>43136</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="F11" s="24">
+        <v>30</v>
+      </c>
+      <c r="G11" s="24">
+        <v>6</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21">
+        <v>43136</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="13">
+        <v>11</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2</v>
+      </c>
+      <c r="G12" s="24">
+        <v>6</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <v>43137</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="24">
+        <v>12</v>
+      </c>
+      <c r="G13" s="24">
+        <v>6</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>43137</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="13">
+        <v>13</v>
+      </c>
+      <c r="F14" s="24">
+        <v>24</v>
+      </c>
+      <c r="G14" s="24">
+        <v>6</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>43137</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="13">
+        <v>14</v>
+      </c>
+      <c r="F15" s="24">
+        <v>23</v>
+      </c>
+      <c r="G15" s="24">
+        <v>6</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>43138</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="13">
+        <v>15</v>
+      </c>
+      <c r="F16" s="24">
+        <v>12</v>
+      </c>
+      <c r="G16" s="24">
+        <v>6</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21">
+        <v>43138</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="13">
+        <v>16</v>
+      </c>
+      <c r="F17" s="24">
+        <v>12</v>
+      </c>
+      <c r="G17" s="24">
+        <v>6</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="21">
+        <v>43138</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="13">
+        <v>17</v>
+      </c>
+      <c r="F18" s="24">
+        <v>24</v>
+      </c>
+      <c r="G18" s="24">
+        <v>6</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21">
+        <v>43139</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="13">
+        <v>18</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <v>6</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" ref="H19:H21" si="1">F19*G19</f>
+        <v>6</v>
+      </c>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21">
+        <v>43139</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="13">
+        <v>19</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24">
+        <v>6</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21">
+        <v>43140</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="13">
+        <v>20</v>
+      </c>
+      <c r="F21" s="24">
+        <v>24</v>
+      </c>
+      <c r="G21" s="24">
+        <v>6</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21">
+        <v>43140</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="13">
+        <v>21</v>
+      </c>
+      <c r="F22" s="24">
+        <v>12</v>
+      </c>
+      <c r="G22" s="24">
+        <v>6</v>
+      </c>
+      <c r="H22" s="24">
+        <f>F22*G22</f>
+        <v>72</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21">
+        <v>43141</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="13">
+        <v>22</v>
+      </c>
+      <c r="F23" s="24">
+        <v>13</v>
+      </c>
+      <c r="G23" s="25">
+        <f>76/13</f>
+        <v>5.8461538461538458</v>
+      </c>
+      <c r="H23" s="24">
+        <f>F23*G23</f>
+        <v>76</v>
+      </c>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21">
+        <v>43141</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="13">
+        <v>23</v>
+      </c>
+      <c r="F24" s="24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="24">
+        <v>6</v>
+      </c>
+      <c r="H24" s="24">
+        <f>F24*G24</f>
+        <v>18</v>
+      </c>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21">
+        <v>43142</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="13">
+        <v>24</v>
+      </c>
+      <c r="F25" s="24">
+        <v>6</v>
+      </c>
+      <c r="G25" s="24">
+        <v>6</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" ref="H25:H32" si="2">F25*G25</f>
+        <v>36</v>
+      </c>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21">
+        <v>43142</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="13">
+        <v>25</v>
+      </c>
+      <c r="F26" s="24">
+        <v>3</v>
+      </c>
+      <c r="G26" s="24">
+        <v>6</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21">
+        <v>43143</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="13">
+        <v>26</v>
+      </c>
+      <c r="F27" s="24">
+        <v>4</v>
+      </c>
+      <c r="G27" s="24">
+        <v>6</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21">
+        <v>43143</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="13">
+        <v>27</v>
+      </c>
+      <c r="F28" s="24">
+        <v>2</v>
+      </c>
+      <c r="G28" s="24">
+        <v>6</v>
+      </c>
+      <c r="H28" s="24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="21">
+        <v>43144</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="13">
+        <v>28</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="24">
+        <v>6</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="21">
+        <v>43145</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="13">
+        <v>29</v>
+      </c>
+      <c r="F30" s="24">
+        <v>1</v>
+      </c>
+      <c r="G30" s="24">
+        <v>6</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21">
         <v>43146</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="C31" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="13">
+        <v>30</v>
+      </c>
+      <c r="F31" s="24">
+        <v>24</v>
+      </c>
+      <c r="G31" s="24">
+        <v>6</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="21">
+        <v>43146</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="13">
+        <v>31</v>
+      </c>
+      <c r="F32" s="24">
+        <v>24</v>
+      </c>
+      <c r="G32" s="24">
+        <v>6</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21">
+        <v>43147</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="13">
+        <v>32</v>
+      </c>
+      <c r="F33" s="24">
+        <v>4</v>
+      </c>
+      <c r="G33" s="24">
+        <v>6</v>
+      </c>
+      <c r="H33" s="24">
+        <f>F33*G33</f>
+        <v>24</v>
+      </c>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21">
+        <v>43147</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="13">
+        <v>33</v>
+      </c>
+      <c r="F34" s="24">
+        <v>3</v>
+      </c>
+      <c r="G34" s="24">
+        <v>6</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" ref="H34:H36" si="3">F34*G34</f>
+        <v>18</v>
+      </c>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="21">
         <v>43149</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>43151</v>
-      </c>
-      <c r="C5">
+      <c r="C35" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="13">
+        <v>34</v>
+      </c>
+      <c r="F35" s="24">
+        <v>12</v>
+      </c>
+      <c r="G35" s="24">
+        <v>6</v>
+      </c>
+      <c r="H35" s="24">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21">
+        <v>43149</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="13">
+        <v>35</v>
+      </c>
+      <c r="F36" s="24">
+        <v>24</v>
+      </c>
+      <c r="G36" s="24">
+        <v>6</v>
+      </c>
+      <c r="H36" s="24">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21">
+        <v>43149</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="13">
+        <v>36</v>
+      </c>
+      <c r="F37" s="24">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>43152</v>
-      </c>
-      <c r="C6">
+      <c r="G37" s="24">
+        <v>6</v>
+      </c>
+      <c r="H37" s="24">
+        <f t="shared" ref="H37:H41" si="4">F37*G37</f>
+        <v>24</v>
+      </c>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21">
+        <v>43153</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" s="13">
+        <v>37</v>
+      </c>
+      <c r="F38" s="24">
+        <v>24</v>
+      </c>
+      <c r="G38" s="24">
+        <v>6</v>
+      </c>
+      <c r="H38" s="24">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21">
+        <v>43155</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="13">
+        <v>38</v>
+      </c>
+      <c r="F39" s="24">
+        <v>48</v>
+      </c>
+      <c r="G39" s="24">
+        <v>6</v>
+      </c>
+      <c r="H39" s="24">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21">
+        <v>43155</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="13">
+        <v>39</v>
+      </c>
+      <c r="F40" s="24">
+        <v>12</v>
+      </c>
+      <c r="G40" s="24">
+        <v>6</v>
+      </c>
+      <c r="H40" s="24">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21">
+        <v>43155</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" s="13">
+        <v>40</v>
+      </c>
+      <c r="F41" s="24">
+        <v>24</v>
+      </c>
+      <c r="G41" s="24">
+        <v>6</v>
+      </c>
+      <c r="H41" s="24">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="21">
+        <v>43155</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="13">
+        <v>41</v>
+      </c>
+      <c r="F42" s="24">
+        <v>12</v>
+      </c>
+      <c r="G42" s="24">
+        <v>6</v>
+      </c>
+      <c r="H42" s="24">
+        <f>F42*G42</f>
+        <v>72</v>
+      </c>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21">
+        <v>43156</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="13">
+        <v>42</v>
+      </c>
+      <c r="F43" s="24">
+        <v>1</v>
+      </c>
+      <c r="G43" s="24">
+        <v>6</v>
+      </c>
+      <c r="H43" s="24">
+        <f>F43*G43</f>
+        <v>6</v>
+      </c>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21">
+        <v>43156</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="13">
+        <v>43</v>
+      </c>
+      <c r="F44" s="24">
+        <v>48</v>
+      </c>
+      <c r="G44" s="24">
+        <v>6</v>
+      </c>
+      <c r="H44" s="24">
+        <f t="shared" ref="H44:H45" si="5">F44*G44</f>
+        <v>288</v>
+      </c>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21">
+        <v>43156</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="13">
+        <v>44</v>
+      </c>
+      <c r="F45" s="24">
+        <v>36</v>
+      </c>
+      <c r="G45" s="24">
+        <v>6</v>
+      </c>
+      <c r="H45" s="24">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="21">
+        <v>43157</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="13">
+        <v>45</v>
+      </c>
+      <c r="F46" s="24">
+        <v>1</v>
+      </c>
+      <c r="G46" s="24">
+        <v>6</v>
+      </c>
+      <c r="H46" s="24">
+        <f t="shared" ref="H46:H50" si="6">F46*G46</f>
+        <v>6</v>
+      </c>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="21">
+        <v>43157</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="13">
+        <v>46</v>
+      </c>
+      <c r="F47" s="24">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>43153</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>43153</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="G8" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>43154</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="G47" s="24">
+        <v>6</v>
+      </c>
+      <c r="H47" s="24">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="21">
+        <v>43157</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="13">
+        <v>47</v>
+      </c>
+      <c r="F48" s="24">
+        <v>12</v>
+      </c>
+      <c r="G48" s="24">
+        <v>6</v>
+      </c>
+      <c r="H48" s="24">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="21">
+        <v>43159</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="13">
+        <v>48</v>
+      </c>
+      <c r="F49" s="24">
+        <v>24</v>
+      </c>
+      <c r="G49" s="24">
+        <v>6</v>
+      </c>
+      <c r="H49" s="24">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50" s="21">
+        <v>43159</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="13">
+        <v>49</v>
+      </c>
+      <c r="F50" s="24">
+        <v>36</v>
+      </c>
+      <c r="G50" s="24">
+        <v>6</v>
+      </c>
+      <c r="H50" s="24">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3523,7 +4833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3848,15 +5158,15 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="J12" s="19"/>
+      <c r="J12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3867,7 +5177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4187,7 +5497,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4198,7 +5508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4245,7 +5555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4295,7 +5605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -4870,7 +6180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4935,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -5822,7 +7132,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="18">
         <v>43</v>
       </c>
       <c r="B30" s="1">
@@ -5851,7 +7161,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -5880,7 +7190,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -5909,7 +7219,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -5939,7 +7249,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -5969,7 +7279,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -6001,7 +7311,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -6030,7 +7340,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -6060,7 +7370,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -6089,7 +7399,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -6118,7 +7428,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -6147,7 +7457,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -6176,7 +7486,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -6206,7 +7516,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -6236,7 +7546,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -6265,7 +7575,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -6294,7 +7604,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -6324,7 +7634,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -6354,7 +7664,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+      <c r="A48" s="18">
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -6386,7 +7696,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -6415,7 +7725,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
       <c r="B50" s="1">
@@ -6493,7 +7803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6545,7 +7855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6603,7 +7913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6657,7 +7967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6707,7 +8017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6877,14 +8187,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6894,11 +8204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6948,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>264</v>
       </c>
       <c r="E2" s="6"/>
@@ -6959,7 +8269,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D3" s="8"/>
@@ -6974,7 +8284,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>298</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -6991,7 +8301,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="8"/>
@@ -7006,7 +8316,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>279</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -7023,7 +8333,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D7" s="8"/>
@@ -7038,7 +8348,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>267</v>
       </c>
       <c r="D8" s="8"/>
@@ -7053,7 +8363,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>296</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -7070,7 +8380,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>294</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -7087,7 +8397,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>226</v>
       </c>
       <c r="D11" s="8"/>
@@ -7102,7 +8412,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>227</v>
       </c>
       <c r="D12" s="8"/>
@@ -7117,7 +8427,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D13" s="8"/>
@@ -7132,7 +8442,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>229</v>
       </c>
       <c r="D14" s="8"/>
@@ -7147,7 +8457,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>230</v>
       </c>
       <c r="D15" s="8"/>
@@ -7162,7 +8472,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>231</v>
       </c>
       <c r="D16" s="8"/>
@@ -7177,7 +8487,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>232</v>
       </c>
       <c r="D17" s="8"/>
@@ -7192,7 +8502,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>233</v>
       </c>
       <c r="D18" s="8"/>
@@ -7207,7 +8517,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -7224,7 +8534,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>292</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -7241,7 +8551,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D21" s="8"/>
@@ -7256,7 +8566,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>232</v>
       </c>
       <c r="D22" s="8"/>
@@ -7271,7 +8581,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>290</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -7288,7 +8598,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>288</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7305,7 +8615,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>286</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -7322,7 +8632,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D26" s="8"/>
@@ -7337,7 +8647,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>131</v>
       </c>
       <c r="D27" s="8"/>
@@ -7352,7 +8662,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>131</v>
       </c>
       <c r="D28" s="8"/>
@@ -7367,7 +8677,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>284</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -7384,7 +8694,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>282</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -7401,7 +8711,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>280</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -7418,7 +8728,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="20" t="s">
         <v>229</v>
       </c>
       <c r="D32" s="8"/>
@@ -7433,7 +8743,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -7450,7 +8760,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>270</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -7467,7 +8777,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -7484,7 +8794,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="20" t="s">
         <v>230</v>
       </c>
       <c r="D36" s="8"/>
@@ -7499,7 +8809,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>274</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -7516,7 +8826,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="20" t="s">
         <v>247</v>
       </c>
       <c r="D38" s="8"/>
@@ -7531,7 +8841,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D39" s="8"/>
@@ -7546,7 +8856,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>230</v>
       </c>
       <c r="D40" s="8"/>
@@ -7561,7 +8871,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="8"/>
@@ -7576,7 +8886,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="20" t="s">
         <v>276</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -7593,7 +8903,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>249</v>
       </c>
       <c r="D43" s="8"/>
@@ -7608,7 +8918,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="20" t="s">
         <v>279</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -7625,7 +8935,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="20" t="s">
         <v>250</v>
       </c>
       <c r="D45" s="8"/>
@@ -7640,7 +8950,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D46" s="8"/>
@@ -7655,7 +8965,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="20" t="s">
         <v>252</v>
       </c>
       <c r="D47" s="8"/>
@@ -7670,7 +8980,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="20" t="s">
         <v>253</v>
       </c>
       <c r="D48" s="8"/>
@@ -7685,7 +8995,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>228</v>
       </c>
       <c r="D49" s="8"/>
@@ -7700,7 +9010,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D50" s="8"/>
@@ -7719,11 +9029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8294,7 +9604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8372,7 +9682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8400,7 +9710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/DB_ultimoinca.xlsx
+++ b/DB_ultimoinca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="856" firstSheet="15" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" tabRatio="856" firstSheet="15" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="brix" sheetId="5" r:id="rId1"/>
@@ -4363,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -5003,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
